--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\Projects\DMG Mods\DMGC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CBFAA0-2AB8-4FD5-A123-14BCF82A6300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CA26079-46FD-4CB7-9FDA-C4BBAC4EC90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
+    <sheet name="WIP" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="293">
   <si>
     <t>Qty</t>
   </si>
@@ -241,9 +242,6 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>LMV358</t>
-  </si>
-  <si>
     <t>SOIC-8</t>
   </si>
   <si>
@@ -259,6 +257,9 @@
     <t>R4</t>
   </si>
   <si>
+    <t>R5</t>
+  </si>
+  <si>
     <t>R8</t>
   </si>
   <si>
@@ -298,6 +299,9 @@
     <t>TPS62056</t>
   </si>
   <si>
+    <t>SOT23-6</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/en/products/detail/yageo/CC0603FRNPO9BN270/5883500</t>
   </si>
   <si>
@@ -373,9 +377,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>C24, C28, C43, C52, C53</t>
   </si>
   <si>
@@ -409,24 +410,9 @@
     <t>C1, C2, C7, C8, C24</t>
   </si>
   <si>
-    <t>R1, R22-R29</t>
-  </si>
-  <si>
     <t>402k</t>
   </si>
   <si>
-    <t>R3, R5</t>
-  </si>
-  <si>
-    <t>249k</t>
-  </si>
-  <si>
-    <t>R2, R9</t>
-  </si>
-  <si>
-    <t>R6, R7, R11, R12</t>
-  </si>
-  <si>
     <t>R13</t>
   </si>
   <si>
@@ -448,9 +434,6 @@
     <t>Q3</t>
   </si>
   <si>
-    <t>R1, R4, R5, R6, R9, R10, R11</t>
-  </si>
-  <si>
     <t>R2, R3</t>
   </si>
   <si>
@@ -625,9 +608,6 @@
     <t>Recommended at least 1% tolerance</t>
   </si>
   <si>
-    <t>Board has space for a 100uF SMD tantalum electrolytic</t>
-  </si>
-  <si>
     <t>5mm dia x 11 mm len</t>
   </si>
   <si>
@@ -649,15 +629,9 @@
     <t>LED10-LED17</t>
   </si>
   <si>
-    <t>R22-R29 optional (only if discrete LEDs for LED10-LED17)</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07402KL/727223</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07249KL/727086</t>
-  </si>
-  <si>
     <t>15k</t>
   </si>
   <si>
@@ -673,9 +647,6 @@
     <t>https://www.digikey.com/en/products/detail/microchip-technology/ATTINY85-20SFR/5057266</t>
   </si>
   <si>
-    <t>Sometimes stocking issues - might be able to find on eBay</t>
-  </si>
-  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -703,7 +674,7 @@
     <t>C3, C4</t>
   </si>
   <si>
-    <t>Should be X5R (or better); at least 1% tolerance; at least 25V</t>
+    <t>Should be X5R (or better), at least 16V</t>
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31A226KAHNNNE?qs=X6jEic%2FHinCdwsjGJII51w%3D%3D</t>
@@ -763,9 +734,6 @@
     <t>15-VQFN-HR</t>
   </si>
   <si>
-    <t>Might be difficult to find. Check octopart.com. TPS630702 preferred.</t>
-  </si>
-  <si>
     <t>Flat Flexible Cable</t>
   </si>
   <si>
@@ -799,9 +767,6 @@
     <t>Panasonic ECE-A0JKA101 might be a good replacement</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/TPS630702RNMT/296-TPS630702RNMTCT-ND/10435142</t>
-  </si>
-  <si>
     <t>Can also used salvaged DMG speaker</t>
   </si>
   <si>
@@ -835,9 +800,6 @@
     <t>R1, R4, R6, R9, R11</t>
   </si>
   <si>
-    <t>R2, R3, R5, R10</t>
-  </si>
-  <si>
     <t>R12</t>
   </si>
   <si>
@@ -908,6 +870,72 @@
   </si>
   <si>
     <t>Should be able to use: BLA31AG601SN4D</t>
+  </si>
+  <si>
+    <t>C2, C8, C9, C11</t>
+  </si>
+  <si>
+    <t>TPS3702CX50DDCT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/TPS3702CX50DDCT/5250202</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>TPS3840DLXX can be used instead (XX = 35 to 22)</t>
+  </si>
+  <si>
+    <t>R2, R3, R10</t>
+  </si>
+  <si>
+    <t>R8, R10</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R1, R4, R9, R10, R11, R12, R13</t>
+  </si>
+  <si>
+    <t>Board has space for a 100uF SMD tantalum electrolytic instead</t>
+  </si>
+  <si>
+    <t>151033RS03000</t>
+  </si>
+  <si>
+    <t>R2, R6, R7</t>
+  </si>
+  <si>
+    <t>R3, R5, R11, R12</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>LMV358M</t>
+  </si>
+  <si>
+    <t>R22-R29</t>
+  </si>
+  <si>
+    <t>Only if using discrete LEDs for LED10-LED17 (adjust resistance for brightness)</t>
+  </si>
+  <si>
+    <t>Only if using NeoPixels (might need to buy the ATTINY from eBay or AliEx)</t>
+  </si>
+  <si>
+    <t>Should be X5R (or better); at least 1% tolerance; at least 16V</t>
+  </si>
+  <si>
+    <t>Link leads to a 10-pack. Discrete 0603-size LEDs can be used instead</t>
+  </si>
+  <si>
+    <t>https://octopart.com/search?q=tps63070&amp;currency=USD&amp;specs=0</t>
+  </si>
+  <si>
+    <t>Might be difficult to find. Check octopart.com. TPS630702 preferred, but all will work</t>
   </si>
 </sst>
 </file>
@@ -1340,35 +1368,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A52F74-6B21-4A92-88AA-13BD0DE1F9EF}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="168.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>1</v>
@@ -1377,15 +1406,15 @@
         <v>45</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>44</v>
@@ -1403,10 +1432,10 @@
         <v>46</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1454,13 +1483,13 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1481,10 +1510,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1505,10 +1534,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1523,25 +1552,25 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -1556,13 +1585,13 @@
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1583,13 +1612,13 @@
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1610,10 +1639,10 @@
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1628,19 +1657,19 @@
         <v>0.44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1655,16 +1684,16 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1673,22 +1702,22 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1697,16 +1726,16 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1718,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1736,7 +1765,7 @@
         <v>52</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1751,7 +1780,7 @@
         <v>0.16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>4</v>
@@ -1760,7 +1789,7 @@
         <v>47</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1784,7 +1813,7 @@
         <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1799,19 +1828,19 @@
         <v>0.21</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F19" s="5">
         <v>1206</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1826,14 +1855,14 @@
         <v>0.65</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1853,16 +1882,16 @@
         <v>54</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1871,16 +1900,16 @@
         <v>0.49</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F22" s="5">
         <v>1206</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1895,22 +1924,22 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1919,70 +1948,73 @@
         <v>0.1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="13">
         <v>0.1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="13">
         <v>0.1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1991,139 +2023,136 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14">
         <v>0.1</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="5">
+        <v>100</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="14">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13">
         <v>0.1</v>
       </c>
-      <c r="E29" s="5">
-        <v>100</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="4">
         <v>2</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="14">
         <v>0.1</v>
       </c>
-      <c r="E30" s="1">
-        <v>510</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>88</v>
+        <v>166</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" s="13">
         <v>0.1</v>
       </c>
       <c r="E31" s="1">
-        <v>270</v>
+        <v>510</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2</v>
-      </c>
-      <c r="D32" s="14">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="13">
         <v>0.1</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="1">
+        <v>270</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2141,7 +2170,7 @@
         <v>58</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2162,7 +2191,7 @@
         <v>59</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2180,10 +2209,10 @@
         <v>37</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2204,10 +2233,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2222,19 +2251,19 @@
         <v>0.67</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2249,16 +2278,16 @@
         <v>1.21</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2280,10 +2309,10 @@
         <v>49</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2301,16 +2330,16 @@
         <v>41</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="C41" s="15" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D41" s="16" cm="1">
         <f t="array" ref="D41">SUMPRODUCT(C2:C40*D2:D40)</f>
@@ -2319,7 +2348,7 @@
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>116</v>
@@ -2337,13 +2366,13 @@
         <v>4</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2361,16 +2390,16 @@
         <v>113</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2391,16 +2420,16 @@
         <v>4</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2409,20 +2438,20 @@
         <v>2.57</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
@@ -2430,19 +2459,21 @@
       <c r="D46" s="14">
         <v>0.65</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2450,21 +2481,23 @@
       <c r="D47" s="14">
         <v>0.18</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="F47" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C48" s="4">
         <v>8</v>
@@ -2474,16 +2507,19 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F48" s="5">
         <v>2020</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2498,148 +2534,148 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D50" s="14">
         <v>0.1</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="C51" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D51" s="14">
         <v>0.1</v>
       </c>
-      <c r="E51" s="5">
-        <v>510</v>
+      <c r="E51" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="4">
-        <v>2</v>
-      </c>
-      <c r="D52" s="14">
+      <c r="B52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="13">
         <v>0.1</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F52" s="9" t="s">
+      <c r="E52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>198</v>
+        <v>166</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="4" t="s">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="C53" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" s="14">
         <v>0.1</v>
       </c>
-      <c r="E53" s="5">
-        <v>100</v>
+      <c r="E53" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C54" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D54" s="14">
         <v>0.1</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>120</v>
+      <c r="E54" s="5">
+        <v>100</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="4" t="s">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="C55" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="14">
         <v>0.1</v>
@@ -2651,16 +2687,16 @@
         <v>4</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
-        <v>123</v>
+        <v>284</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2668,263 +2704,260 @@
       <c r="D56" s="14">
         <v>0.1</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>200</v>
+      <c r="E56" s="5">
+        <v>510</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="4" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
       </c>
       <c r="D57" s="14">
-        <v>3.9</v>
+        <v>0.1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F57" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="4" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
       </c>
       <c r="D58" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+        <v>3.9</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="9"/>
       <c r="G58" s="4" t="s">
-        <v>70</v>
+        <v>131</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="4" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
       </c>
       <c r="D59" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
       <c r="G59" s="4" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
       </c>
       <c r="D60" s="14">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>209</v>
+        <v>285</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="C61" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D61" s="17">
-        <f>SUMPRODUCT(C42:C60,D42:D60)</f>
-        <v>18.190000000000001</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="9"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="B61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1.26</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="C62" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="17">
+        <f>SUMPRODUCT(C42:C61,D42:D61)</f>
+        <v>18.290000000000003</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="9"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="4">
         <v>2</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="4">
-        <v>3</v>
-      </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="4" t="s">
-        <v>170</v>
+        <v>257</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="4" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C64" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" s="14"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="F64" s="9"/>
       <c r="G64" s="4" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C65" s="4">
-        <v>2</v>
-      </c>
-      <c r="D65" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="C66" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D66" s="17">
-        <f>SUMPRODUCT(C62:C65,D62:D65)</f>
+      <c r="B66" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2</v>
+      </c>
+      <c r="D66" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="C67" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" s="17">
+        <f>SUMPRODUCT(C63:C66,D63:D66)</f>
         <v>0.78</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="9"/>
-      <c r="I66" s="8"/>
-    </row>
-    <row r="67" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" s="4">
-        <v>2</v>
-      </c>
-      <c r="D67" s="14">
-        <v>0.39</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="9"/>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+      <c r="A68" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="B68" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
@@ -2939,169 +2972,172 @@
         <v>4</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="C69" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69" s="14">
-        <v>0.74</v>
+        <v>0.1</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="9">
-        <v>1206</v>
+        <v>60</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="4" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="C70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="14">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
       </c>
       <c r="D71" s="14">
-        <v>0.28000000000000003</v>
+        <v>0.74</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>4</v>
+        <v>121</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1206</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>47</v>
+        <v>256</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="4" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
       </c>
-      <c r="D72" s="14">
-        <v>1.44</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F72" s="5">
-        <v>1212</v>
+      <c r="D72" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="4" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
       </c>
       <c r="D73" s="14">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>76</v>
+        <v>17</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="4" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="C74" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="14">
-        <v>0.22</v>
+        <v>1.44</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>76</v>
+        <v>123</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1212</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>228</v>
+        <v>209</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="4" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
@@ -3110,767 +3146,908 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="4" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="C76" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D76" s="14">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>4</v>
+        <v>129</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C77" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="14">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>4</v>
+        <v>212</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="4" t="s">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="C78" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D78" s="14">
         <v>0.1</v>
       </c>
-      <c r="E78" s="5">
-        <v>100</v>
+      <c r="E78" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="4" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="C79" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="14">
         <v>0.1</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>276</v>
+        <v>166</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>229</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="4" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
       </c>
-      <c r="D80" s="14">
-        <v>1.21</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>39</v>
+      <c r="D80" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>232</v>
+        <v>166</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
       </c>
       <c r="D81" s="14">
-        <v>3.39</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>234</v>
+        <v>0.1</v>
+      </c>
+      <c r="E81" s="5">
+        <v>100</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
-      <c r="C82" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D82" s="17">
-        <f>SUMPRODUCT(C67:C81,D67:D81)</f>
-        <v>10.66</v>
-      </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="I82" s="8"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>239</v>
-      </c>
+      <c r="B82" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+      <c r="D82" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
       <c r="B83" s="4" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="C83" s="4">
-        <v>3</v>
-      </c>
-      <c r="D83" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D83" s="14">
+        <v>1.21</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="4" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="C84" s="4">
-        <v>2</v>
-      </c>
-      <c r="D84" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D84" s="14">
+        <v>3.39</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>269</v>
+        <v>232</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="4" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="C85" s="4">
-        <v>2</v>
-      </c>
-      <c r="D85" s="13">
-        <v>0.39</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="D85" s="14">
+        <v>3.47</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>269</v>
+        <v>168</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
-      <c r="B86" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C86" s="4">
-        <v>1</v>
-      </c>
-      <c r="D86" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="4">
-        <v>1</v>
-      </c>
-      <c r="D87" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="4">
-        <v>1</v>
-      </c>
-      <c r="D88" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1212</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="4" t="s">
+      <c r="C86" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C89" s="4">
-        <v>1</v>
-      </c>
-      <c r="D89" s="13">
-        <v>0.36</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1212</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C90" s="4">
-        <v>1</v>
-      </c>
-      <c r="D90" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C91" s="4">
-        <v>2</v>
-      </c>
-      <c r="D91" s="14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C92" s="4">
-        <v>2</v>
-      </c>
-      <c r="D92" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" s="4">
-        <v>1</v>
-      </c>
-      <c r="D93" s="14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C94" s="4">
-        <v>5</v>
-      </c>
-      <c r="D94" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" s="4">
-        <v>4</v>
-      </c>
-      <c r="D95" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="4">
-        <v>1</v>
-      </c>
-      <c r="D96" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E96" s="1">
-        <v>100</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="4">
-        <v>1</v>
-      </c>
-      <c r="D97" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C98" s="4">
-        <v>1</v>
-      </c>
-      <c r="D98" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" s="4">
-        <v>1</v>
-      </c>
-      <c r="D99" s="13">
-        <v>2.61</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" s="4">
-        <v>1</v>
-      </c>
-      <c r="D100" s="13">
-        <v>2.94</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C101" s="4">
-        <v>1</v>
-      </c>
-      <c r="D101" s="13">
-        <v>1.21</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="C102" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D102" s="16">
-        <f>SUMPRODUCT(C83:C101,D83:D101)</f>
-        <v>12.119999999999997</v>
-      </c>
+      <c r="D86" s="17">
+        <f>SUMPRODUCT(C70:C85,D70:D85)</f>
+        <v>13.33</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="I86" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A67:A82"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A42:A61"/>
+  <mergeCells count="4">
+    <mergeCell ref="A68:A86"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A42:A62"/>
     <mergeCell ref="A2:A41"/>
-    <mergeCell ref="A83:A102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I18" r:id="rId1" xr:uid="{533531D7-E2DD-484C-90E8-FE450EDAA4D0}"/>
     <hyperlink ref="I22" r:id="rId2" xr:uid="{09714B1A-E775-419E-8202-A09F642D6DD4}"/>
-    <hyperlink ref="I30" r:id="rId3" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
-    <hyperlink ref="I42" r:id="rId4" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B104KO8NNWC/3887597?s=N4IgTCBcDaIMIBkCMAGAQqgLAaQPIA4A5QgdThAF0BfIA" xr:uid="{AD90D026-207E-499E-8B33-24788ABF1AAE}"/>
-    <hyperlink ref="I50" r:id="rId5" xr:uid="{507087C9-F764-4309-B5F6-98EE820859B2}"/>
-    <hyperlink ref="I17" r:id="rId6" xr:uid="{2D09FB30-3329-4175-993E-59AE1C8AF6B1}"/>
-    <hyperlink ref="I19" r:id="rId7" xr:uid="{EAD0EB91-0E07-454F-A47E-D46C454C2792}"/>
-    <hyperlink ref="I20" r:id="rId8" xr:uid="{94280B35-2F12-4EC8-BECD-826B848EB548}"/>
-    <hyperlink ref="I28" r:id="rId9" xr:uid="{890600A0-CDA6-4169-914B-6E09158E9D08}"/>
-    <hyperlink ref="I29" r:id="rId10" xr:uid="{521BAB14-AAAB-4E99-B6B1-DC297ACB35D3}"/>
-    <hyperlink ref="I26" r:id="rId11" xr:uid="{E2BED9B7-E7F4-4BB7-9480-D361CBDECBC2}"/>
-    <hyperlink ref="I36" r:id="rId12" xr:uid="{15B8EEF4-68C4-4DD0-A0F9-D3CC2AD34F6B}"/>
-    <hyperlink ref="I38" r:id="rId13" xr:uid="{6CDB6EA4-1EF0-49AD-BA6D-DBDCE9DA23E7}"/>
-    <hyperlink ref="I37" r:id="rId14" xr:uid="{8E30D815-E8BC-4979-A808-89140DBFB640}"/>
-    <hyperlink ref="I39" r:id="rId15" xr:uid="{23AA2283-4006-4B92-8C2D-03FD5BBC4105}"/>
-    <hyperlink ref="I23" r:id="rId16" xr:uid="{ED7A08E1-4692-4C4D-9066-747FB141BD4A}"/>
-    <hyperlink ref="I32" r:id="rId17" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
-    <hyperlink ref="I13" r:id="rId18" xr:uid="{A69B9089-2ADA-4A9F-889A-92F3E5EBAA57}"/>
-    <hyperlink ref="I14" r:id="rId19" xr:uid="{6E01A22F-6C41-4771-BE7F-F82B7AB657A8}"/>
-    <hyperlink ref="I3" r:id="rId20" xr:uid="{DC9D2B33-4B39-4535-8300-2803394C7237}"/>
-    <hyperlink ref="I4" r:id="rId21" xr:uid="{1F1957AF-BD0E-46CD-BDA5-98084257928F}"/>
-    <hyperlink ref="I7" r:id="rId22" xr:uid="{A04755A4-C49E-4922-977B-FFD3400D614C}"/>
-    <hyperlink ref="I8" r:id="rId23" xr:uid="{382BCF6C-1828-4906-A696-55D83A50179A}"/>
-    <hyperlink ref="I9" r:id="rId24" display="https://www.digikey.com/en/products/detail/kemet/C0603C104K4RAC7867/411095?s=N4IgTCBcDaIMIAYBsCDMcCMCAsBpbASgIJwDsAHEqSALoC%2BQA" xr:uid="{0B379DF2-17D2-43B1-AC70-14210742FE02}"/>
-    <hyperlink ref="I11" r:id="rId25" xr:uid="{1C490D85-3751-4CD0-8F1A-EB5D3F5DEDB8}"/>
-    <hyperlink ref="I24" r:id="rId26" xr:uid="{788713CC-6D26-4858-914E-2A666D70E766}"/>
-    <hyperlink ref="I25" r:id="rId27" xr:uid="{A53E990E-9129-4EB1-A34B-0C78C0D9E34D}"/>
-    <hyperlink ref="I27" r:id="rId28" xr:uid="{76C67D05-F2EA-44A2-BD81-EF2014CF57EC}"/>
-    <hyperlink ref="I43" r:id="rId29" xr:uid="{F90AB032-219C-4117-8CC7-BC9E853E4698}"/>
-    <hyperlink ref="I44" r:id="rId30" xr:uid="{49CC98DC-1B54-431E-9034-D174BB2AC2CC}"/>
-    <hyperlink ref="I47" r:id="rId31" xr:uid="{9C9AC3AA-79BD-46AD-815A-2DBF971DA7BE}"/>
-    <hyperlink ref="I46" r:id="rId32" xr:uid="{886DD40C-FC23-44CD-AB12-BF574B3AE2C4}"/>
-    <hyperlink ref="I52" r:id="rId33" xr:uid="{01EEB93E-EB32-49F6-8E28-29BD44012437}"/>
-    <hyperlink ref="I53" r:id="rId34" xr:uid="{1802D61C-0700-4523-A04E-B1A281DC6037}"/>
-    <hyperlink ref="I54" r:id="rId35" xr:uid="{3A1EB87B-6EF7-4A8E-A09F-5C53CB0B08AE}"/>
-    <hyperlink ref="I55" r:id="rId36" xr:uid="{11FEC115-DD16-4732-8AA9-A526F99E0835}"/>
-    <hyperlink ref="I56" r:id="rId37" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
-    <hyperlink ref="I59" r:id="rId38" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
-    <hyperlink ref="I58" r:id="rId39" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
-    <hyperlink ref="I68" r:id="rId40" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
-    <hyperlink ref="I67" r:id="rId41" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
-    <hyperlink ref="I69" r:id="rId42" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
-    <hyperlink ref="I71" r:id="rId43" xr:uid="{A1639E89-E10D-459F-B265-A46F8D8B68A3}"/>
-    <hyperlink ref="I72" r:id="rId44" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
-    <hyperlink ref="I75" r:id="rId45" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
-    <hyperlink ref="I73" r:id="rId46" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
-    <hyperlink ref="I74" r:id="rId47" xr:uid="{E7CA3C10-4F99-4EE7-94BE-5D160F33AE96}"/>
-    <hyperlink ref="I78" r:id="rId48" xr:uid="{484D13F0-6DCE-4E53-B164-D4275F56760D}"/>
-    <hyperlink ref="I79" r:id="rId49" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
-    <hyperlink ref="I45" r:id="rId50" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
-    <hyperlink ref="I65" r:id="rId51" xr:uid="{ACD5E8E3-82D9-41E7-98EC-33882BFBCB63}"/>
-    <hyperlink ref="I2" r:id="rId52" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
-    <hyperlink ref="I5" r:id="rId53" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
-    <hyperlink ref="I10" r:id="rId54" xr:uid="{38676E5E-4ABA-45F9-95EC-56E10A2FCB56}"/>
-    <hyperlink ref="I21" r:id="rId55" xr:uid="{4650E4B6-75A4-4E6C-8A59-99E45F1EFF0A}"/>
-    <hyperlink ref="I31" r:id="rId56" xr:uid="{40DBDCDE-0507-4D06-908C-E1B13368B813}"/>
-    <hyperlink ref="I51" r:id="rId57" xr:uid="{45D1A091-5CED-4B86-9AC8-2002D5B2F99D}"/>
-    <hyperlink ref="I60" r:id="rId58" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
-    <hyperlink ref="I70" r:id="rId59" xr:uid="{1DAAAD73-88F0-439C-9737-EB4C6E63E336}"/>
-    <hyperlink ref="I76" r:id="rId60" xr:uid="{3B51599B-8C52-493C-AB80-6F0FEA459212}"/>
-    <hyperlink ref="I77" r:id="rId61" xr:uid="{CACE430A-0FEB-464A-A5CC-002781D70F11}"/>
-    <hyperlink ref="I80" r:id="rId62" xr:uid="{9B7BDEE2-E6CE-4AE5-ABF1-8A42E55988B3}"/>
-    <hyperlink ref="I81" r:id="rId63" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
-    <hyperlink ref="I57" r:id="rId64" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
-    <hyperlink ref="I93" r:id="rId65" xr:uid="{79BBE6FC-F683-4581-A574-64645095772E}"/>
-    <hyperlink ref="I91" r:id="rId66" xr:uid="{C4F650FC-E607-412E-863B-35650BA182AB}"/>
-    <hyperlink ref="I92" r:id="rId67" xr:uid="{2208FB6C-DDB0-41AA-BDF0-D5B697826CA9}"/>
-    <hyperlink ref="I96" r:id="rId68" xr:uid="{7785A923-7528-48A7-9B1A-9CFDC697B9F4}"/>
-    <hyperlink ref="I94" r:id="rId69" xr:uid="{9F764F6C-A19D-4407-BD96-8F28F124945E}"/>
-    <hyperlink ref="I95" r:id="rId70" xr:uid="{F37DA3EE-FAFF-4F80-86DC-06D996AA68C2}"/>
-    <hyperlink ref="I97" r:id="rId71" xr:uid="{8ADAB615-CCC9-4D2A-9047-6196CE215E7F}"/>
-    <hyperlink ref="I98" r:id="rId72" xr:uid="{8450F332-20AC-4ED7-BF5C-7A75C611604F}"/>
-    <hyperlink ref="I87" r:id="rId73" xr:uid="{0FABD899-931D-4A0C-9864-642DF8E6C417}"/>
-    <hyperlink ref="I99" r:id="rId74" xr:uid="{CD921A06-ABAE-417B-BA27-3F2486B3AE58}"/>
-    <hyperlink ref="I100" r:id="rId75" xr:uid="{32A9F3BF-5314-4A71-9410-BA3B1C321AD0}"/>
-    <hyperlink ref="I101" r:id="rId76" xr:uid="{C5CC743D-35A2-4985-A957-2121A8C5C5FF}"/>
-    <hyperlink ref="I84" r:id="rId77" xr:uid="{4FE635D4-DE27-457C-9688-0DA222677D6E}"/>
-    <hyperlink ref="I86" r:id="rId78" xr:uid="{D541C551-EAF4-4D6C-A0B9-71674A4FFADE}"/>
-    <hyperlink ref="I89" r:id="rId79" xr:uid="{F2ACFC2A-2E76-4279-8663-E8F9AE70FA7F}"/>
-    <hyperlink ref="I88" r:id="rId80" xr:uid="{640DA278-841B-4E5B-98B5-3B7FE8556B45}"/>
-    <hyperlink ref="I90" r:id="rId81" xr:uid="{362985F9-CA1A-4EC3-BF81-BCCAA1784C47}"/>
-    <hyperlink ref="I6" r:id="rId82" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
-    <hyperlink ref="I48" r:id="rId83" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
-    <hyperlink ref="I49" r:id="rId84" xr:uid="{2DEFF0FC-34A2-4A3F-A1B9-904A38ED741E}"/>
-    <hyperlink ref="I83" r:id="rId85" xr:uid="{FC246FA7-9025-48EC-88CF-C72CCA7C69B1}"/>
-    <hyperlink ref="I85" r:id="rId86" xr:uid="{72CC2697-C723-43A4-8EE2-A61686C4186C}"/>
+    <hyperlink ref="I42" r:id="rId3" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B104KO8NNWC/3887597?s=N4IgTCBcDaIMIBkCMAGAQqgLAaQPIA4A5QgdThAF0BfIA" xr:uid="{AD90D026-207E-499E-8B33-24788ABF1AAE}"/>
+    <hyperlink ref="I50" r:id="rId4" xr:uid="{507087C9-F764-4309-B5F6-98EE820859B2}"/>
+    <hyperlink ref="I17" r:id="rId5" xr:uid="{2D09FB30-3329-4175-993E-59AE1C8AF6B1}"/>
+    <hyperlink ref="I19" r:id="rId6" xr:uid="{EAD0EB91-0E07-454F-A47E-D46C454C2792}"/>
+    <hyperlink ref="I20" r:id="rId7" xr:uid="{94280B35-2F12-4EC8-BECD-826B848EB548}"/>
+    <hyperlink ref="I27" r:id="rId8" xr:uid="{890600A0-CDA6-4169-914B-6E09158E9D08}"/>
+    <hyperlink ref="I28" r:id="rId9" xr:uid="{521BAB14-AAAB-4E99-B6B1-DC297ACB35D3}"/>
+    <hyperlink ref="I25" r:id="rId10" xr:uid="{E2BED9B7-E7F4-4BB7-9480-D361CBDECBC2}"/>
+    <hyperlink ref="I36" r:id="rId11" xr:uid="{15B8EEF4-68C4-4DD0-A0F9-D3CC2AD34F6B}"/>
+    <hyperlink ref="I38" r:id="rId12" xr:uid="{6CDB6EA4-1EF0-49AD-BA6D-DBDCE9DA23E7}"/>
+    <hyperlink ref="I37" r:id="rId13" xr:uid="{8E30D815-E8BC-4979-A808-89140DBFB640}"/>
+    <hyperlink ref="I39" r:id="rId14" xr:uid="{23AA2283-4006-4B92-8C2D-03FD5BBC4105}"/>
+    <hyperlink ref="I23" r:id="rId15" xr:uid="{ED7A08E1-4692-4C4D-9066-747FB141BD4A}"/>
+    <hyperlink ref="I30" r:id="rId16" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
+    <hyperlink ref="I13" r:id="rId17" xr:uid="{A69B9089-2ADA-4A9F-889A-92F3E5EBAA57}"/>
+    <hyperlink ref="I14" r:id="rId18" xr:uid="{6E01A22F-6C41-4771-BE7F-F82B7AB657A8}"/>
+    <hyperlink ref="I3" r:id="rId19" xr:uid="{DC9D2B33-4B39-4535-8300-2803394C7237}"/>
+    <hyperlink ref="I4" r:id="rId20" xr:uid="{1F1957AF-BD0E-46CD-BDA5-98084257928F}"/>
+    <hyperlink ref="I7" r:id="rId21" xr:uid="{A04755A4-C49E-4922-977B-FFD3400D614C}"/>
+    <hyperlink ref="I8" r:id="rId22" xr:uid="{382BCF6C-1828-4906-A696-55D83A50179A}"/>
+    <hyperlink ref="I9" r:id="rId23" display="https://www.digikey.com/en/products/detail/kemet/C0603C104K4RAC7867/411095?s=N4IgTCBcDaIMIAYBsCDMcCMCAsBpbASgIJwDsAHEqSALoC%2BQA" xr:uid="{0B379DF2-17D2-43B1-AC70-14210742FE02}"/>
+    <hyperlink ref="I11" r:id="rId24" xr:uid="{1C490D85-3751-4CD0-8F1A-EB5D3F5DEDB8}"/>
+    <hyperlink ref="I24" r:id="rId25" xr:uid="{788713CC-6D26-4858-914E-2A666D70E766}"/>
+    <hyperlink ref="I29" r:id="rId26" xr:uid="{A53E990E-9129-4EB1-A34B-0C78C0D9E34D}"/>
+    <hyperlink ref="I26" r:id="rId27" xr:uid="{76C67D05-F2EA-44A2-BD81-EF2014CF57EC}"/>
+    <hyperlink ref="I43" r:id="rId28" xr:uid="{F90AB032-219C-4117-8CC7-BC9E853E4698}"/>
+    <hyperlink ref="I44" r:id="rId29" xr:uid="{49CC98DC-1B54-431E-9034-D174BB2AC2CC}"/>
+    <hyperlink ref="I47" r:id="rId30" xr:uid="{9C9AC3AA-79BD-46AD-815A-2DBF971DA7BE}"/>
+    <hyperlink ref="I46" r:id="rId31" xr:uid="{886DD40C-FC23-44CD-AB12-BF574B3AE2C4}"/>
+    <hyperlink ref="I53" r:id="rId32" xr:uid="{01EEB93E-EB32-49F6-8E28-29BD44012437}"/>
+    <hyperlink ref="I54" r:id="rId33" xr:uid="{1802D61C-0700-4523-A04E-B1A281DC6037}"/>
+    <hyperlink ref="I55" r:id="rId34" xr:uid="{11FEC115-DD16-4732-8AA9-A526F99E0835}"/>
+    <hyperlink ref="I57" r:id="rId35" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
+    <hyperlink ref="I60" r:id="rId36" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
+    <hyperlink ref="I59" r:id="rId37" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
+    <hyperlink ref="I68" r:id="rId38" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
+    <hyperlink ref="I70" r:id="rId39" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
+    <hyperlink ref="I71" r:id="rId40" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
+    <hyperlink ref="I73" r:id="rId41" xr:uid="{A1639E89-E10D-459F-B265-A46F8D8B68A3}"/>
+    <hyperlink ref="I74" r:id="rId42" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
+    <hyperlink ref="I77" r:id="rId43" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
+    <hyperlink ref="I75" r:id="rId44" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
+    <hyperlink ref="I76" r:id="rId45" xr:uid="{E7CA3C10-4F99-4EE7-94BE-5D160F33AE96}"/>
+    <hyperlink ref="I81" r:id="rId46" xr:uid="{484D13F0-6DCE-4E53-B164-D4275F56760D}"/>
+    <hyperlink ref="I82" r:id="rId47" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
+    <hyperlink ref="I45" r:id="rId48" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
+    <hyperlink ref="I66" r:id="rId49" xr:uid="{ACD5E8E3-82D9-41E7-98EC-33882BFBCB63}"/>
+    <hyperlink ref="I2" r:id="rId50" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
+    <hyperlink ref="I5" r:id="rId51" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
+    <hyperlink ref="I10" r:id="rId52" xr:uid="{38676E5E-4ABA-45F9-95EC-56E10A2FCB56}"/>
+    <hyperlink ref="I21" r:id="rId53" xr:uid="{4650E4B6-75A4-4E6C-8A59-99E45F1EFF0A}"/>
+    <hyperlink ref="I32" r:id="rId54" xr:uid="{40DBDCDE-0507-4D06-908C-E1B13368B813}"/>
+    <hyperlink ref="I56" r:id="rId55" xr:uid="{45D1A091-5CED-4B86-9AC8-2002D5B2F99D}"/>
+    <hyperlink ref="I61" r:id="rId56" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
+    <hyperlink ref="I69" r:id="rId57" xr:uid="{1DAAAD73-88F0-439C-9737-EB4C6E63E336}"/>
+    <hyperlink ref="I78" r:id="rId58" xr:uid="{3B51599B-8C52-493C-AB80-6F0FEA459212}"/>
+    <hyperlink ref="I79" r:id="rId59" xr:uid="{CACE430A-0FEB-464A-A5CC-002781D70F11}"/>
+    <hyperlink ref="I84" r:id="rId60" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
+    <hyperlink ref="I58" r:id="rId61" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
+    <hyperlink ref="I6" r:id="rId62" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
+    <hyperlink ref="I48" r:id="rId63" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
+    <hyperlink ref="I49" r:id="rId64" xr:uid="{2DEFF0FC-34A2-4A3F-A1B9-904A38ED741E}"/>
+    <hyperlink ref="I85" r:id="rId65" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
+    <hyperlink ref="I72" r:id="rId66" xr:uid="{D2FA5074-A469-4668-A758-7594738B7307}"/>
+    <hyperlink ref="I80" r:id="rId67" xr:uid="{2FEF1C3A-313B-4115-97C7-18582C47407C}"/>
+    <hyperlink ref="I83" r:id="rId68" xr:uid="{874E2A89-C534-4396-99F5-3BD8778304FD}"/>
+    <hyperlink ref="I31" r:id="rId69" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
+    <hyperlink ref="I52" r:id="rId70" xr:uid="{A0E917B0-7DBD-4301-A95B-52097311D06E}"/>
+    <hyperlink ref="I51" r:id="rId71" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId87"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId72"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7834D736-4B81-4AFB-B7D7-D8B1AE90D75D}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1212</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1212</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2.61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2.94</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1.21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="C20" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="16">
+        <f>SUMPRODUCT(C1:C19,D1:D19)</f>
+        <v>12.02</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{79BBE6FC-F683-4581-A574-64645095772E}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{C4F650FC-E607-412E-863B-35650BA182AB}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{2208FB6C-DDB0-41AA-BDF0-D5B697826CA9}"/>
+    <hyperlink ref="I14" r:id="rId4" xr:uid="{7785A923-7528-48A7-9B1A-9CFDC697B9F4}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{9F764F6C-A19D-4407-BD96-8F28F124945E}"/>
+    <hyperlink ref="I13" r:id="rId6" xr:uid="{F37DA3EE-FAFF-4F80-86DC-06D996AA68C2}"/>
+    <hyperlink ref="I15" r:id="rId7" xr:uid="{8ADAB615-CCC9-4D2A-9047-6196CE215E7F}"/>
+    <hyperlink ref="I16" r:id="rId8" xr:uid="{8450F332-20AC-4ED7-BF5C-7A75C611604F}"/>
+    <hyperlink ref="I5" r:id="rId9" xr:uid="{0FABD899-931D-4A0C-9864-642DF8E6C417}"/>
+    <hyperlink ref="I17" r:id="rId10" xr:uid="{CD921A06-ABAE-417B-BA27-3F2486B3AE58}"/>
+    <hyperlink ref="I18" r:id="rId11" xr:uid="{32A9F3BF-5314-4A71-9410-BA3B1C321AD0}"/>
+    <hyperlink ref="I19" r:id="rId12" xr:uid="{C5CC743D-35A2-4985-A957-2121A8C5C5FF}"/>
+    <hyperlink ref="I2" r:id="rId13" xr:uid="{4FE635D4-DE27-457C-9688-0DA222677D6E}"/>
+    <hyperlink ref="I4" r:id="rId14" xr:uid="{D541C551-EAF4-4D6C-A0B9-71674A4FFADE}"/>
+    <hyperlink ref="I7" r:id="rId15" xr:uid="{F2ACFC2A-2E76-4279-8663-E8F9AE70FA7F}"/>
+    <hyperlink ref="I6" r:id="rId16" xr:uid="{640DA278-841B-4E5B-98B5-3B7FE8556B45}"/>
+    <hyperlink ref="I8" r:id="rId17" xr:uid="{362985F9-CA1A-4EC3-BF81-BCCAA1784C47}"/>
+    <hyperlink ref="I1" r:id="rId18" xr:uid="{FC246FA7-9025-48EC-88CF-C72CCA7C69B1}"/>
+    <hyperlink ref="I3" r:id="rId19" xr:uid="{72CC2697-C723-43A4-8EE2-A61686C4186C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CA26079-46FD-4CB7-9FDA-C4BBAC4EC90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463CF507-EAC3-4FD6-A464-F5FDD34ED84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
@@ -407,9 +407,6 @@
     <t>220pF</t>
   </si>
   <si>
-    <t>C1, C2, C7, C8, C24</t>
-  </si>
-  <si>
     <t>402k</t>
   </si>
   <si>
@@ -936,6 +933,9 @@
   </si>
   <si>
     <t>Might be difficult to find. Check octopart.com. TPS630702 preferred, but all will work</t>
+  </si>
+  <si>
+    <t>C1, C2, C6, C7, C8, C24</t>
   </si>
 </sst>
 </file>
@@ -1371,14 +1371,14 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="13" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -1388,16 +1388,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>1</v>
@@ -1406,15 +1406,15 @@
         <v>45</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>44</v>
@@ -1432,10 +1432,10 @@
         <v>46</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1456,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,10 +1483,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>81</v>
@@ -1510,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>82</v>
@@ -1534,10 +1534,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1552,25 +1552,25 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -1585,10 +1585,10 @@
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>83</v>
@@ -1612,13 +1612,13 @@
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>84</v>
@@ -1657,19 +1657,19 @@
         <v>0.44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1684,10 +1684,10 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1702,13 +1702,13 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>103</v>
@@ -1726,13 +1726,13 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>102</v>
@@ -1747,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>52</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
         <v>0.16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>4</v>
@@ -1789,7 +1789,7 @@
         <v>47</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1828,19 +1828,19 @@
         <v>0.21</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="5">
         <v>1206</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
         <v>0.65</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="4" t="s">
@@ -1882,16 +1882,16 @@
         <v>54</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1900,16 +1900,16 @@
         <v>0.49</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="5">
         <v>1206</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1924,16 +1924,16 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>91</v>
@@ -1963,7 +1963,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>86</v>
@@ -2002,10 +2002,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>87</v>
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>88</v>
@@ -2053,10 +2053,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>85</v>
@@ -2101,10 +2101,10 @@
         <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>89</v>
@@ -2149,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>90</v>
@@ -2170,7 +2170,7 @@
         <v>58</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2191,7 +2191,7 @@
         <v>59</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2209,10 +2209,10 @@
         <v>37</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2233,10 +2233,10 @@
         <v>38</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2251,19 +2251,19 @@
         <v>0.67</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2278,16 +2278,16 @@
         <v>1.21</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2309,10 +2309,10 @@
         <v>49</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2330,16 +2330,16 @@
         <v>41</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="C41" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D41" s="16" cm="1">
         <f t="array" ref="D41">SUMPRODUCT(C2:C40*D2:D40)</f>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="C42" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" s="14">
         <v>0.1</v>
@@ -2366,13 +2366,13 @@
         <v>4</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2390,16 +2390,16 @@
         <v>113</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2420,10 +2420,10 @@
         <v>4</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>98</v>
@@ -2460,7 +2460,7 @@
         <v>0.65</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="4" t="s">
@@ -2482,13 +2482,13 @@
         <v>0.18</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>104</v>
@@ -2497,7 +2497,7 @@
     <row r="48" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" s="4">
         <v>8</v>
@@ -2507,19 +2507,19 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F48" s="5">
         <v>2020</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2531,19 +2531,19 @@
         <v>1</v>
       </c>
       <c r="D49" s="14">
-        <v>0.14000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2564,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>91</v>
@@ -2573,7 +2573,7 @@
     <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C51" s="4">
         <v>8</v>
@@ -2588,10 +2588,10 @@
         <v>4</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>92</v>
@@ -2600,7 +2600,7 @@
     <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>86</v>
@@ -2624,7 +2624,7 @@
     <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C53" s="4">
         <v>4</v>
@@ -2633,16 +2633,16 @@
         <v>0.1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2663,16 +2663,16 @@
         <v>4</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
@@ -2687,7 +2687,7 @@
         <v>4</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>85</v>
@@ -2696,7 +2696,7 @@
     <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2711,7 +2711,7 @@
         <v>4</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>89</v>
@@ -2720,7 +2720,7 @@
     <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -2729,22 +2729,22 @@
         <v>0.1</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2753,17 +2753,17 @@
         <v>3.9</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H58" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I58" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2783,7 +2783,7 @@
         <v>70</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2798,16 +2798,16 @@
         <v>1.2</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2822,29 +2822,29 @@
         <v>1.26</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="C62" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D62" s="17">
         <f>SUMPRODUCT(C42:C61,D42:D61)</f>
-        <v>18.290000000000003</v>
+        <v>18.470000000000002</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="9"/>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="4">
         <v>2</v>
@@ -2868,39 +2868,39 @@
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
@@ -2909,16 +2909,16 @@
       <c r="E65" s="5"/>
       <c r="F65" s="9"/>
       <c r="G65" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C66" s="4">
         <v>2</v>
@@ -2933,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>91</v>
@@ -2942,7 +2942,7 @@
     <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="C67" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D67" s="17">
         <f>SUMPRODUCT(C63:C66,D63:D66)</f>
@@ -2954,10 +2954,10 @@
     </row>
     <row r="68" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
@@ -2972,19 +2972,19 @@
         <v>4</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C69" s="4">
         <v>4</v>
@@ -2999,16 +2999,16 @@
         <v>4</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" s="4">
         <v>2</v>
@@ -3020,22 +3020,22 @@
         <v>73</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H70" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I70" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -3044,25 +3044,25 @@
         <v>0.74</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F71" s="9">
         <v>1206</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
@@ -3077,7 +3077,7 @@
         <v>4</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>83</v>
@@ -3110,7 +3110,7 @@
     <row r="74" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -3119,19 +3119,19 @@
         <v>1.44</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F74" s="5">
         <v>1212</v>
       </c>
       <c r="G74" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="I74" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3146,22 +3146,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -3170,22 +3170,22 @@
         <v>0.22</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -3194,22 +3194,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C78" s="4">
         <v>7</v>
@@ -3224,10 +3224,10 @@
         <v>4</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>85</v>
@@ -3236,7 +3236,7 @@
     <row r="79" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C79" s="4">
         <v>2</v>
@@ -3251,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>92</v>
@@ -3275,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>86</v>
@@ -3299,10 +3299,10 @@
         <v>4</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3317,19 +3317,19 @@
         <v>0.1</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3344,16 +3344,16 @@
         <v>1.21</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3368,19 +3368,19 @@
         <v>3.39</v>
       </c>
       <c r="E84" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="G84" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3395,25 +3395,25 @@
         <v>3.47</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="C86" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D86" s="17">
         <f>SUMPRODUCT(C70:C85,D70:D85)</f>
@@ -3494,14 +3494,14 @@
     <hyperlink ref="I58" r:id="rId61" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
     <hyperlink ref="I6" r:id="rId62" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
     <hyperlink ref="I48" r:id="rId63" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
-    <hyperlink ref="I49" r:id="rId64" xr:uid="{2DEFF0FC-34A2-4A3F-A1B9-904A38ED741E}"/>
-    <hyperlink ref="I85" r:id="rId65" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
-    <hyperlink ref="I72" r:id="rId66" xr:uid="{D2FA5074-A469-4668-A758-7594738B7307}"/>
-    <hyperlink ref="I80" r:id="rId67" xr:uid="{2FEF1C3A-313B-4115-97C7-18582C47407C}"/>
-    <hyperlink ref="I83" r:id="rId68" xr:uid="{874E2A89-C534-4396-99F5-3BD8778304FD}"/>
-    <hyperlink ref="I31" r:id="rId69" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
-    <hyperlink ref="I52" r:id="rId70" xr:uid="{A0E917B0-7DBD-4301-A95B-52097311D06E}"/>
-    <hyperlink ref="I51" r:id="rId71" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
+    <hyperlink ref="I85" r:id="rId64" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
+    <hyperlink ref="I72" r:id="rId65" xr:uid="{D2FA5074-A469-4668-A758-7594738B7307}"/>
+    <hyperlink ref="I80" r:id="rId66" xr:uid="{2FEF1C3A-313B-4115-97C7-18582C47407C}"/>
+    <hyperlink ref="I83" r:id="rId67" xr:uid="{874E2A89-C534-4396-99F5-3BD8778304FD}"/>
+    <hyperlink ref="I31" r:id="rId68" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
+    <hyperlink ref="I52" r:id="rId69" xr:uid="{A0E917B0-7DBD-4301-A95B-52097311D06E}"/>
+    <hyperlink ref="I51" r:id="rId70" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
+    <hyperlink ref="I49" r:id="rId71" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId72"/>
@@ -3520,10 +3520,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1" s="4">
         <v>3</v>
@@ -3538,19 +3538,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -3565,17 +3565,17 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -3587,22 +3587,22 @@
         <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -3617,10 +3617,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>83</v>
@@ -3654,7 +3654,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -3669,19 +3669,19 @@
         <v>1212</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -3690,19 +3690,19 @@
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3721,7 +3721,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="3" t="s">
@@ -3731,7 +3731,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -3740,23 +3740,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -3765,23 +3765,23 @@
         <v>0.22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -3790,23 +3790,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -3821,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="8" t="s">
@@ -3831,7 +3831,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="8" t="s">
@@ -3871,11 +3871,11 @@
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="3" t="s">
@@ -3906,7 +3906,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -3921,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="8" t="s">
@@ -3946,13 +3946,13 @@
         <v>38</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3967,19 +3967,19 @@
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3994,25 +3994,25 @@
         <v>1.21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="C20" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D20" s="16">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463CF507-EAC3-4FD6-A464-F5FDD34ED84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4EB90A-4E5E-42D7-972D-3508FDDF81F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="295">
   <si>
     <t>Qty</t>
   </si>
@@ -257,9 +257,6 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
@@ -431,9 +428,6 @@
     <t>Q3</t>
   </si>
   <si>
-    <t>R2, R3</t>
-  </si>
-  <si>
     <t>523k</t>
   </si>
   <si>
@@ -869,9 +863,6 @@
     <t>Should be able to use: BLA31AG601SN4D</t>
   </si>
   <si>
-    <t>C2, C8, C9, C11</t>
-  </si>
-  <si>
     <t>TPS3702CX50DDCT</t>
   </si>
   <si>
@@ -881,6 +872,9 @@
     <t>Optional</t>
   </si>
   <si>
+    <t>R2, R3, R5</t>
+  </si>
+  <si>
     <t>TPS3840DLXX can be used instead (XX = 35 to 22)</t>
   </si>
   <si>
@@ -893,9 +887,6 @@
     <t>C10</t>
   </si>
   <si>
-    <t>R1, R4, R9, R10, R11, R12, R13</t>
-  </si>
-  <si>
     <t>Board has space for a 100uF SMD tantalum electrolytic instead</t>
   </si>
   <si>
@@ -936,6 +927,21 @@
   </si>
   <si>
     <t>C1, C2, C6, C7, C8, C24</t>
+  </si>
+  <si>
+    <t>R1, R4, R9, R10, R11, R13</t>
+  </si>
+  <si>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07200KL/727044?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7GEkgNIAyIAugL5A</t>
+  </si>
+  <si>
+    <t>C2, C8, C9</t>
+  </si>
+  <si>
+    <t>C11</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A52F74-6B21-4A92-88AA-13BD0DE1F9EF}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,16 +1394,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>1</v>
@@ -1406,15 +1412,15 @@
         <v>45</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>44</v>
@@ -1432,10 +1438,10 @@
         <v>46</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1456,13 +1462,13 @@
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,13 +1489,13 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1510,10 +1516,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1534,10 +1540,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1552,25 +1558,25 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -1585,19 +1591,19 @@
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1612,13 +1618,13 @@
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1639,16 +1645,16 @@
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1657,19 +1663,19 @@
         <v>0.44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1684,16 +1690,16 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1702,40 +1708,40 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1747,10 +1753,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1765,13 +1771,13 @@
         <v>52</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1780,7 +1786,7 @@
         <v>0.16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>4</v>
@@ -1789,13 +1795,13 @@
         <v>47</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1813,7 +1819,7 @@
         <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1828,19 +1834,19 @@
         <v>0.21</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F19" s="5">
         <v>1206</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1855,14 +1861,14 @@
         <v>0.65</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1882,16 +1888,16 @@
         <v>54</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1900,16 +1906,16 @@
         <v>0.49</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F22" s="5">
         <v>1206</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1924,22 +1930,22 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1954,16 +1960,16 @@
         <v>4</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1978,10 +1984,10 @@
         <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2002,13 +2008,13 @@
         <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2029,10 +2035,10 @@
         <v>4</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2053,16 +2059,16 @@
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2077,16 +2083,16 @@
         <v>4</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
@@ -2095,16 +2101,16 @@
         <v>0.1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2125,10 +2131,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2149,10 +2155,10 @@
         <v>4</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2170,7 +2176,7 @@
         <v>58</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2191,7 +2197,7 @@
         <v>59</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2209,10 +2215,10 @@
         <v>37</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2233,16 +2239,16 @@
         <v>38</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -2251,19 +2257,19 @@
         <v>0.67</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2278,16 +2284,16 @@
         <v>1.21</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2302,17 +2308,17 @@
         <v>0.2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2330,16 +2336,16 @@
         <v>41</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="C41" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D41" s="16" cm="1">
         <f t="array" ref="D41">SUMPRODUCT(C2:C40*D2:D40)</f>
@@ -2348,10 +2354,10 @@
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C42" s="4">
         <v>6</v>
@@ -2366,19 +2372,19 @@
         <v>4</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -2387,25 +2393,25 @@
         <v>0.18</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
@@ -2414,22 +2420,22 @@
         <v>0.1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2438,14 +2444,14 @@
         <v>2.57</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2460,14 +2466,14 @@
         <v>0.65</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2482,22 +2488,22 @@
         <v>0.18</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C48" s="4">
         <v>8</v>
@@ -2507,19 +2513,19 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F48" s="5">
         <v>2020</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2534,22 +2540,22 @@
         <v>0.22</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2564,16 +2570,16 @@
         <v>4</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C51" s="4">
         <v>8</v>
@@ -2582,25 +2588,25 @@
         <v>0.1</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2615,16 +2621,16 @@
         <v>4</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C53" s="4">
         <v>4</v>
@@ -2633,16 +2639,16 @@
         <v>0.1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2663,16 +2669,16 @@
         <v>4</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
@@ -2687,16 +2693,16 @@
         <v>4</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2711,16 +2717,16 @@
         <v>4</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -2729,22 +2735,22 @@
         <v>0.1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2753,17 +2759,17 @@
         <v>3.9</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2780,10 +2786,10 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2798,16 +2804,16 @@
         <v>1.2</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2822,25 +2828,25 @@
         <v>1.26</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="H61" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="C62" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D62" s="17">
         <f>SUMPRODUCT(C42:C61,D42:D61)</f>
@@ -2852,10 +2858,10 @@
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="4">
         <v>2</v>
@@ -2864,43 +2870,43 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
@@ -2909,16 +2915,16 @@
       <c r="E65" s="5"/>
       <c r="F65" s="9"/>
       <c r="G65" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C66" s="4">
         <v>2</v>
@@ -2933,16 +2939,16 @@
         <v>4</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="C67" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D67" s="17">
         <f>SUMPRODUCT(C63:C66,D63:D66)</f>
@@ -2954,10 +2960,10 @@
     </row>
     <row r="68" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
@@ -2966,28 +2972,28 @@
         <v>0.3</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="C69" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="14">
         <v>0.1</v>
@@ -2999,16 +3005,16 @@
         <v>4</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C70" s="4">
         <v>2</v>
@@ -3017,25 +3023,25 @@
         <v>0.39</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -3044,25 +3050,25 @@
         <v>0.74</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F71" s="9">
         <v>1206</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
@@ -3071,136 +3077,136 @@
         <v>0.1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="4" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
       </c>
-      <c r="D73" s="14">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="9" t="s">
+      <c r="D73" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
       </c>
       <c r="D74" s="14">
-        <v>1.44</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F74" s="5">
-        <v>1212</v>
+        <v>17</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="4" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
       <c r="D75" s="14">
-        <v>0.14000000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>76</v>
+        <v>121</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1212</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>216</v>
+        <v>206</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="4" t="s">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="C76" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="14">
-        <v>0.22</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="4" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="C77" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="14">
-        <v>0.14000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>212</v>
@@ -3209,82 +3215,82 @@
     <row r="78" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="4" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="C78" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D78" s="14">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>4</v>
+        <v>209</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="4" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="C79" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D79" s="14">
         <v>0.1</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="4" t="s">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c r="C80" s="4">
-        <v>1</v>
-      </c>
-      <c r="D80" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>86</v>
+        <v>163</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
@@ -3299,16 +3305,16 @@
         <v>4</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
@@ -3317,115 +3323,139 @@
         <v>0.1</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="4" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="C83" s="4">
         <v>1</v>
       </c>
       <c r="D83" s="14">
-        <v>1.21</v>
+        <v>0.1</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>39</v>
+        <v>291</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>161</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
       </c>
       <c r="D84" s="14">
-        <v>3.39</v>
+        <v>1.21</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>291</v>
+        <v>165</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
       </c>
       <c r="D85" s="14">
-        <v>3.47</v>
+        <v>3.39</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
-      <c r="C86" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D86" s="17">
-        <f>SUMPRODUCT(C70:C85,D70:D85)</f>
-        <v>13.33</v>
-      </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="I86" s="8"/>
+      <c r="B86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="14">
+        <v>3.47</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="C87" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="17">
+        <f>SUMPRODUCT(C70:C86,D70:D86)</f>
+        <v>13.43</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="I87" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A68:A86"/>
+    <mergeCell ref="A68:A87"/>
     <mergeCell ref="A63:A67"/>
     <mergeCell ref="A42:A62"/>
     <mergeCell ref="A2:A41"/>
@@ -3471,11 +3501,11 @@
     <hyperlink ref="I68" r:id="rId38" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
     <hyperlink ref="I70" r:id="rId39" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
     <hyperlink ref="I71" r:id="rId40" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
-    <hyperlink ref="I73" r:id="rId41" xr:uid="{A1639E89-E10D-459F-B265-A46F8D8B68A3}"/>
-    <hyperlink ref="I74" r:id="rId42" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
-    <hyperlink ref="I77" r:id="rId43" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
-    <hyperlink ref="I75" r:id="rId44" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
-    <hyperlink ref="I76" r:id="rId45" xr:uid="{E7CA3C10-4F99-4EE7-94BE-5D160F33AE96}"/>
+    <hyperlink ref="I74" r:id="rId41" xr:uid="{A1639E89-E10D-459F-B265-A46F8D8B68A3}"/>
+    <hyperlink ref="I75" r:id="rId42" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
+    <hyperlink ref="I78" r:id="rId43" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
+    <hyperlink ref="I76" r:id="rId44" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
+    <hyperlink ref="I77" r:id="rId45" xr:uid="{E7CA3C10-4F99-4EE7-94BE-5D160F33AE96}"/>
     <hyperlink ref="I81" r:id="rId46" xr:uid="{484D13F0-6DCE-4E53-B164-D4275F56760D}"/>
     <hyperlink ref="I82" r:id="rId47" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
     <hyperlink ref="I45" r:id="rId48" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
@@ -3488,23 +3518,24 @@
     <hyperlink ref="I56" r:id="rId55" xr:uid="{45D1A091-5CED-4B86-9AC8-2002D5B2F99D}"/>
     <hyperlink ref="I61" r:id="rId56" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
     <hyperlink ref="I69" r:id="rId57" xr:uid="{1DAAAD73-88F0-439C-9737-EB4C6E63E336}"/>
-    <hyperlink ref="I78" r:id="rId58" xr:uid="{3B51599B-8C52-493C-AB80-6F0FEA459212}"/>
-    <hyperlink ref="I79" r:id="rId59" xr:uid="{CACE430A-0FEB-464A-A5CC-002781D70F11}"/>
-    <hyperlink ref="I84" r:id="rId60" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
+    <hyperlink ref="I79" r:id="rId58" xr:uid="{3B51599B-8C52-493C-AB80-6F0FEA459212}"/>
+    <hyperlink ref="I80" r:id="rId59" xr:uid="{CACE430A-0FEB-464A-A5CC-002781D70F11}"/>
+    <hyperlink ref="I85" r:id="rId60" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
     <hyperlink ref="I58" r:id="rId61" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
     <hyperlink ref="I6" r:id="rId62" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
     <hyperlink ref="I48" r:id="rId63" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
-    <hyperlink ref="I85" r:id="rId64" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
-    <hyperlink ref="I72" r:id="rId65" xr:uid="{D2FA5074-A469-4668-A758-7594738B7307}"/>
-    <hyperlink ref="I80" r:id="rId66" xr:uid="{2FEF1C3A-313B-4115-97C7-18582C47407C}"/>
-    <hyperlink ref="I83" r:id="rId67" xr:uid="{874E2A89-C534-4396-99F5-3BD8778304FD}"/>
-    <hyperlink ref="I31" r:id="rId68" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
-    <hyperlink ref="I52" r:id="rId69" xr:uid="{A0E917B0-7DBD-4301-A95B-52097311D06E}"/>
-    <hyperlink ref="I51" r:id="rId70" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
-    <hyperlink ref="I49" r:id="rId71" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
+    <hyperlink ref="I86" r:id="rId64" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
+    <hyperlink ref="I73" r:id="rId65" xr:uid="{D2FA5074-A469-4668-A758-7594738B7307}"/>
+    <hyperlink ref="I84" r:id="rId66" xr:uid="{874E2A89-C534-4396-99F5-3BD8778304FD}"/>
+    <hyperlink ref="I31" r:id="rId67" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
+    <hyperlink ref="I52" r:id="rId68" xr:uid="{A0E917B0-7DBD-4301-A95B-52097311D06E}"/>
+    <hyperlink ref="I51" r:id="rId69" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
+    <hyperlink ref="I49" r:id="rId70" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
+    <hyperlink ref="I83" r:id="rId71" xr:uid="{484FBF95-CF1D-46F1-9EC3-49B22255CCBD}"/>
+    <hyperlink ref="I72" r:id="rId72" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId72"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId73"/>
 </worksheet>
 </file>
 
@@ -3520,10 +3551,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4">
         <v>3</v>
@@ -3532,25 +3563,25 @@
         <v>0.3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -3565,17 +3596,17 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -3584,25 +3615,25 @@
         <v>0.39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -3617,19 +3648,19 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3648,13 +3679,13 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -3663,25 +3694,25 @@
         <v>0.46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1">
         <v>1212</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -3690,19 +3721,19 @@
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3721,17 +3752,17 @@
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -3740,23 +3771,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -3765,23 +3796,23 @@
         <v>0.22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -3790,23 +3821,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -3821,17 +3852,17 @@
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -3840,23 +3871,23 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -3871,17 +3902,17 @@
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -3890,23 +3921,23 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -3921,11 +3952,11 @@
         <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3940,19 +3971,19 @@
         <v>2.61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3967,19 +3998,19 @@
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3994,25 +4025,25 @@
         <v>1.21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="C20" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D20" s="16">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4EB90A-4E5E-42D7-972D-3508FDDF81F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4947C8-9813-4A4C-B326-5707758AA130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
@@ -34,30 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="308">
   <si>
     <t>Qty</t>
   </si>
@@ -146,6 +124,9 @@
     <t>RA3A-RA3D</t>
   </si>
   <si>
+    <t>20k</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -242,6 +223,9 @@
     <t>100nF</t>
   </si>
   <si>
+    <t>LMV358</t>
+  </si>
+  <si>
     <t>SOIC-8</t>
   </si>
   <si>
@@ -299,36 +283,12 @@
     <t>SOT23-6</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/CC0603FRNPO9BN270/5883500</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/CC0603JRNPO9BN220/311-1062-1-ND/302972?itemSeq=388077292</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/kemet/C0603C105K4RAC7867/2199788</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/kemet/C0603C151J5GAC7867/411065</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07100KL/726889</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-1018KL/13694163</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-071M5L/726865</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-075K6L/727275</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07510RL/727285</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07270RL/727103</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-071KL/726843</t>
   </si>
   <si>
@@ -344,15 +304,9 @@
     <t>https://www.digikey.com/en/products/detail/vishay-beyschlag-draloric-bc-components/MFU0603FF01000P100/1206475</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/FFC2B17-50-T/2073-FFC2B17-50-TCT-ND/15181672?itemSeq=388086745</t>
-  </si>
-  <si>
     <t>FFC Cable</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/molex/0151660539/3281420</t>
-  </si>
-  <si>
     <t>0151660539‎</t>
   </si>
   <si>
@@ -362,15 +316,6 @@
     <t>EM9</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/murata-electronics/BLM18BD102SN1D/584235?s=N4IgTCBcDaIEIBkCyBGFcUAYwGUQF0BfIA</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/taiyo-yuden/FBMH2012HM221-T/957827</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/151033RS03000/732-5013-ND/4490003?itemSeq=388099998</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -461,9 +406,6 @@
     <t>NCP161ASN330T1G</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/78-SI1443EDH-T1-BE3</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/70-IHLP1212BZER1R5M1</t>
   </si>
   <si>
@@ -473,18 +415,12 @@
     <t>2.5A</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Panasonic/ERB-RE2R50V?qs=YIEcsSB2Lz7mQRhzVr3qeA%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL10B221KB8NFNC?qs=YCa%2FAAYMW03S2dLM1EfL7A%3D%3D</t>
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/KEMET/ESK107M025AC3AA?qs=Z46kSA%2FmtFiEo%2F6fDW5ebA%3D%3D</t>
   </si>
   <si>
-    <t>PMEG40T20ERX</t>
-  </si>
-  <si>
     <t>Schottky diode</t>
   </si>
   <si>
@@ -527,12 +463,6 @@
     <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07100RL/726888</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-1047KL/13694127</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/texas-instruments/LM4853MM-NOPB/482977</t>
-  </si>
-  <si>
     <t>TPS3840DL35</t>
   </si>
   <si>
@@ -587,12 +517,6 @@
     <t>https://www.mouser.com/ProductDetail/KEMET/C0603C103J5RACTU?qs=BimOss5pjlFJEfKhlb7g1g%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/kemet/C0603C104K4RAC7867/411095</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Nexperia/PMEG40T20ERX?qs=1mbolxNpo8dkiwSH0Kwq%252BQ%3D%3D</t>
-  </si>
-  <si>
     <t>Most schottky diodes should be suitable (at least 1A, 16V)</t>
   </si>
   <si>
@@ -620,33 +544,18 @@
     <t>LED10-LED17</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07402KL/727223</t>
-  </si>
-  <si>
     <t>15k</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-1015KL/13694096</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/texas-instruments/LMV358Q1MAX-NOPB/3926679</t>
-  </si>
-  <si>
     <t>ATTINY85</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/microchip-technology/ATTINY85-20SFR/5057266</t>
-  </si>
-  <si>
     <t>Microcontroller</t>
   </si>
   <si>
     <t>Op-amp</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/sparkfun-electronics/COM-08184/8543391</t>
-  </si>
-  <si>
     <t>SOIC-8 (5.3mm wide)</t>
   </si>
   <si>
@@ -671,9 +580,6 @@
     <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31A226KAHNNNE?qs=X6jEic%2FHinCdwsjGJII51w%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Taiyo-Yuden/EMK316BBJ476ML-T?qs=Zy5V7Kj3rCVVMQaoWTlMmg%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B104KO8NNWC/3887597</t>
   </si>
   <si>
@@ -707,9 +613,6 @@
     <t>N-channel MOSFET</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07523KL/727292</t>
-  </si>
-  <si>
     <t>R9 should have at least 1% tolerance</t>
   </si>
   <si>
@@ -728,9 +631,6 @@
     <t>Flat Flexible Cable</t>
   </si>
   <si>
-    <t>Cost (each, as of 06/2022)</t>
-  </si>
-  <si>
     <t>Should be X5R (or better), at least 16V (maybe 10V is ok)</t>
   </si>
   <si>
@@ -860,21 +760,15 @@
     <t>HDP-01</t>
   </si>
   <si>
-    <t>Should be able to use: BLA31AG601SN4D</t>
+    <t>C2, C8, C9, C11</t>
   </si>
   <si>
     <t>TPS3702CX50DDCT</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/texas-instruments/TPS3702CX50DDCT/5250202</t>
-  </si>
-  <si>
     <t>Optional</t>
   </si>
   <si>
-    <t>R2, R3, R5</t>
-  </si>
-  <si>
     <t>TPS3840DLXX can be used instead (XX = 35 to 22)</t>
   </si>
   <si>
@@ -902,9 +796,6 @@
     <t>R9</t>
   </si>
   <si>
-    <t>LMV358M</t>
-  </si>
-  <si>
     <t>R22-R29</t>
   </si>
   <si>
@@ -929,19 +820,145 @@
     <t>C1, C2, C6, C7, C8, C24</t>
   </si>
   <si>
-    <t>R1, R4, R9, R10, R11, R13</t>
-  </si>
-  <si>
-    <t>200k</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07200KL/727044?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7GEkgNIAyIAugL5A</t>
-  </si>
-  <si>
-    <t>C2, C8, C9</t>
-  </si>
-  <si>
-    <t>C11</t>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/GRM31CR61C476ME44K?qs=QzBtWTOodeVeYV6UhCOqow%3D%3D</t>
+  </si>
+  <si>
+    <t>Q2, Q4, Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>R1, R4, R9, R10, R11, R16</t>
+  </si>
+  <si>
+    <t>R2, R3, R5, R13, R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/603-C0603FRNPO9BN270</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/CC0603JRNPO9BN220?qs=vTakOoo5QyIVMYOUTI%2F4zA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KEMET/C0603C105K4RACTU?qs=STjISULpmtZNMAZGR4X39Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/?qs=l5k%252BbMnNDknCtKnMv1oEgA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KEMET/C0603C151J5GACTU?qs=V6nSPVTm7vxbAvL0weNH%252BQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/?qs=LOCUfHb8d9u7lcjEnyhX1g%3D%3D</t>
+  </si>
+  <si>
+    <t>PMEG2010AEH</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Taiyo-Yuden/FBMH2012HM221-T?qs=I6KAKw0tg2yIAV1HVl6Cew%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18BD102SN1D?qs=h3IWXJJGQQWi4eZyJq6ScQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-Beyschlag/MFU0603FF01000P100?qs=oI046glRurtlP8n%252B3l7CPg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Panasonic/ERB-RG2R50V?qs=Z3CaLxJiOJK8SjHyp%252BdV%2FQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Alternate: BLA31AG601SN4D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/GCT/FFC2B17-50-T?qs=TuK3vfAjtkWT79JbRBZamg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-Semiconductors/SI1443EDH-T1-GE3?qs=vlV4ps1%252BrQifVq6ycRxedw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-071KL?qs=VU8sRB4EgwApHsk4rF%2F3zg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-1018KL?qs=qpJ%252B%252B%252Bdg6p1T2VMMxU7GeA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-071M5L?qs=VU8sRB4EgwAP38Z8qzPx9Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-075K6L?qs=2cAdsCoAWRHvOVv%2Fp%252BkS0g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07100RL?qs=NEN%2FsE%2FLsvPIwIWKCOS4%2FA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07100KL?qs=e1ok2LiJcmaihem8Va5%2Fsw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07510RL?qs=gt6vzsuosg04lV7mPQHzdw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-1047KL?qs=EiqXWrxQq600ZhhpLJs%252BtA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07270RL?qs=diQw95jMAePl%252BPNr4oNP6Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/LM4853MM-NOPB?qs=QbsRYf82W3F2psFI2da2Dw%3D%3D</t>
+  </si>
+  <si>
+    <t>Link to Mouser cart &gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/15166-0539?qs=N2VrfF4LzQecTCOx4K2VYA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Wurth-Elektronik/151033RS03000?qs=LlUlMxKIyB1%252BAw6bWFN43w%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Nexperia/2N7002NXBKR?qs=%252B6g0mu59x7J2ddJstTJGkQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-0710KL?qs=grNVn54RoB%252B3GtjbJj3wJQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07402KL?qs=e5TEs1AaK9ZgNZ9JLlILuQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-1015KL?qs=EiqXWrxQq61HhvsANs7j4w%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SparkFun/COM-08184?qs=WyAARYrbSnYOIhcg6ARCiQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Microchip-Technology-Atmel/ATTINY85-20SF?qs=TZi4OKKi7fW1ThDnq1lPVA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/LMV358IDR?qs=EIjG%252BN7kn%252BmCHnTyCQRw3Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Micro-Commercial-Components-MCC/MMBT3906HE3-TP?qs=HBWAp0VN4Rh%2Ft2ZPx%252BV99A%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Nexperia/MMBT3904VL?qs=cnAQGvEIVkKbCwIpHJoHxQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07523KL?qs=TkC2zyCLazpzUFWuXe7EHg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-0720KL?qs=VU8sRB4EgwCsxfrjtEIKPQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/?qs=1CfNGUMoiQ%252B%252BQr9CqlxSeA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=395da5fd9b</t>
+  </si>
+  <si>
+    <t>Note: verify all parts are available and in correct quantities.</t>
   </si>
 </sst>
 </file>
@@ -991,12 +1008,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4C9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1013,7 +1060,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1045,11 +1092,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1058,6 +1101,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1066,6 +1117,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC9C9"/>
+      <color rgb="FFFFA3A3"/>
+      <color rgb="FFE4C9FF"/>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1374,833 +1433,735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A52F74-6B21-4A92-88AA-13BD0DE1F9EF}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="168.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="168.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="D2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="14">
-        <f>4.99/2</f>
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.16</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1206</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.21</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1206</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="14">
-        <v>0.65</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="5"/>
+      <c r="D20" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1206</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="G20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="14">
-        <v>1.29</v>
+      <c r="D21" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="14">
-        <v>0.49</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1206</v>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="14">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="D23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1206</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="4" t="s">
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>100</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="4">
         <v>2</v>
       </c>
-      <c r="D30" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>510</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>510</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
         <v>270</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4" t="s">
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>30</v>
@@ -2208,1334 +2169,1191 @@
       <c r="C35">
         <v>1</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36" s="14">
-        <v>2.68</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="4" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="14">
-        <v>0.67</v>
+      <c r="D37" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="14">
-        <v>1.21</v>
+      <c r="D38" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="C41" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D41" s="16" cm="1">
-        <f t="array" ref="D41">SUMPRODUCT(C2:C40*D2:D40)</f>
-        <v>18.990000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="C42" s="4">
         <v>6</v>
       </c>
-      <c r="D42" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>4</v>
+      <c r="D42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
       </c>
-      <c r="D43" s="14">
-        <v>0.18</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>180</v>
+      <c r="D43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
       </c>
-      <c r="D44" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="13">
-        <v>2.57</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
       </c>
-      <c r="D46" s="14">
-        <v>0.65</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
       </c>
-      <c r="D47" s="14">
-        <v>0.18</v>
+      <c r="D47" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="4" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C48" s="4">
         <v>8</v>
       </c>
-      <c r="D48" s="14">
-        <f>3.95/10</f>
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="5">
+      <c r="D48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="5">
         <v>2020</v>
       </c>
+      <c r="F48" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="G48" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="D49" s="14">
-        <v>0.22</v>
+      <c r="D49" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
       </c>
-      <c r="D50" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C51" s="4">
         <v>8</v>
       </c>
-      <c r="D51" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>4</v>
+      <c r="D51" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
-      <c r="D52" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="4" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C53" s="4">
         <v>4</v>
       </c>
-      <c r="D53" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
       </c>
-      <c r="D54" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="D54" s="5">
         <v>100</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="4" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
       </c>
-      <c r="D55" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
-      <c r="D56" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E56" s="5">
+      <c r="D56" s="5">
         <v>510</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
       </c>
-      <c r="D57" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
       </c>
-      <c r="D58" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F58" s="9"/>
+      <c r="D58" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="G58" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
       </c>
-      <c r="D59" s="14">
-        <v>1.6</v>
-      </c>
+      <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
       </c>
-      <c r="D60" s="14">
-        <v>1.2</v>
+      <c r="D60" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
       </c>
-      <c r="D61" s="14">
-        <v>1.26</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>196</v>
+      <c r="D61" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="C62" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="17">
-        <f>SUMPRODUCT(C42:C61,D42:D61)</f>
-        <v>18.470000000000002</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="9"/>
-      <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>266</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
       <c r="B63" s="4" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="C63" s="4">
-        <v>2</v>
-      </c>
-      <c r="D63" s="14">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C64" s="4">
-        <v>3</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="4" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C65" s="4">
-        <v>1</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="B66" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="4">
+        <v>3</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C66" s="4">
+      <c r="G66" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="4">
+        <v>4</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="4">
         <v>2</v>
       </c>
-      <c r="D66" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="C67" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D67" s="17">
-        <f>SUMPRODUCT(C63:C66,D63:D66)</f>
-        <v>0.78</v>
-      </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="9"/>
-      <c r="I67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="4">
-        <v>3</v>
-      </c>
-      <c r="D68" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>4</v>
+      <c r="D68" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="C69" s="4">
-        <v>3</v>
-      </c>
-      <c r="D69" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1206</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="4" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="C70" s="4">
-        <v>2</v>
-      </c>
-      <c r="D70" s="14">
-        <v>0.39</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
       </c>
-      <c r="D71" s="14">
-        <v>0.74</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="9">
-        <v>1206</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="4" t="s">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
       </c>
-      <c r="D72" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>4</v>
+      <c r="D72" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1212</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="4" t="s">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
       </c>
-      <c r="D73" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="4" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="C74" s="4">
-        <v>1</v>
-      </c>
-      <c r="D74" s="14">
-        <v>0.28000000000000003</v>
+        <v>3</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
-      <c r="D75" s="14">
-        <v>1.44</v>
+      <c r="D75" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F75" s="5">
-        <v>1212</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="4" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
       </c>
-      <c r="D76" s="14">
-        <v>0.14000000000000001</v>
+      <c r="D76" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="4" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="C77" s="4">
-        <v>2</v>
-      </c>
-      <c r="D77" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="4" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C78" s="4">
-        <v>1</v>
-      </c>
-      <c r="D78" s="14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="4" t="s">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="C79" s="4">
-        <v>6</v>
-      </c>
-      <c r="D79" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5">
+        <v>100</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="4" t="s">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c r="C80" s="4">
-        <v>3</v>
-      </c>
-      <c r="D80" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="4" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
       </c>
-      <c r="D81" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E81" s="5">
-        <v>100</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C82" s="4">
-        <v>1</v>
-      </c>
-      <c r="D82" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="4" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="C83" s="4">
         <v>1</v>
       </c>
-      <c r="D83" s="14">
-        <v>0.1</v>
+      <c r="D83" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
       </c>
-      <c r="D84" s="14">
-        <v>1.21</v>
+      <c r="D84" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>39</v>
+        <v>196</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
       </c>
-      <c r="D85" s="14">
-        <v>3.39</v>
+      <c r="D85" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>221</v>
+        <v>81</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="4">
-        <v>1</v>
-      </c>
-      <c r="D86" s="14">
-        <v>3.47</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="C87" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D87" s="17">
-        <f>SUMPRODUCT(C70:C86,D70:D86)</f>
-        <v>13.43</v>
-      </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="I87" s="8"/>
+        <v>243</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A68:A87"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A42:A62"/>
-    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="A66:A85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A42:A61"/>
+    <mergeCell ref="A3:A41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I18" r:id="rId1" xr:uid="{533531D7-E2DD-484C-90E8-FE450EDAA4D0}"/>
-    <hyperlink ref="I22" r:id="rId2" xr:uid="{09714B1A-E775-419E-8202-A09F642D6DD4}"/>
-    <hyperlink ref="I42" r:id="rId3" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B104KO8NNWC/3887597?s=N4IgTCBcDaIMIBkCMAGAQqgLAaQPIA4A5QgdThAF0BfIA" xr:uid="{AD90D026-207E-499E-8B33-24788ABF1AAE}"/>
-    <hyperlink ref="I50" r:id="rId4" xr:uid="{507087C9-F764-4309-B5F6-98EE820859B2}"/>
-    <hyperlink ref="I17" r:id="rId5" xr:uid="{2D09FB30-3329-4175-993E-59AE1C8AF6B1}"/>
-    <hyperlink ref="I19" r:id="rId6" xr:uid="{EAD0EB91-0E07-454F-A47E-D46C454C2792}"/>
-    <hyperlink ref="I20" r:id="rId7" xr:uid="{94280B35-2F12-4EC8-BECD-826B848EB548}"/>
-    <hyperlink ref="I27" r:id="rId8" xr:uid="{890600A0-CDA6-4169-914B-6E09158E9D08}"/>
-    <hyperlink ref="I28" r:id="rId9" xr:uid="{521BAB14-AAAB-4E99-B6B1-DC297ACB35D3}"/>
-    <hyperlink ref="I25" r:id="rId10" xr:uid="{E2BED9B7-E7F4-4BB7-9480-D361CBDECBC2}"/>
-    <hyperlink ref="I36" r:id="rId11" xr:uid="{15B8EEF4-68C4-4DD0-A0F9-D3CC2AD34F6B}"/>
-    <hyperlink ref="I38" r:id="rId12" xr:uid="{6CDB6EA4-1EF0-49AD-BA6D-DBDCE9DA23E7}"/>
-    <hyperlink ref="I37" r:id="rId13" xr:uid="{8E30D815-E8BC-4979-A808-89140DBFB640}"/>
-    <hyperlink ref="I39" r:id="rId14" xr:uid="{23AA2283-4006-4B92-8C2D-03FD5BBC4105}"/>
-    <hyperlink ref="I23" r:id="rId15" xr:uid="{ED7A08E1-4692-4C4D-9066-747FB141BD4A}"/>
-    <hyperlink ref="I30" r:id="rId16" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
-    <hyperlink ref="I13" r:id="rId17" xr:uid="{A69B9089-2ADA-4A9F-889A-92F3E5EBAA57}"/>
-    <hyperlink ref="I14" r:id="rId18" xr:uid="{6E01A22F-6C41-4771-BE7F-F82B7AB657A8}"/>
-    <hyperlink ref="I3" r:id="rId19" xr:uid="{DC9D2B33-4B39-4535-8300-2803394C7237}"/>
-    <hyperlink ref="I4" r:id="rId20" xr:uid="{1F1957AF-BD0E-46CD-BDA5-98084257928F}"/>
-    <hyperlink ref="I7" r:id="rId21" xr:uid="{A04755A4-C49E-4922-977B-FFD3400D614C}"/>
-    <hyperlink ref="I8" r:id="rId22" xr:uid="{382BCF6C-1828-4906-A696-55D83A50179A}"/>
-    <hyperlink ref="I9" r:id="rId23" display="https://www.digikey.com/en/products/detail/kemet/C0603C104K4RAC7867/411095?s=N4IgTCBcDaIMIAYBsCDMcCMCAsBpbASgIJwDsAHEqSALoC%2BQA" xr:uid="{0B379DF2-17D2-43B1-AC70-14210742FE02}"/>
-    <hyperlink ref="I11" r:id="rId24" xr:uid="{1C490D85-3751-4CD0-8F1A-EB5D3F5DEDB8}"/>
-    <hyperlink ref="I24" r:id="rId25" xr:uid="{788713CC-6D26-4858-914E-2A666D70E766}"/>
-    <hyperlink ref="I29" r:id="rId26" xr:uid="{A53E990E-9129-4EB1-A34B-0C78C0D9E34D}"/>
-    <hyperlink ref="I26" r:id="rId27" xr:uid="{76C67D05-F2EA-44A2-BD81-EF2014CF57EC}"/>
-    <hyperlink ref="I43" r:id="rId28" xr:uid="{F90AB032-219C-4117-8CC7-BC9E853E4698}"/>
-    <hyperlink ref="I44" r:id="rId29" xr:uid="{49CC98DC-1B54-431E-9034-D174BB2AC2CC}"/>
-    <hyperlink ref="I47" r:id="rId30" xr:uid="{9C9AC3AA-79BD-46AD-815A-2DBF971DA7BE}"/>
-    <hyperlink ref="I46" r:id="rId31" xr:uid="{886DD40C-FC23-44CD-AB12-BF574B3AE2C4}"/>
-    <hyperlink ref="I53" r:id="rId32" xr:uid="{01EEB93E-EB32-49F6-8E28-29BD44012437}"/>
-    <hyperlink ref="I54" r:id="rId33" xr:uid="{1802D61C-0700-4523-A04E-B1A281DC6037}"/>
-    <hyperlink ref="I55" r:id="rId34" xr:uid="{11FEC115-DD16-4732-8AA9-A526F99E0835}"/>
-    <hyperlink ref="I57" r:id="rId35" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
-    <hyperlink ref="I60" r:id="rId36" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
-    <hyperlink ref="I59" r:id="rId37" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
-    <hyperlink ref="I68" r:id="rId38" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
-    <hyperlink ref="I70" r:id="rId39" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
-    <hyperlink ref="I71" r:id="rId40" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
-    <hyperlink ref="I74" r:id="rId41" xr:uid="{A1639E89-E10D-459F-B265-A46F8D8B68A3}"/>
-    <hyperlink ref="I75" r:id="rId42" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
-    <hyperlink ref="I78" r:id="rId43" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
-    <hyperlink ref="I76" r:id="rId44" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
-    <hyperlink ref="I77" r:id="rId45" xr:uid="{E7CA3C10-4F99-4EE7-94BE-5D160F33AE96}"/>
-    <hyperlink ref="I81" r:id="rId46" xr:uid="{484D13F0-6DCE-4E53-B164-D4275F56760D}"/>
-    <hyperlink ref="I82" r:id="rId47" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
-    <hyperlink ref="I45" r:id="rId48" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
-    <hyperlink ref="I66" r:id="rId49" xr:uid="{ACD5E8E3-82D9-41E7-98EC-33882BFBCB63}"/>
-    <hyperlink ref="I2" r:id="rId50" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
-    <hyperlink ref="I5" r:id="rId51" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
-    <hyperlink ref="I10" r:id="rId52" xr:uid="{38676E5E-4ABA-45F9-95EC-56E10A2FCB56}"/>
-    <hyperlink ref="I21" r:id="rId53" xr:uid="{4650E4B6-75A4-4E6C-8A59-99E45F1EFF0A}"/>
-    <hyperlink ref="I32" r:id="rId54" xr:uid="{40DBDCDE-0507-4D06-908C-E1B13368B813}"/>
-    <hyperlink ref="I56" r:id="rId55" xr:uid="{45D1A091-5CED-4B86-9AC8-2002D5B2F99D}"/>
-    <hyperlink ref="I61" r:id="rId56" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
-    <hyperlink ref="I69" r:id="rId57" xr:uid="{1DAAAD73-88F0-439C-9737-EB4C6E63E336}"/>
-    <hyperlink ref="I79" r:id="rId58" xr:uid="{3B51599B-8C52-493C-AB80-6F0FEA459212}"/>
-    <hyperlink ref="I80" r:id="rId59" xr:uid="{CACE430A-0FEB-464A-A5CC-002781D70F11}"/>
-    <hyperlink ref="I85" r:id="rId60" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
-    <hyperlink ref="I58" r:id="rId61" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
-    <hyperlink ref="I6" r:id="rId62" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
-    <hyperlink ref="I48" r:id="rId63" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
-    <hyperlink ref="I86" r:id="rId64" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
-    <hyperlink ref="I73" r:id="rId65" xr:uid="{D2FA5074-A469-4668-A758-7594738B7307}"/>
-    <hyperlink ref="I84" r:id="rId66" xr:uid="{874E2A89-C534-4396-99F5-3BD8778304FD}"/>
-    <hyperlink ref="I31" r:id="rId67" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
-    <hyperlink ref="I52" r:id="rId68" xr:uid="{A0E917B0-7DBD-4301-A95B-52097311D06E}"/>
-    <hyperlink ref="I51" r:id="rId69" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
-    <hyperlink ref="I49" r:id="rId70" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
-    <hyperlink ref="I83" r:id="rId71" xr:uid="{484FBF95-CF1D-46F1-9EC3-49B22255CCBD}"/>
-    <hyperlink ref="I72" r:id="rId72" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
+    <hyperlink ref="H19" r:id="rId1" xr:uid="{533531D7-E2DD-484C-90E8-FE450EDAA4D0}"/>
+    <hyperlink ref="H23" r:id="rId2" xr:uid="{09714B1A-E775-419E-8202-A09F642D6DD4}"/>
+    <hyperlink ref="H18" r:id="rId3" xr:uid="{2D09FB30-3329-4175-993E-59AE1C8AF6B1}"/>
+    <hyperlink ref="H20" r:id="rId4" xr:uid="{EAD0EB91-0E07-454F-A47E-D46C454C2792}"/>
+    <hyperlink ref="H21" r:id="rId5" xr:uid="{94280B35-2F12-4EC8-BECD-826B848EB548}"/>
+    <hyperlink ref="H28" r:id="rId6" xr:uid="{890600A0-CDA6-4169-914B-6E09158E9D08}"/>
+    <hyperlink ref="H29" r:id="rId7" xr:uid="{521BAB14-AAAB-4E99-B6B1-DC297ACB35D3}"/>
+    <hyperlink ref="H26" r:id="rId8" xr:uid="{E2BED9B7-E7F4-4BB7-9480-D361CBDECBC2}"/>
+    <hyperlink ref="H37" r:id="rId9" xr:uid="{15B8EEF4-68C4-4DD0-A0F9-D3CC2AD34F6B}"/>
+    <hyperlink ref="H39" r:id="rId10" xr:uid="{6CDB6EA4-1EF0-49AD-BA6D-DBDCE9DA23E7}"/>
+    <hyperlink ref="H38" r:id="rId11" xr:uid="{8E30D815-E8BC-4979-A808-89140DBFB640}"/>
+    <hyperlink ref="H40" r:id="rId12" xr:uid="{23AA2283-4006-4B92-8C2D-03FD5BBC4105}"/>
+    <hyperlink ref="H24" r:id="rId13" xr:uid="{ED7A08E1-4692-4C4D-9066-747FB141BD4A}"/>
+    <hyperlink ref="H14" r:id="rId14" xr:uid="{A69B9089-2ADA-4A9F-889A-92F3E5EBAA57}"/>
+    <hyperlink ref="H15" r:id="rId15" xr:uid="{6E01A22F-6C41-4771-BE7F-F82B7AB657A8}"/>
+    <hyperlink ref="H4" r:id="rId16" xr:uid="{DC9D2B33-4B39-4535-8300-2803394C7237}"/>
+    <hyperlink ref="H5" r:id="rId17" xr:uid="{1F1957AF-BD0E-46CD-BDA5-98084257928F}"/>
+    <hyperlink ref="H8" r:id="rId18" xr:uid="{A04755A4-C49E-4922-977B-FFD3400D614C}"/>
+    <hyperlink ref="H9" r:id="rId19" xr:uid="{382BCF6C-1828-4906-A696-55D83A50179A}"/>
+    <hyperlink ref="H10" r:id="rId20" xr:uid="{0B379DF2-17D2-43B1-AC70-14210742FE02}"/>
+    <hyperlink ref="H12" r:id="rId21" xr:uid="{1C490D85-3751-4CD0-8F1A-EB5D3F5DEDB8}"/>
+    <hyperlink ref="H25" r:id="rId22" xr:uid="{788713CC-6D26-4858-914E-2A666D70E766}"/>
+    <hyperlink ref="H30" r:id="rId23" xr:uid="{A53E990E-9129-4EB1-A34B-0C78C0D9E34D}"/>
+    <hyperlink ref="H27" r:id="rId24" xr:uid="{76C67D05-F2EA-44A2-BD81-EF2014CF57EC}"/>
+    <hyperlink ref="H43" r:id="rId25" xr:uid="{F90AB032-219C-4117-8CC7-BC9E853E4698}"/>
+    <hyperlink ref="H44" r:id="rId26" xr:uid="{49CC98DC-1B54-431E-9034-D174BB2AC2CC}"/>
+    <hyperlink ref="H47" r:id="rId27" xr:uid="{9C9AC3AA-79BD-46AD-815A-2DBF971DA7BE}"/>
+    <hyperlink ref="H53" r:id="rId28" xr:uid="{01EEB93E-EB32-49F6-8E28-29BD44012437}"/>
+    <hyperlink ref="H57" r:id="rId29" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
+    <hyperlink ref="H60" r:id="rId30" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
+    <hyperlink ref="H59" r:id="rId31" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
+    <hyperlink ref="H66" r:id="rId32" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
+    <hyperlink ref="H68" r:id="rId33" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
+    <hyperlink ref="H69" r:id="rId34" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
+    <hyperlink ref="H72" r:id="rId35" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
+    <hyperlink ref="H75" r:id="rId36" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
+    <hyperlink ref="H73" r:id="rId37" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
+    <hyperlink ref="H80" r:id="rId38" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
+    <hyperlink ref="H45" r:id="rId39" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
+    <hyperlink ref="H3" r:id="rId40" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
+    <hyperlink ref="H6" r:id="rId41" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
+    <hyperlink ref="H11" r:id="rId42" xr:uid="{38676E5E-4ABA-45F9-95EC-56E10A2FCB56}"/>
+    <hyperlink ref="H22" r:id="rId43" xr:uid="{4650E4B6-75A4-4E6C-8A59-99E45F1EFF0A}"/>
+    <hyperlink ref="H33" r:id="rId44" xr:uid="{40DBDCDE-0507-4D06-908C-E1B13368B813}"/>
+    <hyperlink ref="H61" r:id="rId45" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
+    <hyperlink ref="H84" r:id="rId46" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
+    <hyperlink ref="H58" r:id="rId47" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
+    <hyperlink ref="H7" r:id="rId48" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
+    <hyperlink ref="H48" r:id="rId49" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
+    <hyperlink ref="H85" r:id="rId50" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
+    <hyperlink ref="H51" r:id="rId51" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
+    <hyperlink ref="H49" r:id="rId52" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
+    <hyperlink ref="H70" r:id="rId53" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
+    <hyperlink ref="H31" r:id="rId54" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
+    <hyperlink ref="H32" r:id="rId55" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
+    <hyperlink ref="D1" r:id="rId56" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
+    <hyperlink ref="H42" r:id="rId57" xr:uid="{A2162AF1-9723-488A-B2CF-D6E08028D21E}"/>
+    <hyperlink ref="H67" r:id="rId58" xr:uid="{6F8B0939-1DE5-40F6-9BE0-AAB00E1EF6C5}"/>
+    <hyperlink ref="H46" r:id="rId59" xr:uid="{F07EBFB2-F721-415C-85E4-7800176BBA66}"/>
+    <hyperlink ref="H50" r:id="rId60" xr:uid="{30681088-DDBA-4F4A-AD37-3E68A742D8FC}"/>
+    <hyperlink ref="H52" r:id="rId61" xr:uid="{152155CD-1666-49D7-95A6-AB137F0EB175}"/>
+    <hyperlink ref="H54" r:id="rId62" xr:uid="{11F1D8C7-9EC4-4A7B-9757-AA7A447A6C67}"/>
+    <hyperlink ref="H55" r:id="rId63" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
+    <hyperlink ref="H56" r:id="rId64" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
+    <hyperlink ref="H65" r:id="rId65" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
+    <hyperlink ref="H82" r:id="rId66" xr:uid="{76D05CD2-3114-46FB-9269-F0E2A1D2FA4D}"/>
+    <hyperlink ref="H71" r:id="rId67" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
+    <hyperlink ref="H74" r:id="rId68" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
+    <hyperlink ref="H76" r:id="rId69" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
+    <hyperlink ref="H77" r:id="rId70" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
+    <hyperlink ref="H78" r:id="rId71" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
+    <hyperlink ref="H79" r:id="rId72" xr:uid="{AADD813E-852F-4229-AF9B-7916FFB5C0D1}"/>
+    <hyperlink ref="H81" r:id="rId73" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
+    <hyperlink ref="H83" r:id="rId74" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId73"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -3551,10 +3369,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C1" s="4">
         <v>3</v>
@@ -3563,25 +3381,25 @@
         <v>0.3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -3590,23 +3408,23 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="8" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -3615,25 +3433,25 @@
         <v>0.39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -3648,10 +3466,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>82</v>
@@ -3660,7 +3478,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3675,17 +3493,17 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -3694,25 +3512,25 @@
         <v>0.46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1">
         <v>1212</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -3721,25 +3539,25 @@
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -3752,17 +3570,17 @@
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -3771,23 +3589,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="8" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -3796,23 +3614,23 @@
         <v>0.22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="8" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -3821,23 +3639,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -3852,17 +3670,17 @@
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -3871,23 +3689,23 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -3902,17 +3720,17 @@
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="8" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -3921,23 +3739,23 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -3946,23 +3764,23 @@
         <v>0.1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -3971,25 +3789,25 @@
         <v>2.61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -3998,25 +3816,25 @@
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -4025,25 +3843,25 @@
         <v>1.21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="C20" s="15" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D20" s="16">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4947C8-9813-4A4C-B326-5707758AA130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1236E6DC-BB07-44F6-9A86-184E12A299C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="310">
   <si>
     <t>Qty</t>
   </si>
@@ -562,9 +562,6 @@
     <t>PWR-01</t>
   </si>
   <si>
-    <t>C1, C5, C6</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Murata-Electronics/GRM188R61E106KA73J?qs=5aG0NVq1C4xEV8YyiSS7mg%3D%3D&amp;countrycode=US&amp;currencycode=USD</t>
   </si>
   <si>
@@ -835,9 +832,6 @@
     <t>R2, R3, R5, R13, R14</t>
   </si>
   <si>
-    <t>R15</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/603-C0603FRNPO9BN270</t>
   </si>
   <si>
@@ -959,6 +953,18 @@
   </si>
   <si>
     <t>Note: verify all parts are available and in correct quantities.</t>
+  </si>
+  <si>
+    <t>Could feasibly use TPS3840DL32 if 35 is out of stock</t>
+  </si>
+  <si>
+    <t>Could feasibly use TPS3840DL37 or 40 if 35 is out of stock</t>
+  </si>
+  <si>
+    <t>R7, R15</t>
+  </si>
+  <si>
+    <t>C5, C6</t>
   </si>
 </sst>
 </file>
@@ -1436,10 +1442,10 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D132" sqref="D132"/>
+      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,18 +1461,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -1484,12 +1490,12 @@
         <v>138</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>45</v>
@@ -1524,10 +1530,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>158</v>
@@ -1548,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1572,10 +1578,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>124</v>
@@ -1614,10 +1620,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>159</v>
@@ -1638,13 +1644,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1662,13 +1668,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1686,10 +1692,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1701,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -1713,7 +1719,7 @@
         <v>160</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1751,7 +1757,7 @@
         <v>145</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1772,7 +1778,7 @@
         <v>145</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1823,7 +1829,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1844,7 +1850,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1865,7 +1871,7 @@
         <v>135</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>133</v>
@@ -1887,7 +1893,7 @@
         <v>49</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1949,7 +1955,7 @@
         <v>146</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1970,7 +1976,7 @@
         <v>147</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1991,7 +1997,7 @@
         <v>147</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,7 +2021,7 @@
         <v>161</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2036,7 +2042,7 @@
         <v>147</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2057,7 +2063,7 @@
         <v>147</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2078,7 +2084,7 @@
         <v>147</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,7 +2105,7 @@
         <v>147</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2120,7 +2126,7 @@
         <v>147</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2141,7 +2147,7 @@
         <v>147</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2221,7 +2227,7 @@
         <v>151</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2248,7 @@
         <v>144</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>121</v>
@@ -2265,6 +2271,9 @@
       <c r="F39" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="G39" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="H39" s="8" t="s">
         <v>143</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>139</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2314,10 +2323,10 @@
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C42" s="4">
         <v>6</v>
@@ -2329,13 +2338,13 @@
         <v>4</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2353,10 +2362,10 @@
         <v>162</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>127</v>
@@ -2377,7 +2386,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>126</v>
@@ -2396,10 +2405,10 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2418,7 +2427,7 @@
         <v>49</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2430,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>163</v>
@@ -2439,7 +2448,7 @@
         <v>166</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2460,7 +2469,7 @@
         <v>165</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>164</v>
@@ -2481,10 +2490,10 @@
         <v>77</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2505,13 +2514,13 @@
         <v>147</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C51" s="4">
         <v>8</v>
@@ -2526,16 +2535,16 @@
         <v>147</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2550,13 +2559,13 @@
         <v>147</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C53" s="4">
         <v>4</v>
@@ -2571,7 +2580,7 @@
         <v>147</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2592,13 +2601,13 @@
         <v>147</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
@@ -2613,13 +2622,13 @@
         <v>147</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2634,7 +2643,7 @@
         <v>147</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2655,7 +2664,7 @@
         <v>147</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2667,17 +2676,17 @@
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2694,7 +2703,7 @@
         <v>71</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2715,7 +2724,7 @@
         <v>172</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2736,15 +2745,15 @@
         <v>171</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>106</v>
@@ -2757,10 +2766,10 @@
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H62" s="21" t="s">
         <v>153</v>
@@ -2769,13 +2778,13 @@
     <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="4">
         <v>3</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="4" t="s">
@@ -2788,7 +2797,7 @@
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
@@ -2796,7 +2805,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="9"/>
       <c r="F64" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H64" s="21" t="s">
         <v>153</v>
@@ -2805,7 +2814,7 @@
     <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C65" s="4">
         <v>2</v>
@@ -2820,39 +2829,36 @@
         <v>147</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="C66" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C67" s="4">
         <v>4</v>
@@ -2864,16 +2870,16 @@
         <v>4</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68" s="4">
         <v>2</v>
@@ -2885,223 +2891,223 @@
         <v>114</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H68" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="H68" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="C69" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="9">
-        <v>1206</v>
+        <v>72</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="4" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>4</v>
+      <c r="D70" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1206</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>276</v>
+        <v>226</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E72" s="5">
-        <v>1212</v>
+        <v>17</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>123</v>
+        <v>48</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="4" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>77</v>
+        <v>110</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1212</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>301</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="4" t="s">
-        <v>262</v>
+        <v>56</v>
       </c>
       <c r="C74" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="4" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="C75" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="4" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C77" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>286</v>
+        <v>146</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C78" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>4</v>
@@ -3109,20 +3115,23 @@
       <c r="F78" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H78" s="8" t="s">
-        <v>295</v>
+      <c r="G78" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="4" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="C79" s="4">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>4</v>
@@ -3131,19 +3140,19 @@
         <v>147</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="4" t="s">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="C80" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>4</v>
@@ -3151,23 +3160,20 @@
       <c r="F80" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>303</v>
+      <c r="H80" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="4" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>4</v>
@@ -3175,20 +3181,23 @@
       <c r="F81" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="G81" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="H81" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="4" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>4</v>
@@ -3196,8 +3205,8 @@
       <c r="F82" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>281</v>
+      <c r="H82" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3217,6 +3226,9 @@
       <c r="F83" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="G83" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="H83" s="8" t="s">
         <v>143</v>
       </c>
@@ -3230,19 +3242,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="F84" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3254,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>81</v>
@@ -3263,18 +3275,18 @@
         <v>149</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A66:A85"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="A42:A61"/>
     <mergeCell ref="A3:A41"/>
+    <mergeCell ref="A66:A85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H19" r:id="rId1" xr:uid="{533531D7-E2DD-484C-90E8-FE450EDAA4D0}"/>
@@ -3308,13 +3320,13 @@
     <hyperlink ref="H57" r:id="rId29" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
     <hyperlink ref="H60" r:id="rId30" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
     <hyperlink ref="H59" r:id="rId31" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
-    <hyperlink ref="H66" r:id="rId32" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
+    <hyperlink ref="H69" r:id="rId32" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
     <hyperlink ref="H68" r:id="rId33" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
-    <hyperlink ref="H69" r:id="rId34" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
-    <hyperlink ref="H72" r:id="rId35" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
-    <hyperlink ref="H75" r:id="rId36" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
-    <hyperlink ref="H73" r:id="rId37" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
-    <hyperlink ref="H80" r:id="rId38" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
+    <hyperlink ref="H70" r:id="rId34" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
+    <hyperlink ref="H73" r:id="rId35" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
+    <hyperlink ref="H76" r:id="rId36" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
+    <hyperlink ref="H74" r:id="rId37" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
+    <hyperlink ref="H81" r:id="rId38" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
     <hyperlink ref="H45" r:id="rId39" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
     <hyperlink ref="H3" r:id="rId40" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
     <hyperlink ref="H6" r:id="rId41" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
@@ -3329,7 +3341,7 @@
     <hyperlink ref="H85" r:id="rId50" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
     <hyperlink ref="H51" r:id="rId51" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
     <hyperlink ref="H49" r:id="rId52" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
-    <hyperlink ref="H70" r:id="rId53" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
+    <hyperlink ref="H71" r:id="rId53" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
     <hyperlink ref="H31" r:id="rId54" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
     <hyperlink ref="H32" r:id="rId55" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
     <hyperlink ref="D1" r:id="rId56" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
@@ -3342,15 +3354,15 @@
     <hyperlink ref="H55" r:id="rId63" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
     <hyperlink ref="H56" r:id="rId64" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
     <hyperlink ref="H65" r:id="rId65" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
-    <hyperlink ref="H82" r:id="rId66" xr:uid="{76D05CD2-3114-46FB-9269-F0E2A1D2FA4D}"/>
-    <hyperlink ref="H71" r:id="rId67" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
-    <hyperlink ref="H74" r:id="rId68" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
-    <hyperlink ref="H76" r:id="rId69" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
-    <hyperlink ref="H77" r:id="rId70" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
-    <hyperlink ref="H78" r:id="rId71" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
-    <hyperlink ref="H79" r:id="rId72" xr:uid="{AADD813E-852F-4229-AF9B-7916FFB5C0D1}"/>
-    <hyperlink ref="H81" r:id="rId73" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
-    <hyperlink ref="H83" r:id="rId74" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
+    <hyperlink ref="H72" r:id="rId66" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
+    <hyperlink ref="H75" r:id="rId67" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
+    <hyperlink ref="H77" r:id="rId68" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
+    <hyperlink ref="H78" r:id="rId69" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
+    <hyperlink ref="H79" r:id="rId70" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
+    <hyperlink ref="H82" r:id="rId71" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
+    <hyperlink ref="H83" r:id="rId72" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
+    <hyperlink ref="H80" r:id="rId73" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
+    <hyperlink ref="H66" r:id="rId74" xr:uid="{D3F162E3-5823-474F-BDCC-0F7DF0ABC32B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId75"/>
@@ -3369,10 +3381,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C1" s="4">
         <v>3</v>
@@ -3387,19 +3399,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -3414,17 +3426,17 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -3439,19 +3451,19 @@
         <v>114</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -3466,10 +3478,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>82</v>
@@ -3518,19 +3530,19 @@
         <v>1212</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -3539,19 +3551,19 @@
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3580,7 +3592,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -3589,23 +3601,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -3620,11 +3632,11 @@
         <v>77</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3639,7 +3651,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>77</v>
@@ -3649,13 +3661,13 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -3680,7 +3692,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -3755,7 +3767,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -3795,13 +3807,13 @@
         <v>39</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3816,19 +3828,19 @@
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3843,7 +3855,7 @@
         <v>1.21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>40</v>
@@ -3852,16 +3864,16 @@
         <v>149</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="C20" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D20" s="16">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1236E6DC-BB07-44F6-9A86-184E12A299C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399AD9CE-5AE4-4848-B771-BA647819397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -1442,10 +1442,10 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399AD9CE-5AE4-4848-B771-BA647819397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C185EFD-4BE1-41C6-9DDB-AEAB0B63F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="43665" yWindow="0" windowWidth="28800" windowHeight="15555" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="309">
   <si>
     <t>Qty</t>
   </si>
@@ -418,9 +418,6 @@
     <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL10B221KB8NFNC?qs=YCa%2FAAYMW03S2dLM1EfL7A%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/KEMET/ESK107M025AC3AA?qs=Z46kSA%2FmtFiEo%2F6fDW5ebA%3D%3D</t>
-  </si>
-  <si>
     <t>Schottky diode</t>
   </si>
   <si>
@@ -523,9 +520,6 @@
     <t>Recommended at least 1% tolerance</t>
   </si>
   <si>
-    <t>5mm dia x 11 mm len</t>
-  </si>
-  <si>
     <t>3mm</t>
   </si>
   <si>
@@ -808,12 +802,6 @@
     <t>Link leads to a 10-pack. Discrete 0603-size LEDs can be used instead</t>
   </si>
   <si>
-    <t>https://octopart.com/search?q=tps63070&amp;currency=USD&amp;specs=0</t>
-  </si>
-  <si>
-    <t>Might be difficult to find. Check octopart.com. TPS630702 preferred, but all will work</t>
-  </si>
-  <si>
     <t>C1, C2, C6, C7, C8, C24</t>
   </si>
   <si>
@@ -949,9 +937,6 @@
     <t>https://www.mouser.com/ProductDetail/?qs=1CfNGUMoiQ%252B%252BQr9CqlxSeA%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=395da5fd9b</t>
-  </si>
-  <si>
     <t>Note: verify all parts are available and in correct quantities.</t>
   </si>
   <si>
@@ -965,6 +950,18 @@
   </si>
   <si>
     <t>C5, C6</t>
+  </si>
+  <si>
+    <t>Might be difficult to find. TPS630702 preferred, but all will work. Check https://octopart.com/search?q=tps63070&amp;currency=USD&amp;specs=0</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TPS630702RNMT?qs=vLWxofP3U2wR9GhA3fXurw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KEMET/ESK107M010AC3AA?qs=9RUIYXQlAdBiO30krUyznA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=c586f08d86</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1011,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1045,12 +1042,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1066,7 +1057,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1114,7 +1105,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1445,7 +1435,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,30 +1445,30 @@
     <col min="4" max="4" width="30.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="125.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="168.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>1</v>
@@ -1487,15 +1477,15 @@
         <v>46</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>45</v>
@@ -1509,10 +1499,10 @@
         <v>47</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1530,13 +1520,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1554,13 +1544,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1578,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1599,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>124</v>
@@ -1620,19 +1610,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1644,13 +1634,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1668,13 +1658,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1692,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1707,19 +1697,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1733,10 +1723,10 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1748,16 +1738,16 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1769,16 +1759,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1790,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1808,7 +1798,7 @@
         <v>53</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1829,7 +1819,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1850,7 +1840,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1862,19 +1852,19 @@
         <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="5">
         <v>1206</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1886,14 +1876,14 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1910,10 +1900,10 @@
         <v>55</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1931,7 +1921,7 @@
         <v>1206</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>119</v>
@@ -1946,16 +1936,16 @@
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1973,16 +1963,16 @@
         <v>4</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1994,10 +1984,10 @@
         <v>4</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,13 +2005,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2039,10 +2029,10 @@
         <v>4</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2060,10 +2050,10 @@
         <v>4</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2081,10 +2071,10 @@
         <v>4</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2102,10 +2092,10 @@
         <v>4</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2123,10 +2113,10 @@
         <v>4</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2144,10 +2134,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2164,7 +2154,7 @@
         <v>59</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2185,7 +2175,7 @@
         <v>60</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2203,10 +2193,10 @@
         <v>38</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2224,10 +2214,10 @@
         <v>39</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2245,10 +2235,10 @@
         <v>40</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>121</v>
@@ -2263,19 +2253,19 @@
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2294,10 +2284,10 @@
         <v>50</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2315,18 +2305,18 @@
         <v>42</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C42" s="4">
         <v>6</v>
@@ -2338,13 +2328,13 @@
         <v>4</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2358,17 +2348,15 @@
       <c r="D43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>162</v>
-      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2386,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>126</v>
@@ -2405,10 +2393,10 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2420,14 +2408,14 @@
         <v>2</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2439,22 +2427,22 @@
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C48" s="4">
         <v>8</v>
@@ -2466,13 +2454,13 @@
         <v>2020</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2490,10 +2478,10 @@
         <v>77</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2504,23 +2492,23 @@
       <c r="C50" s="4">
         <v>1</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C51" s="4">
         <v>8</v>
@@ -2532,19 +2520,19 @@
         <v>4</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2556,16 +2544,16 @@
         <v>4</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C53" s="4">
         <v>4</v>
@@ -2577,10 +2565,10 @@
         <v>4</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2598,16 +2586,16 @@
         <v>4</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
@@ -2619,16 +2607,16 @@
         <v>4</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2640,10 +2628,10 @@
         <v>4</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2655,16 +2643,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2676,17 +2664,17 @@
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2703,7 +2691,7 @@
         <v>71</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2721,10 +2709,10 @@
         <v>63</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2736,24 +2724,24 @@
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>106</v>
@@ -2766,38 +2754,38 @@
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C63" s="4">
         <v>3</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
@@ -2805,16 +2793,16 @@
       <c r="D64" s="5"/>
       <c r="E64" s="9"/>
       <c r="F64" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C65" s="4">
         <v>2</v>
@@ -2826,15 +2814,15 @@
         <v>4</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>2</v>
@@ -2849,16 +2837,16 @@
         <v>4</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C67" s="4">
         <v>4</v>
@@ -2870,16 +2858,16 @@
         <v>4</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C68" s="4">
         <v>2</v>
@@ -2891,19 +2879,19 @@
         <v>114</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C69" s="4">
         <v>2</v>
@@ -2915,13 +2903,13 @@
         <v>4</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2939,19 +2927,19 @@
         <v>1206</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -2963,10 +2951,10 @@
         <v>4</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2987,7 +2975,7 @@
         <v>48</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3005,10 +2993,10 @@
         <v>1212</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>123</v>
@@ -3023,22 +3011,22 @@
         <v>1</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C75" s="4">
         <v>3</v>
@@ -3050,10 +3038,10 @@
         <v>77</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3065,43 +3053,43 @@
         <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C78" s="4">
         <v>6</v>
@@ -3113,19 +3101,19 @@
         <v>4</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C79" s="4">
         <v>5</v>
@@ -3137,16 +3125,16 @@
         <v>4</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C80" s="4">
         <v>2</v>
@@ -3158,10 +3146,10 @@
         <v>4</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3179,19 +3167,19 @@
         <v>4</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
@@ -3203,10 +3191,10 @@
         <v>4</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3218,19 +3206,19 @@
         <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3242,19 +3230,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>257</v>
+        <v>305</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3266,19 +3254,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3348,21 +3336,21 @@
     <hyperlink ref="H42" r:id="rId57" xr:uid="{A2162AF1-9723-488A-B2CF-D6E08028D21E}"/>
     <hyperlink ref="H67" r:id="rId58" xr:uid="{6F8B0939-1DE5-40F6-9BE0-AAB00E1EF6C5}"/>
     <hyperlink ref="H46" r:id="rId59" xr:uid="{F07EBFB2-F721-415C-85E4-7800176BBA66}"/>
-    <hyperlink ref="H50" r:id="rId60" xr:uid="{30681088-DDBA-4F4A-AD37-3E68A742D8FC}"/>
-    <hyperlink ref="H52" r:id="rId61" xr:uid="{152155CD-1666-49D7-95A6-AB137F0EB175}"/>
-    <hyperlink ref="H54" r:id="rId62" xr:uid="{11F1D8C7-9EC4-4A7B-9757-AA7A447A6C67}"/>
-    <hyperlink ref="H55" r:id="rId63" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
-    <hyperlink ref="H56" r:id="rId64" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
-    <hyperlink ref="H65" r:id="rId65" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
-    <hyperlink ref="H72" r:id="rId66" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
-    <hyperlink ref="H75" r:id="rId67" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
-    <hyperlink ref="H77" r:id="rId68" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
-    <hyperlink ref="H78" r:id="rId69" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
-    <hyperlink ref="H79" r:id="rId70" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
-    <hyperlink ref="H82" r:id="rId71" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
-    <hyperlink ref="H83" r:id="rId72" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
-    <hyperlink ref="H80" r:id="rId73" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
-    <hyperlink ref="H66" r:id="rId74" xr:uid="{D3F162E3-5823-474F-BDCC-0F7DF0ABC32B}"/>
+    <hyperlink ref="H52" r:id="rId60" xr:uid="{152155CD-1666-49D7-95A6-AB137F0EB175}"/>
+    <hyperlink ref="H54" r:id="rId61" xr:uid="{11F1D8C7-9EC4-4A7B-9757-AA7A447A6C67}"/>
+    <hyperlink ref="H55" r:id="rId62" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
+    <hyperlink ref="H56" r:id="rId63" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
+    <hyperlink ref="H65" r:id="rId64" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
+    <hyperlink ref="H72" r:id="rId65" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
+    <hyperlink ref="H75" r:id="rId66" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
+    <hyperlink ref="H77" r:id="rId67" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
+    <hyperlink ref="H78" r:id="rId68" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
+    <hyperlink ref="H79" r:id="rId69" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
+    <hyperlink ref="H82" r:id="rId70" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
+    <hyperlink ref="H83" r:id="rId71" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
+    <hyperlink ref="H80" r:id="rId72" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
+    <hyperlink ref="H66" r:id="rId73" xr:uid="{D3F162E3-5823-474F-BDCC-0F7DF0ABC32B}"/>
+    <hyperlink ref="H50" r:id="rId74" xr:uid="{421996CF-34F5-49E1-9313-D98C0ECAD9A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId75"/>
@@ -3381,10 +3369,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C1" s="4">
         <v>3</v>
@@ -3399,19 +3387,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -3426,17 +3414,17 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -3451,19 +3439,19 @@
         <v>114</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -3478,10 +3466,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>82</v>
@@ -3530,19 +3518,19 @@
         <v>1212</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -3551,19 +3539,19 @@
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3582,7 +3570,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="3" t="s">
@@ -3592,7 +3580,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -3601,23 +3589,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -3632,11 +3620,11 @@
         <v>77</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3651,23 +3639,23 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>77</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -3682,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="8" t="s">
@@ -3692,7 +3680,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -3707,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="8" t="s">
@@ -3732,11 +3720,11 @@
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3757,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="3" t="s">
@@ -3767,7 +3755,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -3782,7 +3770,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="8" t="s">
@@ -3807,13 +3795,13 @@
         <v>39</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3828,19 +3816,19 @@
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3855,25 +3843,25 @@
         <v>1.21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="C20" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D20" s="16">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C185EFD-4BE1-41C6-9DDB-AEAB0B63F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BEB684-E6D4-4D05-8C11-83C7653AB938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43665" yWindow="0" windowWidth="28800" windowHeight="15555" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
     <sheet name="WIP" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="319">
   <si>
     <t>Qty</t>
   </si>
@@ -754,9 +753,6 @@
     <t>C2, C8, C9, C11</t>
   </si>
   <si>
-    <t>TPS3702CX50DDCT</t>
-  </si>
-  <si>
     <t>Optional</t>
   </si>
   <si>
@@ -805,9 +801,6 @@
     <t>C1, C2, C6, C7, C8, C24</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/GRM31CR61C476ME44K?qs=QzBtWTOodeVeYV6UhCOqow%3D%3D</t>
-  </si>
-  <si>
     <t>Q2, Q4, Q5</t>
   </si>
   <si>
@@ -934,9 +927,6 @@
     <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-0720KL?qs=VU8sRB4EgwCsxfrjtEIKPQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/?qs=1CfNGUMoiQ%252B%252BQr9CqlxSeA%3D%3D</t>
-  </si>
-  <si>
     <t>Note: verify all parts are available and in correct quantities.</t>
   </si>
   <si>
@@ -961,7 +951,46 @@
     <t>https://www.mouser.com/ProductDetail/KEMET/ESK107M010AC3AA?qs=9RUIYXQlAdBiO30krUyznA%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=c586f08d86</t>
+    <t>https://www.mouser.com/ProductDetail/688-SKRRAA</t>
+  </si>
+  <si>
+    <t>Optional, can be omitted if you don't want clicky SP-style buttons</t>
+  </si>
+  <si>
+    <t>Tactile switch</t>
+  </si>
+  <si>
+    <t>SKRRAAE010</t>
+  </si>
+  <si>
+    <t>B1-B6</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>TSM-106-01-T-SV</t>
+  </si>
+  <si>
+    <t>Surface Mount Terminal Strip</t>
+  </si>
+  <si>
+    <t>Optional for assembly, only helpful for programming the ATTINY</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/200-TSM10601TSV</t>
+  </si>
+  <si>
+    <t>TPS3702CX50</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=3454c930ba</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TPS3702CX50DDCT</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/81-GRM31CR61C476ME4L</t>
   </si>
 </sst>
 </file>
@@ -1070,9 +1099,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -1080,9 +1106,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1105,6 +1128,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1429,13 +1458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A52F74-6B21-4A92-88AA-13BD0DE1F9EF}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,43 +1480,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>308</v>
+        <v>283</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>316</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="4">
@@ -1501,12 +1530,12 @@
       <c r="G3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1523,14 +1552,14 @@
         <v>224</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="24"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1547,14 +1576,14 @@
         <v>224</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -1571,11 +1600,11 @@
         <v>224</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="24"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -1596,7 +1625,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="24"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -1615,12 +1644,12 @@
       <c r="G8" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="24"/>
       <c r="B9" t="s">
         <v>128</v>
       </c>
@@ -1639,12 +1668,12 @@
       <c r="G9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>263</v>
+      <c r="H9" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="24"/>
       <c r="B10" t="s">
         <v>94</v>
       </c>
@@ -1663,12 +1692,12 @@
       <c r="G10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>264</v>
+      <c r="H10" s="10" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="24"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -1684,12 +1713,12 @@
       <c r="F11" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>265</v>
+      <c r="H11" s="7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="24"/>
       <c r="B12" t="s">
         <v>75</v>
       </c>
@@ -1697,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -1709,11 +1738,11 @@
         <v>159</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
@@ -1725,12 +1754,12 @@
       <c r="F13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="19" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="24"/>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -1747,11 +1776,11 @@
         <v>144</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="24"/>
       <c r="B15" t="s">
         <v>92</v>
       </c>
@@ -1768,11 +1797,11 @@
         <v>144</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="24"/>
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1782,12 +1811,12 @@
       <c r="F16" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="24"/>
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -1797,12 +1826,12 @@
       <c r="F17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="19" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
         <v>96</v>
       </c>
@@ -1812,18 +1841,18 @@
       <c r="D18" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>1206</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>271</v>
+      <c r="H18" s="7" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="24"/>
       <c r="B19" t="s">
         <v>95</v>
       </c>
@@ -1840,18 +1869,18 @@
         <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>156</v>
       </c>
       <c r="E20" s="5">
@@ -1861,14 +1890,14 @@
         <v>134</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H20" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1882,12 +1911,12 @@
       <c r="F21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>273</v>
+      <c r="H21" s="7" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="4" t="s">
         <v>54</v>
       </c>
@@ -1902,12 +1931,12 @@
       <c r="G22" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="22" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
@@ -1923,12 +1952,12 @@
       <c r="F23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="4" t="s">
         <v>56</v>
       </c>
@@ -1944,12 +1973,12 @@
       <c r="F24" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>274</v>
+      <c r="H24" s="7" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="24"/>
       <c r="B25" t="s">
         <v>93</v>
       </c>
@@ -1966,11 +1995,11 @@
         <v>146</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="24"/>
       <c r="B26" t="s">
         <v>130</v>
       </c>
@@ -1987,11 +2016,11 @@
         <v>146</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="24"/>
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -2011,11 +2040,11 @@
         <v>160</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="24"/>
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -2032,11 +2061,11 @@
         <v>146</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
@@ -2046,18 +2075,18 @@
       <c r="D29" s="5">
         <v>100</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>279</v>
+      <c r="H29" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="24"/>
       <c r="B30" t="s">
         <v>97</v>
       </c>
@@ -2074,11 +2103,11 @@
         <v>146</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="4" t="s">
         <v>98</v>
       </c>
@@ -2088,18 +2117,18 @@
       <c r="D31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>282</v>
+      <c r="H31" s="7" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -2116,11 +2145,11 @@
         <v>146</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="24"/>
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -2137,11 +2166,11 @@
         <v>146</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="4" t="s">
         <v>58</v>
       </c>
@@ -2153,12 +2182,12 @@
       <c r="F34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="19" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="24"/>
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -2174,12 +2203,12 @@
       <c r="F35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="24"/>
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -2195,12 +2224,12 @@
       <c r="F36" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="4" t="s">
         <v>32</v>
       </c>
@@ -2216,12 +2245,12 @@
       <c r="F37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>284</v>
+      <c r="H37" s="7" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="4" t="s">
         <v>99</v>
       </c>
@@ -2240,12 +2269,12 @@
       <c r="G38" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
@@ -2262,14 +2291,14 @@
         <v>148</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H39" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
@@ -2286,12 +2315,12 @@
       <c r="G40" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="A41" s="24"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
@@ -2307,238 +2336,236 @@
       <c r="F41" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" s="4">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="E43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="4" t="s">
+      <c r="H43" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="4" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G44" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="4">
-        <v>2</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="E49" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="4">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="4">
-        <v>2</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="4">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="4">
-        <v>8</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="4" t="s">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="4">
-        <v>8</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" t="s">
-        <v>247</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>4</v>
@@ -2551,730 +2578,775 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C53" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>290</v>
+      <c r="G53" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="4">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
-        <v>100</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="A54" s="23"/>
+      <c r="B54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H54" s="8" t="s">
-        <v>279</v>
+      <c r="H54" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C55" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>280</v>
+      <c r="H55" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="4" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
       <c r="D56" s="5">
-        <v>510</v>
-      </c>
-      <c r="E56" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>281</v>
+      <c r="H56" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C57" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <v>510</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="4">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+    <row r="64" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C64" s="4">
         <v>2</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="4" t="s">
+      <c r="E64" s="8"/>
+      <c r="F64" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H64" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="4" t="s">
+    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C65" s="4">
         <v>3</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="4" t="s">
+      <c r="E65" s="8"/>
+      <c r="F65" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H65" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="4" t="s">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="4">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="4" t="s">
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H64" s="21" t="s">
+      <c r="H66" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="4" t="s">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C67" s="4">
         <v>2</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="E67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="H67" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="4">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="4">
-        <v>4</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" s="4">
-        <v>2</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>114</v>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+      <c r="H68" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
       <c r="B69" s="4" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="C69" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+      <c r="H69" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
       <c r="B70" s="4" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1206</v>
+        <v>74</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>224</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>256</v>
+        <v>176</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="4" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="C71" s="4">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="G71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="8">
+        <v>1206</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
+      <c r="B73" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="4" t="s">
+    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="4">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="E74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="4" t="s">
+      <c r="H74" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C73" s="4">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E75" s="5">
         <v>1212</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H75" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="4" t="s">
+    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
+      <c r="B76" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="4">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" s="4">
-        <v>3</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="4">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F76" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="4">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H76" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C77" s="4">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="H78" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
+      <c r="B79" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C78" s="4">
+      <c r="H79" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80" s="4">
         <v>6</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C79" s="4">
-        <v>5</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C80" s="4">
-        <v>2</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="G80" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H80" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="4" t="s">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="C81" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>297</v>
+      <c r="H81" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="4" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="C82" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H82" s="8" t="s">
-        <v>298</v>
+      <c r="H82" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="4">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="4">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23"/>
+      <c r="B87" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A42:A61"/>
+    <mergeCell ref="A64:A67"/>
     <mergeCell ref="A3:A41"/>
-    <mergeCell ref="A66:A85"/>
+    <mergeCell ref="A68:A87"/>
+    <mergeCell ref="A42:A63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H19" r:id="rId1" xr:uid="{533531D7-E2DD-484C-90E8-FE450EDAA4D0}"/>
@@ -3301,59 +3373,60 @@
     <hyperlink ref="H25" r:id="rId22" xr:uid="{788713CC-6D26-4858-914E-2A666D70E766}"/>
     <hyperlink ref="H30" r:id="rId23" xr:uid="{A53E990E-9129-4EB1-A34B-0C78C0D9E34D}"/>
     <hyperlink ref="H27" r:id="rId24" xr:uid="{76C67D05-F2EA-44A2-BD81-EF2014CF57EC}"/>
-    <hyperlink ref="H43" r:id="rId25" xr:uid="{F90AB032-219C-4117-8CC7-BC9E853E4698}"/>
-    <hyperlink ref="H44" r:id="rId26" xr:uid="{49CC98DC-1B54-431E-9034-D174BB2AC2CC}"/>
-    <hyperlink ref="H47" r:id="rId27" xr:uid="{9C9AC3AA-79BD-46AD-815A-2DBF971DA7BE}"/>
-    <hyperlink ref="H53" r:id="rId28" xr:uid="{01EEB93E-EB32-49F6-8E28-29BD44012437}"/>
-    <hyperlink ref="H57" r:id="rId29" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
-    <hyperlink ref="H60" r:id="rId30" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
-    <hyperlink ref="H59" r:id="rId31" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
-    <hyperlink ref="H69" r:id="rId32" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
-    <hyperlink ref="H68" r:id="rId33" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
-    <hyperlink ref="H70" r:id="rId34" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
-    <hyperlink ref="H73" r:id="rId35" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
-    <hyperlink ref="H76" r:id="rId36" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
-    <hyperlink ref="H74" r:id="rId37" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
-    <hyperlink ref="H81" r:id="rId38" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
-    <hyperlink ref="H45" r:id="rId39" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
+    <hyperlink ref="H44" r:id="rId25" xr:uid="{F90AB032-219C-4117-8CC7-BC9E853E4698}"/>
+    <hyperlink ref="H45" r:id="rId26" xr:uid="{49CC98DC-1B54-431E-9034-D174BB2AC2CC}"/>
+    <hyperlink ref="H49" r:id="rId27" xr:uid="{9C9AC3AA-79BD-46AD-815A-2DBF971DA7BE}"/>
+    <hyperlink ref="H55" r:id="rId28" xr:uid="{01EEB93E-EB32-49F6-8E28-29BD44012437}"/>
+    <hyperlink ref="H59" r:id="rId29" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
+    <hyperlink ref="H62" r:id="rId30" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
+    <hyperlink ref="H61" r:id="rId31" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
+    <hyperlink ref="H71" r:id="rId32" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
+    <hyperlink ref="H70" r:id="rId33" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
+    <hyperlink ref="H72" r:id="rId34" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
+    <hyperlink ref="H75" r:id="rId35" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
+    <hyperlink ref="H78" r:id="rId36" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
+    <hyperlink ref="H76" r:id="rId37" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
+    <hyperlink ref="H83" r:id="rId38" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
+    <hyperlink ref="H46" r:id="rId39" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
     <hyperlink ref="H3" r:id="rId40" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
     <hyperlink ref="H6" r:id="rId41" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
     <hyperlink ref="H11" r:id="rId42" xr:uid="{38676E5E-4ABA-45F9-95EC-56E10A2FCB56}"/>
     <hyperlink ref="H22" r:id="rId43" xr:uid="{4650E4B6-75A4-4E6C-8A59-99E45F1EFF0A}"/>
     <hyperlink ref="H33" r:id="rId44" xr:uid="{40DBDCDE-0507-4D06-908C-E1B13368B813}"/>
-    <hyperlink ref="H61" r:id="rId45" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
-    <hyperlink ref="H84" r:id="rId46" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
-    <hyperlink ref="H58" r:id="rId47" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
+    <hyperlink ref="H63" r:id="rId45" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
+    <hyperlink ref="H86" r:id="rId46" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
+    <hyperlink ref="H60" r:id="rId47" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
     <hyperlink ref="H7" r:id="rId48" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
-    <hyperlink ref="H48" r:id="rId49" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
-    <hyperlink ref="H85" r:id="rId50" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
-    <hyperlink ref="H51" r:id="rId51" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
-    <hyperlink ref="H49" r:id="rId52" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
-    <hyperlink ref="H71" r:id="rId53" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
+    <hyperlink ref="H50" r:id="rId49" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
+    <hyperlink ref="H87" r:id="rId50" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
+    <hyperlink ref="H53" r:id="rId51" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
+    <hyperlink ref="H51" r:id="rId52" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
+    <hyperlink ref="H73" r:id="rId53" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
     <hyperlink ref="H31" r:id="rId54" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
     <hyperlink ref="H32" r:id="rId55" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
-    <hyperlink ref="D1" r:id="rId56" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
-    <hyperlink ref="H42" r:id="rId57" xr:uid="{A2162AF1-9723-488A-B2CF-D6E08028D21E}"/>
-    <hyperlink ref="H67" r:id="rId58" xr:uid="{6F8B0939-1DE5-40F6-9BE0-AAB00E1EF6C5}"/>
-    <hyperlink ref="H46" r:id="rId59" xr:uid="{F07EBFB2-F721-415C-85E4-7800176BBA66}"/>
-    <hyperlink ref="H52" r:id="rId60" xr:uid="{152155CD-1666-49D7-95A6-AB137F0EB175}"/>
-    <hyperlink ref="H54" r:id="rId61" xr:uid="{11F1D8C7-9EC4-4A7B-9757-AA7A447A6C67}"/>
-    <hyperlink ref="H55" r:id="rId62" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
-    <hyperlink ref="H56" r:id="rId63" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
-    <hyperlink ref="H65" r:id="rId64" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
-    <hyperlink ref="H72" r:id="rId65" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
-    <hyperlink ref="H75" r:id="rId66" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
-    <hyperlink ref="H77" r:id="rId67" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
-    <hyperlink ref="H78" r:id="rId68" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
-    <hyperlink ref="H79" r:id="rId69" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
-    <hyperlink ref="H82" r:id="rId70" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
-    <hyperlink ref="H83" r:id="rId71" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
-    <hyperlink ref="H80" r:id="rId72" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
-    <hyperlink ref="H66" r:id="rId73" xr:uid="{D3F162E3-5823-474F-BDCC-0F7DF0ABC32B}"/>
-    <hyperlink ref="H50" r:id="rId74" xr:uid="{421996CF-34F5-49E1-9313-D98C0ECAD9A3}"/>
+    <hyperlink ref="H43" r:id="rId56" xr:uid="{A2162AF1-9723-488A-B2CF-D6E08028D21E}"/>
+    <hyperlink ref="H69" r:id="rId57" xr:uid="{6F8B0939-1DE5-40F6-9BE0-AAB00E1EF6C5}"/>
+    <hyperlink ref="H47" r:id="rId58" xr:uid="{F07EBFB2-F721-415C-85E4-7800176BBA66}"/>
+    <hyperlink ref="H54" r:id="rId59" xr:uid="{152155CD-1666-49D7-95A6-AB137F0EB175}"/>
+    <hyperlink ref="H56" r:id="rId60" xr:uid="{11F1D8C7-9EC4-4A7B-9757-AA7A447A6C67}"/>
+    <hyperlink ref="H57" r:id="rId61" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
+    <hyperlink ref="H58" r:id="rId62" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
+    <hyperlink ref="H67" r:id="rId63" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
+    <hyperlink ref="H74" r:id="rId64" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
+    <hyperlink ref="H77" r:id="rId65" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
+    <hyperlink ref="H79" r:id="rId66" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
+    <hyperlink ref="H80" r:id="rId67" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
+    <hyperlink ref="H81" r:id="rId68" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
+    <hyperlink ref="H84" r:id="rId69" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
+    <hyperlink ref="H85" r:id="rId70" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
+    <hyperlink ref="H82" r:id="rId71" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
+    <hyperlink ref="H68" r:id="rId72" xr:uid="{D3F162E3-5823-474F-BDCC-0F7DF0ABC32B}"/>
+    <hyperlink ref="H52" r:id="rId73" xr:uid="{421996CF-34F5-49E1-9313-D98C0ECAD9A3}"/>
+    <hyperlink ref="H42" r:id="rId74" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
+    <hyperlink ref="D1" r:id="rId75" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId75"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId76"/>
 </worksheet>
 </file>
 
@@ -3362,13 +3435,13 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>196</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3377,7 +3450,7 @@
       <c r="C1" s="4">
         <v>3</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>0.3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3392,19 +3465,19 @@
       <c r="H1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>0.1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3417,19 +3490,19 @@
         <v>224</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>0.39</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3444,19 +3517,19 @@
       <c r="H3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>0.1</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3476,39 +3549,39 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>0.28000000000000003</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>0.46</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3523,19 +3596,19 @@
       <c r="H6" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3555,14 +3628,14 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>0.22</v>
       </c>
       <c r="E8" s="1"/>
@@ -3578,14 +3651,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -3598,19 +3671,19 @@
         <v>187</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>0.22</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -3623,19 +3696,19 @@
         <v>188</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>0.14000000000000001</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3648,19 +3721,19 @@
         <v>165</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>0.1</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3673,19 +3746,19 @@
         <v>146</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>0.1</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3698,19 +3771,19 @@
         <v>146</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>0.1</v>
       </c>
       <c r="E14" s="1">
@@ -3723,19 +3796,19 @@
         <v>146</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>0.1</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3753,14 +3826,14 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>0.1</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3773,19 +3846,19 @@
         <v>146</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>2.61</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3805,14 +3878,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3832,14 +3905,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>1.21</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3852,18 +3925,18 @@
         <v>148</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I19" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="C20" s="15" t="s">
+      <c r="A20" s="23"/>
+      <c r="C20" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>
         <v>12.02</v>
       </c>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BEB684-E6D4-4D05-8C11-83C7653AB938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D511F-D597-4077-9444-BF6020C6B143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
     <sheet name="WIP" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -969,18 +968,12 @@
     <t>J3</t>
   </si>
   <si>
-    <t>TSM-106-01-T-SV</t>
-  </si>
-  <si>
     <t>Surface Mount Terminal Strip</t>
   </si>
   <si>
     <t>Optional for assembly, only helpful for programming the ATTINY</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/200-TSM10601TSV</t>
-  </si>
-  <si>
     <t>TPS3702CX50</t>
   </si>
   <si>
@@ -991,6 +984,12 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/81-GRM31CR61C476ME4L</t>
+  </si>
+  <si>
+    <t>TSM-106-01-T-SH</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/200-TSM10601TSH</t>
   </si>
 </sst>
 </file>
@@ -1461,10 +1460,10 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1482,7 @@
         <v>283</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>297</v>
@@ -2477,17 +2476,17 @@
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3005,7 +3004,7 @@
         <v>195</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>81</v>
@@ -3338,7 +3337,7 @@
         <v>239</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3424,9 +3423,10 @@
     <hyperlink ref="H52" r:id="rId73" xr:uid="{421996CF-34F5-49E1-9313-D98C0ECAD9A3}"/>
     <hyperlink ref="H42" r:id="rId74" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
     <hyperlink ref="D1" r:id="rId75" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
+    <hyperlink ref="H48" r:id="rId76" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId76"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId77"/>
 </worksheet>
 </file>
 

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D511F-D597-4077-9444-BF6020C6B143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5469FC3D-9C55-476E-9F14-2489D40A8839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="322">
   <si>
     <t>Qty</t>
   </si>
@@ -638,9 +638,6 @@
     <t>Buck-boost converter</t>
   </si>
   <si>
-    <t>33uH</t>
-  </si>
-  <si>
     <t>Headphone jack</t>
   </si>
   <si>
@@ -990,6 +987,18 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/200-TSM10601TSH</t>
+  </si>
+  <si>
+    <t>3.3uH</t>
+  </si>
+  <si>
+    <t>Can use BLM18BD102SN1D as well: https://www.digikey.com/en/products/detail/murata-electronics/BLM18BD102SN1D/584235</t>
+  </si>
+  <si>
+    <t>Common mode filter</t>
+  </si>
+  <si>
+    <t>Replacement: https://www.mouser.com/ProductDetail/Wurth-Elektronik/744235601?qs=BXmE%252BJ0Y7xYO4MPd53j2NQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1460,10 +1469,10 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,18 +1488,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -1508,12 +1517,12 @@
         <v>137</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>45</v>
@@ -1548,10 +1557,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>157</v>
@@ -1572,13 +1581,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1596,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1617,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>124</v>
@@ -1638,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>176</v>
@@ -1662,13 +1671,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1686,13 +1695,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1710,10 +1719,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1725,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -1737,7 +1746,7 @@
         <v>159</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1775,7 +1784,7 @@
         <v>144</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1796,7 +1805,7 @@
         <v>144</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1808,7 +1817,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>144</v>
+        <v>320</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>153</v>
@@ -1847,7 +1859,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1868,7 +1880,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1889,7 +1901,7 @@
         <v>134</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>132</v>
@@ -1911,7 +1923,7 @@
         <v>49</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1973,7 +1985,7 @@
         <v>145</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1994,7 +2006,7 @@
         <v>146</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,7 +2027,7 @@
         <v>146</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2039,7 +2051,7 @@
         <v>160</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2060,7 +2072,7 @@
         <v>146</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2081,7 +2093,7 @@
         <v>146</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2102,7 +2114,7 @@
         <v>146</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2123,7 +2135,7 @@
         <v>146</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2144,7 +2156,7 @@
         <v>146</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2165,7 +2177,7 @@
         <v>146</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2245,7 +2257,7 @@
         <v>150</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2266,7 +2278,7 @@
         <v>143</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>121</v>
@@ -2290,7 +2302,7 @@
         <v>148</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>142</v>
@@ -2315,7 +2327,7 @@
         <v>138</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2341,31 +2353,31 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C42">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C43" s="4">
         <v>6</v>
@@ -2377,13 +2389,13 @@
         <v>4</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2399,13 +2411,13 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2423,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>126</v>
@@ -2445,7 +2457,7 @@
         <v>194</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2464,29 +2476,29 @@
         <v>49</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2498,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>161</v>
@@ -2507,7 +2519,7 @@
         <v>164</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2528,7 +2540,7 @@
         <v>163</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>162</v>
@@ -2552,7 +2564,7 @@
         <v>188</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2573,13 +2585,13 @@
         <v>146</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C53" s="4">
         <v>8</v>
@@ -2594,16 +2606,16 @@
         <v>146</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2618,13 +2630,13 @@
         <v>146</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C55" s="4">
         <v>4</v>
@@ -2639,7 +2651,7 @@
         <v>146</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2660,13 +2672,13 @@
         <v>146</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
@@ -2681,13 +2693,13 @@
         <v>146</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2702,7 +2714,7 @@
         <v>146</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2723,7 +2735,7 @@
         <v>146</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2735,17 +2747,17 @@
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H60" s="21" t="s">
         <v>204</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2762,7 +2774,7 @@
         <v>71</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2783,7 +2795,7 @@
         <v>170</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2804,15 +2816,15 @@
         <v>169</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>106</v>
@@ -2825,10 +2837,10 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>152</v>
@@ -2843,11 +2855,14 @@
         <v>3</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="4" t="s">
         <v>144</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>152</v>
@@ -2864,7 +2879,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="8"/>
       <c r="F66" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>152</v>
@@ -2888,7 +2903,7 @@
         <v>146</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2908,16 +2923,16 @@
         <v>4</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C69" s="4">
         <v>4</v>
@@ -2929,10 +2944,10 @@
         <v>4</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2950,7 +2965,7 @@
         <v>114</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>176</v>
@@ -2962,7 +2977,7 @@
     <row r="71" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C71" s="4">
         <v>2</v>
@@ -2974,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>176</v>
@@ -2998,19 +3013,19 @@
         <v>1206</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>195</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -3022,7 +3037,7 @@
         <v>4</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>158</v>
@@ -3046,7 +3061,7 @@
         <v>48</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3091,13 +3106,13 @@
         <v>187</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C77" s="4">
         <v>3</v>
@@ -3112,7 +3127,7 @@
         <v>188</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3133,13 +3148,13 @@
         <v>165</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
@@ -3154,13 +3169,13 @@
         <v>145</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C80" s="4">
         <v>6</v>
@@ -3178,13 +3193,13 @@
         <v>189</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="4">
         <v>5</v>
@@ -3199,13 +3214,13 @@
         <v>146</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C82" s="4">
         <v>2</v>
@@ -3220,7 +3235,7 @@
         <v>146</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3241,16 +3256,16 @@
         <v>146</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
@@ -3265,7 +3280,7 @@
         <v>146</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3286,7 +3301,7 @@
         <v>148</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>142</v>
@@ -3310,10 +3325,10 @@
         <v>200</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3325,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>81</v>
@@ -3334,10 +3349,10 @@
         <v>148</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3445,7 +3460,7 @@
         <v>196</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" s="4">
         <v>3</v>
@@ -3460,7 +3475,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>174</v>
@@ -3472,7 +3487,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -3487,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="7" t="s">
@@ -3497,7 +3512,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -3512,7 +3527,7 @@
         <v>114</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>174</v>
@@ -3524,7 +3539,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -3539,7 +3554,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>174</v>
@@ -3594,16 +3609,16 @@
         <v>179</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -3612,7 +3627,7 @@
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
@@ -3621,10 +3636,10 @@
         <v>179</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3653,7 +3668,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -3728,7 +3743,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -3753,7 +3768,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -3828,7 +3843,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -3868,13 +3883,13 @@
         <v>39</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3889,19 +3904,19 @@
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3925,7 +3940,7 @@
         <v>148</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>191</v>
@@ -3934,7 +3949,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="C20" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" s="14">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5469FC3D-9C55-476E-9F14-2489D40A8839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C069A3E-C9C1-4F35-9F57-7B88E2C7FBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="324">
   <si>
     <t>Qty</t>
   </si>
@@ -998,7 +998,13 @@
     <t>Common mode filter</t>
   </si>
   <si>
-    <t>Replacement: https://www.mouser.com/ProductDetail/Wurth-Elektronik/744235601?qs=BXmE%252BJ0Y7xYO4MPd53j2NQ%3D%3D</t>
+    <t>Potential replacement: https://mou.sr/3f8G0Mi</t>
+  </si>
+  <si>
+    <t>Replacement: https://mou.sr/3FiMvXw</t>
+  </si>
+  <si>
+    <t>Potential replacement (not very space-friendly): https://mou.sr/3D5AUbH</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1478,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1826,7 @@
         <v>320</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>153</v>
@@ -2235,6 +2241,9 @@
       <c r="F36" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="G36" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="H36" s="20" t="s">
         <v>153</v>
       </c>
@@ -2346,6 +2355,9 @@
       </c>
       <c r="F41" s="4" t="s">
         <v>151</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>153</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C069A3E-C9C1-4F35-9F57-7B88E2C7FBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A42B979-2DD2-4A76-A23F-2E479A926690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="52770" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -641,9 +641,6 @@
     <t>Headphone jack</t>
   </si>
   <si>
-    <t>Panasonic ECE-A0JKA101 might be a good replacement</t>
-  </si>
-  <si>
     <t>Can also used salvaged DMG speaker</t>
   </si>
   <si>
@@ -992,9 +989,6 @@
     <t>3.3uH</t>
   </si>
   <si>
-    <t>Can use BLM18BD102SN1D as well: https://www.digikey.com/en/products/detail/murata-electronics/BLM18BD102SN1D/584235</t>
-  </si>
-  <si>
     <t>Common mode filter</t>
   </si>
   <si>
@@ -1005,6 +999,12 @@
   </si>
   <si>
     <t>Potential replacement (not very space-friendly): https://mou.sr/3D5AUbH</t>
+  </si>
+  <si>
+    <t>Replacement: https://www.mouser.com/ProductDetail/Panasonic/ECE-A0JKA101I?qs=WYPlz5ezODCWQbvWRFj8Mg%3D%3D</t>
+  </si>
+  <si>
+    <t>Surface mount replacement: https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18BD102SN1D?qs=h3IWXJJGQQWi4eZyJq6ScQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1475,10 +1475,10 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,18 +1494,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -1523,12 +1523,12 @@
         <v>137</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>45</v>
@@ -1563,10 +1563,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>157</v>
@@ -1587,13 +1587,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1611,10 +1611,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>124</v>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>176</v>
@@ -1677,13 +1677,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1701,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1725,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -1752,7 +1752,7 @@
         <v>159</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>144</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>144</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>153</v>
@@ -1865,7 +1865,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1907,7 +1907,7 @@
         <v>134</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>132</v>
@@ -1929,7 +1929,7 @@
         <v>49</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
         <v>145</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>146</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>146</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>160</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>146</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>146</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>146</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
         <v>146</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
         <v>146</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>146</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>147</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>153</v>
@@ -2266,7 +2266,7 @@
         <v>150</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
         <v>143</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>121</v>
@@ -2311,7 +2311,7 @@
         <v>148</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>142</v>
@@ -2336,7 +2336,7 @@
         <v>138</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
         <v>151</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>153</v>
@@ -2365,31 +2365,31 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C42">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C43" s="4">
         <v>6</v>
@@ -2401,13 +2401,13 @@
         <v>4</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2423,13 +2423,13 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>126</v>
@@ -2469,7 +2469,7 @@
         <v>194</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2488,29 +2488,29 @@
         <v>49</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>161</v>
@@ -2531,7 +2531,7 @@
         <v>164</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>163</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>162</v>
@@ -2576,7 +2576,7 @@
         <v>188</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2597,13 +2597,13 @@
         <v>146</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C53" s="4">
         <v>8</v>
@@ -2618,16 +2618,16 @@
         <v>146</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2642,13 +2642,13 @@
         <v>146</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" s="4">
         <v>4</v>
@@ -2663,7 +2663,7 @@
         <v>146</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2684,13 +2684,13 @@
         <v>146</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
@@ -2705,13 +2705,13 @@
         <v>146</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2726,7 +2726,7 @@
         <v>146</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2747,7 +2747,7 @@
         <v>146</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2759,17 +2759,17 @@
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H60" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>71</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2807,7 +2807,7 @@
         <v>170</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2828,15 +2828,15 @@
         <v>169</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>106</v>
@@ -2849,10 +2849,10 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>152</v>
@@ -2867,14 +2867,14 @@
         <v>3</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>152</v>
@@ -2915,7 +2915,7 @@
         <v>146</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2935,16 +2935,16 @@
         <v>4</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C69" s="4">
         <v>4</v>
@@ -2956,10 +2956,10 @@
         <v>4</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>114</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>176</v>
@@ -2989,7 +2989,7 @@
     <row r="71" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C71" s="4">
         <v>2</v>
@@ -3001,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>176</v>
@@ -3025,19 +3025,19 @@
         <v>1206</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>195</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -3049,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>158</v>
@@ -3073,7 +3073,7 @@
         <v>48</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3118,13 +3118,13 @@
         <v>187</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C77" s="4">
         <v>3</v>
@@ -3139,7 +3139,7 @@
         <v>188</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3160,13 +3160,13 @@
         <v>165</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
@@ -3181,13 +3181,13 @@
         <v>145</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C80" s="4">
         <v>6</v>
@@ -3205,13 +3205,13 @@
         <v>189</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="4">
         <v>5</v>
@@ -3226,13 +3226,13 @@
         <v>146</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C82" s="4">
         <v>2</v>
@@ -3247,7 +3247,7 @@
         <v>146</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3268,16 +3268,16 @@
         <v>146</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
@@ -3292,7 +3292,7 @@
         <v>146</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3313,7 +3313,7 @@
         <v>148</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>142</v>
@@ -3337,10 +3337,10 @@
         <v>200</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>81</v>
@@ -3361,10 +3361,10 @@
         <v>148</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3472,7 +3472,7 @@
         <v>196</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1" s="4">
         <v>3</v>
@@ -3487,7 +3487,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>174</v>
@@ -3499,7 +3499,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -3514,7 +3514,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="7" t="s">
@@ -3524,7 +3524,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -3539,7 +3539,7 @@
         <v>114</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>174</v>
@@ -3551,7 +3551,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>174</v>
@@ -3621,16 +3621,16 @@
         <v>179</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -3639,7 +3639,7 @@
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
@@ -3648,10 +3648,10 @@
         <v>179</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3680,7 +3680,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -3755,7 +3755,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -3780,7 +3780,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -3855,7 +3855,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -3895,13 +3895,13 @@
         <v>39</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3916,19 +3916,19 @@
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3952,7 +3952,7 @@
         <v>148</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>191</v>
@@ -3961,7 +3961,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="C20" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="14">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A42B979-2DD2-4A76-A23F-2E479A926690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCA8F80-D38F-43C0-807F-3673CD48E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52770" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
-    <sheet name="WIP" sheetId="3" r:id="rId2"/>
+    <sheet name="WIP" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="325">
   <si>
     <t>Qty</t>
   </si>
@@ -620,9 +620,6 @@
     <t>Flat Flexible Cable</t>
   </si>
   <si>
-    <t>Should be X5R (or better), at least 16V (maybe 10V is ok)</t>
-  </si>
-  <si>
     <t>PWR-02</t>
   </si>
   <si>
@@ -1005,6 +1002,12 @@
   </si>
   <si>
     <t>Surface mount replacement: https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18BD102SN1D?qs=h3IWXJJGQQWi4eZyJq6ScQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/?qs=Zy5V7Kj3rCVVMQaoWTlMmg%3D%3D</t>
+  </si>
+  <si>
+    <t>Alternate Source</t>
   </si>
 </sst>
 </file>
@@ -1472,13 +1475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A52F74-6B21-4A92-88AA-13BD0DE1F9EF}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,22 +1493,23 @@
     <col min="6" max="6" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="125.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="168.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -1523,12 +1527,15 @@
         <v>137</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>45</v>
@@ -1548,7 +1555,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" t="s">
         <v>2</v>
@@ -1563,16 +1570,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" t="s">
         <v>5</v>
@@ -1587,16 +1594,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" t="s">
         <v>7</v>
@@ -1611,13 +1618,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" t="s">
         <v>8</v>
@@ -1632,13 +1639,13 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" t="s">
         <v>11</v>
@@ -1653,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>176</v>
@@ -1662,7 +1669,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" t="s">
         <v>128</v>
@@ -1677,16 +1684,16 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" t="s">
         <v>94</v>
@@ -1701,16 +1708,16 @@
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" t="s">
         <v>13</v>
@@ -1725,13 +1732,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" t="s">
         <v>75</v>
@@ -1740,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -1752,10 +1759,10 @@
         <v>159</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>51</v>
@@ -1772,7 +1779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" t="s">
         <v>91</v>
@@ -1790,10 +1797,10 @@
         <v>144</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" t="s">
         <v>92</v>
@@ -1811,10 +1818,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" t="s">
         <v>16</v>
@@ -1823,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>153</v>
@@ -1865,7 +1872,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1886,7 +1893,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1907,7 +1914,7 @@
         <v>134</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>132</v>
@@ -1929,7 +1936,7 @@
         <v>49</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1991,7 +1998,7 @@
         <v>145</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2012,7 +2019,7 @@
         <v>146</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2033,7 +2040,7 @@
         <v>146</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2057,7 +2064,7 @@
         <v>160</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2078,7 +2085,7 @@
         <v>146</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,7 +2106,7 @@
         <v>146</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2120,7 +2127,7 @@
         <v>146</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2141,7 +2148,7 @@
         <v>146</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2162,7 +2169,7 @@
         <v>146</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2183,7 +2190,7 @@
         <v>146</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2249,7 @@
         <v>147</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>153</v>
@@ -2266,7 +2273,7 @@
         <v>150</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2287,7 +2294,7 @@
         <v>143</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>121</v>
@@ -2311,7 +2318,7 @@
         <v>148</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>142</v>
@@ -2336,7 +2343,7 @@
         <v>138</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2357,7 +2364,7 @@
         <v>151</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>153</v>
@@ -2365,31 +2372,31 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C42">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C43" s="4">
         <v>6</v>
@@ -2401,13 +2408,13 @@
         <v>4</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2423,13 +2430,13 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2447,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>126</v>
@@ -2469,7 +2476,7 @@
         <v>194</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2488,29 +2495,29 @@
         <v>49</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>161</v>
@@ -2531,7 +2538,7 @@
         <v>164</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2552,7 +2559,7 @@
         <v>163</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>162</v>
@@ -2576,7 +2583,7 @@
         <v>188</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2597,13 +2604,13 @@
         <v>146</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53" s="4">
         <v>8</v>
@@ -2618,16 +2625,16 @@
         <v>146</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2642,13 +2649,13 @@
         <v>146</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C55" s="4">
         <v>4</v>
@@ -2663,7 +2670,7 @@
         <v>146</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2684,13 +2691,13 @@
         <v>146</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
@@ -2705,13 +2712,13 @@
         <v>146</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2726,7 +2733,7 @@
         <v>146</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2747,7 +2754,7 @@
         <v>146</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2759,17 +2766,17 @@
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H60" s="21" t="s">
         <v>202</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2786,7 +2793,7 @@
         <v>71</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2807,7 +2814,7 @@
         <v>170</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2828,15 +2835,15 @@
         <v>169</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>106</v>
@@ -2849,41 +2856,41 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C65" s="4">
         <v>3</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -2891,16 +2898,16 @@
       <c r="D66" s="5"/>
       <c r="E66" s="8"/>
       <c r="F66" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="4">
         <v>2</v>
@@ -2915,10 +2922,10 @@
         <v>146</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>172</v>
       </c>
@@ -2935,16 +2942,16 @@
         <v>4</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="4">
         <v>4</v>
@@ -2956,13 +2963,13 @@
         <v>4</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="4" t="s">
         <v>175</v>
@@ -2977,7 +2984,7 @@
         <v>114</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>176</v>
@@ -2986,10 +2993,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C71" s="4">
         <v>2</v>
@@ -3001,7 +3008,7 @@
         <v>4</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>176</v>
@@ -3010,7 +3017,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="4" t="s">
         <v>107</v>
@@ -3025,19 +3032,22 @@
         <v>1206</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -3049,13 +3059,13 @@
         <v>4</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="4" t="s">
         <v>96</v>
@@ -3073,10 +3083,10 @@
         <v>48</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="4" t="s">
         <v>109</v>
@@ -3100,7 +3110,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="4" t="s">
         <v>56</v>
@@ -3118,13 +3128,13 @@
         <v>187</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C77" s="4">
         <v>3</v>
@@ -3139,10 +3149,10 @@
         <v>188</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="4" t="s">
         <v>111</v>
@@ -3160,13 +3170,13 @@
         <v>165</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
@@ -3181,13 +3191,13 @@
         <v>145</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C80" s="4">
         <v>6</v>
@@ -3205,13 +3215,13 @@
         <v>189</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C81" s="4">
         <v>5</v>
@@ -3226,13 +3236,13 @@
         <v>146</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C82" s="4">
         <v>2</v>
@@ -3247,7 +3257,7 @@
         <v>146</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3268,16 +3278,16 @@
         <v>146</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
@@ -3292,7 +3302,7 @@
         <v>146</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3313,7 +3323,7 @@
         <v>148</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>142</v>
@@ -3334,13 +3344,13 @@
         <v>193</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3352,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>81</v>
@@ -3361,10 +3371,10 @@
         <v>148</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3418,7 @@
     <hyperlink ref="H61" r:id="rId31" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
     <hyperlink ref="H71" r:id="rId32" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
     <hyperlink ref="H70" r:id="rId33" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
-    <hyperlink ref="H72" r:id="rId34" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
+    <hyperlink ref="I72" r:id="rId34" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
     <hyperlink ref="H75" r:id="rId35" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
     <hyperlink ref="H78" r:id="rId36" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
     <hyperlink ref="H76" r:id="rId37" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
@@ -3451,9 +3461,10 @@
     <hyperlink ref="H42" r:id="rId74" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
     <hyperlink ref="D1" r:id="rId75" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
     <hyperlink ref="H48" r:id="rId76" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
+    <hyperlink ref="H72" r:id="rId77" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId77"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId78"/>
 </worksheet>
 </file>
 
@@ -3469,10 +3480,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="4">
         <v>3</v>
@@ -3487,7 +3498,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>174</v>
@@ -3499,7 +3510,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -3514,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="7" t="s">
@@ -3524,7 +3535,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -3539,7 +3550,7 @@
         <v>114</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>174</v>
@@ -3551,7 +3562,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -3566,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>174</v>
@@ -3621,16 +3632,16 @@
         <v>179</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -3639,7 +3650,7 @@
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
@@ -3648,10 +3659,10 @@
         <v>179</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3680,7 +3691,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -3755,7 +3766,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -3780,7 +3791,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -3855,7 +3866,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -3895,13 +3906,13 @@
         <v>39</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3916,19 +3927,19 @@
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3952,7 +3963,7 @@
         <v>148</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>191</v>
@@ -3961,7 +3972,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="C20" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" s="14">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCA8F80-D38F-43C0-807F-3673CD48E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4B6577-7E90-4F73-984E-02171210FB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
@@ -968,9 +968,6 @@
     <t>TPS3702CX50</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=3454c930ba</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/595-TPS3702CX50DDCT</t>
   </si>
   <si>
@@ -1008,6 +1005,9 @@
   </si>
   <si>
     <t>Alternate Source</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=1c97ed2390</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1481,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1501,7 @@
         <v>280</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>294</v>
@@ -1530,7 +1530,7 @@
         <v>229</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1830,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>153</v>
@@ -2249,7 +2249,7 @@
         <v>147</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>153</v>
@@ -2364,7 +2364,7 @@
         <v>151</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>153</v>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="4" t="s">
@@ -2517,7 +2517,7 @@
         <v>309</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>4</v>
@@ -2603,8 +2603,8 @@
       <c r="F52" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>273</v>
+      <c r="H52" s="7" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2859,7 +2859,7 @@
         <v>222</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>152</v>
@@ -2874,14 +2874,14 @@
         <v>3</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>152</v>
@@ -3038,10 +3038,10 @@
         <v>176</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
         <v>236</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3457,11 +3457,11 @@
     <hyperlink ref="H85" r:id="rId70" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
     <hyperlink ref="H82" r:id="rId71" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
     <hyperlink ref="H68" r:id="rId72" xr:uid="{D3F162E3-5823-474F-BDCC-0F7DF0ABC32B}"/>
-    <hyperlink ref="H52" r:id="rId73" xr:uid="{421996CF-34F5-49E1-9313-D98C0ECAD9A3}"/>
-    <hyperlink ref="H42" r:id="rId74" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
-    <hyperlink ref="D1" r:id="rId75" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
-    <hyperlink ref="H48" r:id="rId76" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
-    <hyperlink ref="H72" r:id="rId77" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
+    <hyperlink ref="H42" r:id="rId73" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
+    <hyperlink ref="D1" r:id="rId74" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
+    <hyperlink ref="H48" r:id="rId75" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
+    <hyperlink ref="H72" r:id="rId76" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
+    <hyperlink ref="H52" r:id="rId77" xr:uid="{22AE8E27-557B-4D5A-B749-D6415EF0488E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId78"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4B6577-7E90-4F73-984E-02171210FB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73267893-82AE-43BE-A11E-E1CE52748D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
@@ -24,8 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="325">
   <si>
     <t>Qty</t>
   </si>
@@ -431,9 +435,6 @@
     <t>https://retrogamerepairshop.com/collections/dmg-power/products/game-boy-dmg-original-high-quality-replacement-battery-contact-terminals?variant=37893135794348</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Taiyo-Yuden/BK32164W601-T?qs=I6KAKw0tg2yLD7JT86KwVg%3D%3D</t>
-  </si>
-  <si>
     <t>Value/Part Number</t>
   </si>
   <si>
@@ -503,9 +504,6 @@
     <t>BLM18BD102SN1D</t>
   </si>
   <si>
-    <t>BK32164W601-T</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/YAGEO/CC0603FRNPO9BN180?qs=vTakOoo5QyL0KzYUzHPSUw%3D%3D</t>
   </si>
   <si>
@@ -743,9 +741,6 @@
     <t>C2, C8, C9, C11</t>
   </si>
   <si>
-    <t>Optional</t>
-  </si>
-  <si>
     <t>TPS3840DLXX can be used instead (XX = 35 to 22)</t>
   </si>
   <si>
@@ -836,9 +831,6 @@
     <t>https://www.mouser.com/ProductDetail/Panasonic/ERB-RG2R50V?qs=Z3CaLxJiOJK8SjHyp%252BdV%2FQ%3D%3D</t>
   </si>
   <si>
-    <t>Alternate: BLA31AG601SN4D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/GCT/FFC2B17-50-T?qs=TuK3vfAjtkWT79JbRBZamg%3D%3D</t>
   </si>
   <si>
@@ -899,9 +891,6 @@
     <t>https://www.mouser.com/ProductDetail/SparkFun/COM-08184?qs=WyAARYrbSnYOIhcg6ARCiQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Microchip-Technology-Atmel/ATTINY85-20SF?qs=TZi4OKKi7fW1ThDnq1lPVA%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Texas-Instruments/LMV358IDR?qs=EIjG%252BN7kn%252BmCHnTyCQRw3Q%3D%3D</t>
   </si>
   <si>
@@ -917,9 +906,6 @@
     <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-0720KL?qs=VU8sRB4EgwCsxfrjtEIKPQ%3D%3D</t>
   </si>
   <si>
-    <t>Note: verify all parts are available and in correct quantities.</t>
-  </si>
-  <si>
     <t>Could feasibly use TPS3840DL32 if 35 is out of stock</t>
   </si>
   <si>
@@ -941,21 +927,9 @@
     <t>https://www.mouser.com/ProductDetail/KEMET/ESK107M010AC3AA?qs=9RUIYXQlAdBiO30krUyznA%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/688-SKRRAA</t>
-  </si>
-  <si>
-    <t>Optional, can be omitted if you don't want clicky SP-style buttons</t>
-  </si>
-  <si>
     <t>Tactile switch</t>
   </si>
   <si>
-    <t>SKRRAAE010</t>
-  </si>
-  <si>
-    <t>B1-B6</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
@@ -968,18 +942,9 @@
     <t>TPS3702CX50</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/595-TPS3702CX50DDCT</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/81-GRM31CR61C476ME4L</t>
   </si>
   <si>
-    <t>TSM-106-01-T-SH</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/200-TSM10601TSH</t>
-  </si>
-  <si>
     <t>3.3uH</t>
   </si>
   <si>
@@ -1008,6 +973,45 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=1c97ed2390</t>
+  </si>
+  <si>
+    <t>BLA31AG601SN4D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/BLA31AG601SN4D?qs=2ahBf5rJw09FDcUVkQibEg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/556-ATTINY85V10SU</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/595-TPS3702CX50DDCR</t>
+  </si>
+  <si>
+    <t>Optional IF you fully test the power board and confirm proper 5V operation</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/688-SKRRAB</t>
+  </si>
+  <si>
+    <t>Optional, can be omitted if you don't want clicky SP-style buttons (SKRRAA is less clicky, SKRRAC is more clicky)</t>
+  </si>
+  <si>
+    <t>SKRRABE010</t>
+  </si>
+  <si>
+    <t>TSM-107-01-T-SH</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/200-TSM10701TSH</t>
+  </si>
+  <si>
+    <t>R1, R14</t>
+  </si>
+  <si>
+    <t>Note: verify all parts are available and in correct quantities when ordering. Consider buying multiples of certain parts as spares. If out of stock, check for alternate part numbers or stock at Digikey.</t>
+  </si>
+  <si>
+    <t>B1-B8</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1107,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1112,31 +1116,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1145,9 +1139,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1481,7 +1472,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,73 +1481,71 @@
     <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="125.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="125.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="168.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="19"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1569,18 +1558,18 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>249</v>
+      <c r="F4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" t="s">
+        <v>246</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1593,18 +1582,18 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>249</v>
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" t="s">
+        <v>246</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -1617,15 +1606,15 @@
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>221</v>
+      <c r="F6" t="s">
+        <v>219</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -1638,15 +1627,15 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>221</v>
+      <c r="F7" t="s">
+        <v>219</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -1659,18 +1648,18 @@
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>158</v>
+      <c r="F8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>128</v>
       </c>
@@ -1683,18 +1672,18 @@
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>258</v>
+      <c r="F9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>94</v>
       </c>
@@ -1707,18 +1696,18 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>259</v>
+      <c r="F10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -1731,15 +1720,15 @@
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>260</v>
+      <c r="F11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>75</v>
       </c>
@@ -1747,40 +1736,38 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>159</v>
+      <c r="G12" t="s">
+        <v>157</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>152</v>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -1788,20 +1775,20 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>144</v>
+      <c r="F14" t="s">
+        <v>143</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>92</v>
       </c>
@@ -1809,74 +1796,74 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>144</v>
+      <c r="F15" t="s">
+        <v>143</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>153</v>
+      <c r="F16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
         <v>52</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="4" t="s">
+      <c r="H17" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="2">
         <v>1206</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>266</v>
+      <c r="H18" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>95</v>
       </c>
@@ -1889,120 +1876,114 @@
       <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1206</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1206</v>
+      </c>
+      <c r="F23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1206</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1206</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="19"/>
       <c r="B25" t="s">
         <v>93</v>
       </c>
@@ -2015,15 +1996,15 @@
       <c r="E25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>146</v>
+      <c r="F25" t="s">
+        <v>145</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="19"/>
       <c r="B26" t="s">
         <v>130</v>
       </c>
@@ -2036,15 +2017,15 @@
       <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>146</v>
+      <c r="F26" t="s">
+        <v>145</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="19"/>
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -2057,18 +2038,18 @@
       <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>160</v>
+      <c r="F27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" t="s">
+        <v>158</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+      <c r="A28" s="19"/>
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -2081,36 +2062,36 @@
       <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>146</v>
+      <c r="F28" t="s">
+        <v>145</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>100</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>274</v>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="19"/>
       <c r="B30" t="s">
         <v>97</v>
       </c>
@@ -2123,36 +2104,36 @@
       <c r="E30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>146</v>
+      <c r="F30" t="s">
+        <v>145</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>277</v>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="19"/>
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -2165,15 +2146,15 @@
       <c r="E32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>146</v>
+      <c r="F32" t="s">
+        <v>145</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="19"/>
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -2186,32 +2167,30 @@
       <c r="E33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>146</v>
+      <c r="F33" t="s">
+        <v>145</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="19" t="s">
-        <v>152</v>
+      <c r="H34" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+      <c r="A35" s="19"/>
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -2224,15 +2203,15 @@
       <c r="E35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="20" t="s">
-        <v>153</v>
+      <c r="H35" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
+      <c r="A36" s="19"/>
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -2245,109 +2224,108 @@
       <c r="E36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
+        <v>304</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="G39" t="s">
+        <v>290</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="4" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="4" t="s">
+      <c r="F40" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>230</v>
+      <c r="G40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="A41" s="19"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
@@ -2360,108 +2338,108 @@
       <c r="E41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="F41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" t="s">
+        <v>306</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H41" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="B42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C42">
+      <c r="F42" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" t="s">
+        <v>318</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C43" s="4">
-        <v>6</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="4" t="s">
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" t="s">
+        <v>174</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="4" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>219</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
       <c r="B46" t="s">
         <v>89</v>
       </c>
@@ -2471,128 +2449,125 @@
       <c r="D46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="4" t="s">
-        <v>194</v>
+      <c r="F46" t="s">
+        <v>192</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="4" t="s">
+      <c r="D47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="4" t="s">
+      <c r="H47" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" t="s">
+        <v>298</v>
+      </c>
+      <c r="G48" t="s">
+        <v>299</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" t="s">
+        <v>162</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F50" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="4">
-        <v>8</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="4" t="s">
+      <c r="G50" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1</v>
+      <c r="F51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>69</v>
@@ -2600,41 +2575,41 @@
       <c r="E52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="F52" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53">
         <v>8</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" t="s">
+        <v>244</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2645,411 +2620,408 @@
       <c r="E54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>146</v>
+      <c r="F54" t="s">
+        <v>145</v>
       </c>
       <c r="H54" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C55" s="4">
-        <v>4</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
-        <v>100</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>510</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>145</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" t="s">
+        <v>199</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>168</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" t="s">
+        <v>167</v>
+      </c>
+      <c r="G63" t="s">
+        <v>245</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64">
         <v>2</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="4">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5">
-        <v>510</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="4" t="s">
+      <c r="D64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G64" t="s">
+        <v>307</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" t="s">
+        <v>308</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s">
+        <v>198</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E63" s="8" t="s">
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>219</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>219</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" t="s">
+        <v>219</v>
+      </c>
+      <c r="G70" t="s">
+        <v>174</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" t="s">
+        <v>292</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>219</v>
+      </c>
+      <c r="G71" t="s">
+        <v>174</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="4">
-        <v>2</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="4">
-        <v>3</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="4">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="4">
-        <v>2</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C69" s="4">
-        <v>4</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" s="4">
-        <v>2</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C71" s="4">
-        <v>2</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="4" t="s">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="B72" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="4">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="2">
         <v>1206</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C73" s="4">
+      <c r="F72" t="s">
+        <v>219</v>
+      </c>
+      <c r="G72" t="s">
+        <v>174</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -3058,323 +3030,323 @@
       <c r="E73" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="4" t="s">
+      <c r="F73" t="s">
+        <v>219</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="4">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="4" t="s">
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
         <v>48</v>
       </c>
       <c r="H74" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1212</v>
+      </c>
+      <c r="F75" t="s">
+        <v>177</v>
+      </c>
+      <c r="G75" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" t="s">
+        <v>185</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s">
+        <v>163</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" t="s">
+        <v>144</v>
+      </c>
+      <c r="H79" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="4">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E75" s="5">
-        <v>1212</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="4">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" s="4" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="B80" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>145</v>
+      </c>
+      <c r="G80" t="s">
         <v>187</v>
       </c>
-      <c r="H76" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="4" t="s">
+      <c r="H80" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
+      <c r="B81" t="s">
         <v>252</v>
       </c>
-      <c r="C77" s="4">
-        <v>3</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" s="4">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H78" s="7" t="s">
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>145</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+      <c r="B82" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C79" s="4">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="4" t="s">
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
         <v>145</v>
       </c>
-      <c r="H79" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C80" s="4">
-        <v>6</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C81" s="4">
-        <v>5</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C82" s="4">
-        <v>2</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="H82" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
+      <c r="B83" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="4">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="E83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>145</v>
+      </c>
+      <c r="G83" t="s">
+        <v>226</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="B84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H84" s="7" t="s">
+      <c r="E84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>145</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" t="s">
+        <v>147</v>
+      </c>
+      <c r="G85" t="s">
+        <v>289</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="19"/>
+      <c r="B86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G86" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C85" s="4">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="4">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="19"/>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="4">
-        <v>1</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>311</v>
+      <c r="F87" t="s">
+        <v>147</v>
+      </c>
+      <c r="G87" t="s">
+        <v>316</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3459,9 +3431,9 @@
     <hyperlink ref="H68" r:id="rId72" xr:uid="{D3F162E3-5823-474F-BDCC-0F7DF0ABC32B}"/>
     <hyperlink ref="H42" r:id="rId73" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
     <hyperlink ref="D1" r:id="rId74" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
-    <hyperlink ref="H48" r:id="rId75" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
-    <hyperlink ref="H72" r:id="rId76" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
-    <hyperlink ref="H52" r:id="rId77" xr:uid="{22AE8E27-557B-4D5A-B749-D6415EF0488E}"/>
+    <hyperlink ref="H72" r:id="rId75" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
+    <hyperlink ref="H52" r:id="rId76" xr:uid="{22AE8E27-557B-4D5A-B749-D6415EF0488E}"/>
+    <hyperlink ref="H48" r:id="rId77" display="https://www.mouser.com/ProductDetail/200-TSM10601TSH" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId78"/>
@@ -3479,16 +3451,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="4">
+      <c r="A1" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1">
         <v>3</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="8">
         <v>0.3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3497,25 +3469,25 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>173</v>
+      <c r="G1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="A2" s="19"/>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0.1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3524,23 +3496,22 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
-        <v>178</v>
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="19"/>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>0.39</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3549,25 +3520,25 @@
       <c r="F3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>177</v>
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" s="19"/>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
         <v>0.1</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3576,50 +3547,49 @@
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>174</v>
+      <c r="G4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" t="s">
+        <v>172</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <v>0.28000000000000003</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.46</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3628,150 +3598,146 @@
       <c r="F6" s="1">
         <v>1212</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>225</v>
+      <c r="G6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="A7" s="19"/>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>223</v>
+      <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
+        <v>221</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
         <v>0.22</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="4"/>
+      <c r="G8" t="s">
+        <v>162</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="A9" s="19"/>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="A12" s="19"/>
+      <c r="B12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>0.1</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3780,23 +3746,22 @@
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7" t="s">
+      <c r="G12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="A13" s="19"/>
+      <c r="B13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>0.1</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3805,23 +3770,22 @@
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="7" t="s">
+      <c r="G13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
         <v>0.1</v>
       </c>
       <c r="E14" s="1">
@@ -3830,23 +3794,22 @@
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7" t="s">
-        <v>140</v>
+      <c r="G14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
         <v>0.1</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3855,23 +3818,22 @@
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="4"/>
+      <c r="G15" t="s">
+        <v>145</v>
+      </c>
       <c r="I15" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="A16" s="19"/>
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
         <v>0.1</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3880,23 +3842,22 @@
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="7" t="s">
+      <c r="G16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
         <v>2.61</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3905,83 +3866,81 @@
       <c r="F17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2.94</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="G18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11">
-        <v>2.94</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
         <v>1.21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>191</v>
+      <c r="G19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="C20" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="A20" s="19"/>
+      <c r="C20" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="11">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>
         <v>12.02</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73267893-82AE-43BE-A11E-E1CE52748D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA8A383-99BC-4282-B177-57A81F418D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
@@ -972,9 +972,6 @@
     <t>Alternate Source</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=1c97ed2390</t>
-  </si>
-  <si>
     <t>BLA31AG601SN4D</t>
   </si>
   <si>
@@ -1012,6 +1009,9 @@
   </si>
   <si>
     <t>B1-B8</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=2ea9de10fd</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1472,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,10 +1492,10 @@
         <v>276</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E20" s="1">
         <v>1206</v>
@@ -1901,7 +1901,7 @@
         <v>133</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2353,22 +2353,22 @@
         <v>231</v>
       </c>
       <c r="B42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F42" t="s">
         <v>296</v>
       </c>
       <c r="G42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F48" t="s">
         <v>298</v>
@@ -2492,7 +2492,7 @@
         <v>299</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2564,7 +2564,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2811,7 +2811,7 @@
         <v>245</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3343,10 +3343,10 @@
         <v>147</v>
       </c>
       <c r="G87" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA8A383-99BC-4282-B177-57A81F418D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E6B8C-45D3-4730-88B4-EC3C15669B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="326">
   <si>
     <t>Qty</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Ferrite Bead</t>
   </si>
   <si>
-    <t>FFC2B17-50-T</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/3256802533298738.html?spm=a2g0o.order_list.0.0.5ee21802yek6HF</t>
   </si>
   <si>
@@ -831,9 +828,6 @@
     <t>https://www.mouser.com/ProductDetail/Panasonic/ERB-RG2R50V?qs=Z3CaLxJiOJK8SjHyp%252BdV%2FQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/GCT/FFC2B17-50-T?qs=TuK3vfAjtkWT79JbRBZamg%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Vishay-Semiconductors/SI1443EDH-T1-GE3?qs=vlV4ps1%252BrQifVq6ycRxedw%3D%3D</t>
   </si>
   <si>
@@ -951,18 +945,12 @@
     <t>Common mode filter</t>
   </si>
   <si>
-    <t>Potential replacement: https://mou.sr/3f8G0Mi</t>
-  </si>
-  <si>
     <t>Replacement: https://mou.sr/3FiMvXw</t>
   </si>
   <si>
     <t>Potential replacement (not very space-friendly): https://mou.sr/3D5AUbH</t>
   </si>
   <si>
-    <t>Replacement: https://www.mouser.com/ProductDetail/Panasonic/ECE-A0JKA101I?qs=WYPlz5ezODCWQbvWRFj8Mg%3D%3D</t>
-  </si>
-  <si>
     <t>Surface mount replacement: https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18BD102SN1D?qs=h3IWXJJGQQWi4eZyJq6ScQ%3D%3D</t>
   </si>
   <si>
@@ -1011,7 +999,22 @@
     <t>B1-B8</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=2ea9de10fd</t>
+    <t>https://www.mouser.com/ProductDetail/?qs=HL%252BYNjdyZ0vzwc9E0QYY2g%3D%3D</t>
+  </si>
+  <si>
+    <t>Alternate: FFC2B17-50-T</t>
+  </si>
+  <si>
+    <t>62684-502100AHLF</t>
+  </si>
+  <si>
+    <t>Replacement: https://mou.sr/3f8G0Mi</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Panasonic/ECE-A0JKA101I?qs=WYPlz5ezODCWQbvWRFj8Mg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=51360db3da</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1475,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,18 +1492,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>0</v>
@@ -1515,18 +1518,18 @@
         <v>46</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>45</v>
@@ -1538,7 +1541,7 @@
         <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>131</v>
@@ -1559,13 +1562,13 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1583,13 +1586,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1607,10 +1610,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1628,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>124</v>
@@ -1649,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1673,13 +1676,13 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1697,13 +1700,13 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,10 +1724,10 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1736,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -1745,10 +1748,10 @@
         <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1760,10 +1763,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1775,16 +1778,16 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1796,16 +1799,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1817,13 +1820,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1838,7 +1841,7 @@
         <v>53</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1859,7 +1862,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1880,7 +1883,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1892,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E20" s="1">
         <v>1206</v>
@@ -1901,7 +1904,7 @@
         <v>133</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1913,13 +1916,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
       </c>
+      <c r="G21" t="s">
+        <v>321</v>
+      </c>
       <c r="H21" s="5" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1934,10 +1940,10 @@
         <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1955,7 +1961,7 @@
         <v>1206</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>119</v>
@@ -1976,10 +1982,10 @@
         <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1997,10 +2003,10 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2039,13 +2045,13 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2063,10 +2069,10 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2084,10 +2090,10 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2105,10 +2111,10 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2126,10 +2132,10 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2147,10 +2153,10 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2168,10 +2174,10 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2186,7 +2192,7 @@
         <v>59</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2207,7 +2213,7 @@
         <v>60</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2225,13 +2231,13 @@
         <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G36" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2249,10 +2255,10 @@
         <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2270,10 +2276,10 @@
         <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>121</v>
@@ -2288,19 +2294,19 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,10 +2324,10 @@
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2339,42 +2345,42 @@
         <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G41" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B42" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G42" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -2386,13 +2392,13 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2408,13 +2414,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2432,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>126</v>
@@ -2450,10 +2456,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2465,34 +2471,37 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="F47" t="s">
         <v>49</v>
       </c>
+      <c r="G47" t="s">
+        <v>321</v>
+      </c>
       <c r="H47" s="5" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" t="s">
+        <v>296</v>
+      </c>
+      <c r="G48" t="s">
         <v>297</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F48" t="s">
-        <v>298</v>
-      </c>
-      <c r="G48" t="s">
-        <v>299</v>
-      </c>
       <c r="H48" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2504,22 +2513,22 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -2531,13 +2540,13 @@
         <v>2020</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2555,16 +2564,16 @@
         <v>77</v>
       </c>
       <c r="F51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2576,16 +2585,16 @@
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -2597,19 +2606,19 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2621,16 +2630,16 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -2642,10 +2651,10 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2663,16 +2672,16 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -2684,16 +2693,16 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2705,10 +2714,10 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2720,16 +2729,16 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2741,17 +2750,17 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s">
         <v>117</v>
       </c>
       <c r="G60" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2766,7 +2775,7 @@
         <v>71</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2784,10 +2793,10 @@
         <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2799,24 +2808,24 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F63" t="s">
         <v>166</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F63" t="s">
-        <v>167</v>
-      </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B64" t="s">
         <v>106</v>
@@ -2829,57 +2838,57 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G64" t="s">
-        <v>307</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G65" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -2891,15 +2900,15 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2914,16 +2923,16 @@
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -2935,16 +2944,16 @@
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2956,19 +2965,19 @@
         <v>114</v>
       </c>
       <c r="F70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G70" t="s">
+        <v>173</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -2980,13 +2989,13 @@
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3004,22 +3013,22 @@
         <v>1206</v>
       </c>
       <c r="F72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3031,10 +3040,10 @@
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3055,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3073,10 +3082,10 @@
         <v>1212</v>
       </c>
       <c r="F75" t="s">
+        <v>176</v>
+      </c>
+      <c r="G75" t="s">
         <v>177</v>
-      </c>
-      <c r="G75" t="s">
-        <v>178</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>123</v>
@@ -3091,22 +3100,22 @@
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -3118,10 +3127,10 @@
         <v>77</v>
       </c>
       <c r="F77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3133,22 +3142,22 @@
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3160,16 +3169,16 @@
         <v>57</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -3181,19 +3190,19 @@
         <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -3205,16 +3214,16 @@
         <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -3226,10 +3235,10 @@
         <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3247,19 +3256,19 @@
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3271,10 +3280,10 @@
         <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3286,19 +3295,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G85" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3310,19 +3319,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G86" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3334,19 +3343,19 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G87" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3361,79 +3370,79 @@
     <hyperlink ref="H23" r:id="rId2" xr:uid="{09714B1A-E775-419E-8202-A09F642D6DD4}"/>
     <hyperlink ref="H18" r:id="rId3" xr:uid="{2D09FB30-3329-4175-993E-59AE1C8AF6B1}"/>
     <hyperlink ref="H20" r:id="rId4" xr:uid="{EAD0EB91-0E07-454F-A47E-D46C454C2792}"/>
-    <hyperlink ref="H21" r:id="rId5" xr:uid="{94280B35-2F12-4EC8-BECD-826B848EB548}"/>
-    <hyperlink ref="H28" r:id="rId6" xr:uid="{890600A0-CDA6-4169-914B-6E09158E9D08}"/>
-    <hyperlink ref="H29" r:id="rId7" xr:uid="{521BAB14-AAAB-4E99-B6B1-DC297ACB35D3}"/>
-    <hyperlink ref="H26" r:id="rId8" xr:uid="{E2BED9B7-E7F4-4BB7-9480-D361CBDECBC2}"/>
-    <hyperlink ref="H37" r:id="rId9" xr:uid="{15B8EEF4-68C4-4DD0-A0F9-D3CC2AD34F6B}"/>
-    <hyperlink ref="H39" r:id="rId10" xr:uid="{6CDB6EA4-1EF0-49AD-BA6D-DBDCE9DA23E7}"/>
-    <hyperlink ref="H38" r:id="rId11" xr:uid="{8E30D815-E8BC-4979-A808-89140DBFB640}"/>
-    <hyperlink ref="H40" r:id="rId12" xr:uid="{23AA2283-4006-4B92-8C2D-03FD5BBC4105}"/>
-    <hyperlink ref="H24" r:id="rId13" xr:uid="{ED7A08E1-4692-4C4D-9066-747FB141BD4A}"/>
-    <hyperlink ref="H14" r:id="rId14" xr:uid="{A69B9089-2ADA-4A9F-889A-92F3E5EBAA57}"/>
-    <hyperlink ref="H15" r:id="rId15" xr:uid="{6E01A22F-6C41-4771-BE7F-F82B7AB657A8}"/>
-    <hyperlink ref="H4" r:id="rId16" xr:uid="{DC9D2B33-4B39-4535-8300-2803394C7237}"/>
-    <hyperlink ref="H5" r:id="rId17" xr:uid="{1F1957AF-BD0E-46CD-BDA5-98084257928F}"/>
-    <hyperlink ref="H8" r:id="rId18" xr:uid="{A04755A4-C49E-4922-977B-FFD3400D614C}"/>
-    <hyperlink ref="H9" r:id="rId19" xr:uid="{382BCF6C-1828-4906-A696-55D83A50179A}"/>
-    <hyperlink ref="H10" r:id="rId20" xr:uid="{0B379DF2-17D2-43B1-AC70-14210742FE02}"/>
-    <hyperlink ref="H12" r:id="rId21" xr:uid="{1C490D85-3751-4CD0-8F1A-EB5D3F5DEDB8}"/>
-    <hyperlink ref="H25" r:id="rId22" xr:uid="{788713CC-6D26-4858-914E-2A666D70E766}"/>
-    <hyperlink ref="H30" r:id="rId23" xr:uid="{A53E990E-9129-4EB1-A34B-0C78C0D9E34D}"/>
-    <hyperlink ref="H27" r:id="rId24" xr:uid="{76C67D05-F2EA-44A2-BD81-EF2014CF57EC}"/>
-    <hyperlink ref="H44" r:id="rId25" xr:uid="{F90AB032-219C-4117-8CC7-BC9E853E4698}"/>
-    <hyperlink ref="H45" r:id="rId26" xr:uid="{49CC98DC-1B54-431E-9034-D174BB2AC2CC}"/>
-    <hyperlink ref="H49" r:id="rId27" xr:uid="{9C9AC3AA-79BD-46AD-815A-2DBF971DA7BE}"/>
-    <hyperlink ref="H55" r:id="rId28" xr:uid="{01EEB93E-EB32-49F6-8E28-29BD44012437}"/>
-    <hyperlink ref="H59" r:id="rId29" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
-    <hyperlink ref="H62" r:id="rId30" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
-    <hyperlink ref="H61" r:id="rId31" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
-    <hyperlink ref="H71" r:id="rId32" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
-    <hyperlink ref="H70" r:id="rId33" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
-    <hyperlink ref="I72" r:id="rId34" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
-    <hyperlink ref="H75" r:id="rId35" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
-    <hyperlink ref="H78" r:id="rId36" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
-    <hyperlink ref="H76" r:id="rId37" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
-    <hyperlink ref="H83" r:id="rId38" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
-    <hyperlink ref="H46" r:id="rId39" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
-    <hyperlink ref="H3" r:id="rId40" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
-    <hyperlink ref="H6" r:id="rId41" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
-    <hyperlink ref="H11" r:id="rId42" xr:uid="{38676E5E-4ABA-45F9-95EC-56E10A2FCB56}"/>
-    <hyperlink ref="H22" r:id="rId43" xr:uid="{4650E4B6-75A4-4E6C-8A59-99E45F1EFF0A}"/>
-    <hyperlink ref="H33" r:id="rId44" xr:uid="{40DBDCDE-0507-4D06-908C-E1B13368B813}"/>
-    <hyperlink ref="H63" r:id="rId45" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
-    <hyperlink ref="H86" r:id="rId46" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
-    <hyperlink ref="H60" r:id="rId47" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
-    <hyperlink ref="H7" r:id="rId48" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
-    <hyperlink ref="H50" r:id="rId49" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
-    <hyperlink ref="H87" r:id="rId50" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
-    <hyperlink ref="H53" r:id="rId51" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
-    <hyperlink ref="H51" r:id="rId52" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
-    <hyperlink ref="H73" r:id="rId53" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
-    <hyperlink ref="H31" r:id="rId54" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
-    <hyperlink ref="H32" r:id="rId55" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
-    <hyperlink ref="H43" r:id="rId56" xr:uid="{A2162AF1-9723-488A-B2CF-D6E08028D21E}"/>
-    <hyperlink ref="H69" r:id="rId57" xr:uid="{6F8B0939-1DE5-40F6-9BE0-AAB00E1EF6C5}"/>
-    <hyperlink ref="H47" r:id="rId58" xr:uid="{F07EBFB2-F721-415C-85E4-7800176BBA66}"/>
-    <hyperlink ref="H54" r:id="rId59" xr:uid="{152155CD-1666-49D7-95A6-AB137F0EB175}"/>
-    <hyperlink ref="H56" r:id="rId60" xr:uid="{11F1D8C7-9EC4-4A7B-9757-AA7A447A6C67}"/>
-    <hyperlink ref="H57" r:id="rId61" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
-    <hyperlink ref="H58" r:id="rId62" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
-    <hyperlink ref="H67" r:id="rId63" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
-    <hyperlink ref="H74" r:id="rId64" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
-    <hyperlink ref="H77" r:id="rId65" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
-    <hyperlink ref="H79" r:id="rId66" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
-    <hyperlink ref="H80" r:id="rId67" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
-    <hyperlink ref="H81" r:id="rId68" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
-    <hyperlink ref="H84" r:id="rId69" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
-    <hyperlink ref="H85" r:id="rId70" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
-    <hyperlink ref="H82" r:id="rId71" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
-    <hyperlink ref="H68" r:id="rId72" xr:uid="{D3F162E3-5823-474F-BDCC-0F7DF0ABC32B}"/>
-    <hyperlink ref="H42" r:id="rId73" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
-    <hyperlink ref="D1" r:id="rId74" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
-    <hyperlink ref="H72" r:id="rId75" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
-    <hyperlink ref="H52" r:id="rId76" xr:uid="{22AE8E27-557B-4D5A-B749-D6415EF0488E}"/>
-    <hyperlink ref="H48" r:id="rId77" display="https://www.mouser.com/ProductDetail/200-TSM10601TSH" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
+    <hyperlink ref="H28" r:id="rId5" xr:uid="{890600A0-CDA6-4169-914B-6E09158E9D08}"/>
+    <hyperlink ref="H29" r:id="rId6" xr:uid="{521BAB14-AAAB-4E99-B6B1-DC297ACB35D3}"/>
+    <hyperlink ref="H26" r:id="rId7" xr:uid="{E2BED9B7-E7F4-4BB7-9480-D361CBDECBC2}"/>
+    <hyperlink ref="H37" r:id="rId8" xr:uid="{15B8EEF4-68C4-4DD0-A0F9-D3CC2AD34F6B}"/>
+    <hyperlink ref="H39" r:id="rId9" xr:uid="{6CDB6EA4-1EF0-49AD-BA6D-DBDCE9DA23E7}"/>
+    <hyperlink ref="H38" r:id="rId10" xr:uid="{8E30D815-E8BC-4979-A808-89140DBFB640}"/>
+    <hyperlink ref="H40" r:id="rId11" xr:uid="{23AA2283-4006-4B92-8C2D-03FD5BBC4105}"/>
+    <hyperlink ref="H24" r:id="rId12" xr:uid="{ED7A08E1-4692-4C4D-9066-747FB141BD4A}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{A69B9089-2ADA-4A9F-889A-92F3E5EBAA57}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{6E01A22F-6C41-4771-BE7F-F82B7AB657A8}"/>
+    <hyperlink ref="H4" r:id="rId15" xr:uid="{DC9D2B33-4B39-4535-8300-2803394C7237}"/>
+    <hyperlink ref="H5" r:id="rId16" xr:uid="{1F1957AF-BD0E-46CD-BDA5-98084257928F}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{A04755A4-C49E-4922-977B-FFD3400D614C}"/>
+    <hyperlink ref="H9" r:id="rId18" xr:uid="{382BCF6C-1828-4906-A696-55D83A50179A}"/>
+    <hyperlink ref="H10" r:id="rId19" xr:uid="{0B379DF2-17D2-43B1-AC70-14210742FE02}"/>
+    <hyperlink ref="H12" r:id="rId20" xr:uid="{1C490D85-3751-4CD0-8F1A-EB5D3F5DEDB8}"/>
+    <hyperlink ref="H25" r:id="rId21" xr:uid="{788713CC-6D26-4858-914E-2A666D70E766}"/>
+    <hyperlink ref="H30" r:id="rId22" xr:uid="{A53E990E-9129-4EB1-A34B-0C78C0D9E34D}"/>
+    <hyperlink ref="H27" r:id="rId23" xr:uid="{76C67D05-F2EA-44A2-BD81-EF2014CF57EC}"/>
+    <hyperlink ref="H44" r:id="rId24" xr:uid="{F90AB032-219C-4117-8CC7-BC9E853E4698}"/>
+    <hyperlink ref="H45" r:id="rId25" xr:uid="{49CC98DC-1B54-431E-9034-D174BB2AC2CC}"/>
+    <hyperlink ref="H49" r:id="rId26" xr:uid="{9C9AC3AA-79BD-46AD-815A-2DBF971DA7BE}"/>
+    <hyperlink ref="H55" r:id="rId27" xr:uid="{01EEB93E-EB32-49F6-8E28-29BD44012437}"/>
+    <hyperlink ref="H59" r:id="rId28" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
+    <hyperlink ref="H62" r:id="rId29" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
+    <hyperlink ref="H61" r:id="rId30" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
+    <hyperlink ref="H71" r:id="rId31" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
+    <hyperlink ref="H70" r:id="rId32" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
+    <hyperlink ref="I72" r:id="rId33" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
+    <hyperlink ref="H75" r:id="rId34" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
+    <hyperlink ref="H78" r:id="rId35" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
+    <hyperlink ref="H76" r:id="rId36" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
+    <hyperlink ref="H83" r:id="rId37" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
+    <hyperlink ref="H46" r:id="rId38" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
+    <hyperlink ref="H3" r:id="rId39" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
+    <hyperlink ref="H6" r:id="rId40" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
+    <hyperlink ref="H11" r:id="rId41" xr:uid="{38676E5E-4ABA-45F9-95EC-56E10A2FCB56}"/>
+    <hyperlink ref="H22" r:id="rId42" xr:uid="{4650E4B6-75A4-4E6C-8A59-99E45F1EFF0A}"/>
+    <hyperlink ref="H33" r:id="rId43" xr:uid="{40DBDCDE-0507-4D06-908C-E1B13368B813}"/>
+    <hyperlink ref="H63" r:id="rId44" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
+    <hyperlink ref="H86" r:id="rId45" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
+    <hyperlink ref="H60" r:id="rId46" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
+    <hyperlink ref="H7" r:id="rId47" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
+    <hyperlink ref="H50" r:id="rId48" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
+    <hyperlink ref="H87" r:id="rId49" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
+    <hyperlink ref="H53" r:id="rId50" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
+    <hyperlink ref="H51" r:id="rId51" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
+    <hyperlink ref="H73" r:id="rId52" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
+    <hyperlink ref="H31" r:id="rId53" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
+    <hyperlink ref="H32" r:id="rId54" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
+    <hyperlink ref="H43" r:id="rId55" xr:uid="{A2162AF1-9723-488A-B2CF-D6E08028D21E}"/>
+    <hyperlink ref="H69" r:id="rId56" xr:uid="{6F8B0939-1DE5-40F6-9BE0-AAB00E1EF6C5}"/>
+    <hyperlink ref="H54" r:id="rId57" xr:uid="{152155CD-1666-49D7-95A6-AB137F0EB175}"/>
+    <hyperlink ref="H56" r:id="rId58" xr:uid="{11F1D8C7-9EC4-4A7B-9757-AA7A447A6C67}"/>
+    <hyperlink ref="H57" r:id="rId59" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
+    <hyperlink ref="H58" r:id="rId60" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
+    <hyperlink ref="H67" r:id="rId61" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
+    <hyperlink ref="H74" r:id="rId62" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
+    <hyperlink ref="H77" r:id="rId63" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
+    <hyperlink ref="H79" r:id="rId64" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
+    <hyperlink ref="H80" r:id="rId65" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
+    <hyperlink ref="H81" r:id="rId66" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
+    <hyperlink ref="H84" r:id="rId67" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
+    <hyperlink ref="H85" r:id="rId68" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
+    <hyperlink ref="H82" r:id="rId69" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
+    <hyperlink ref="H68" r:id="rId70" xr:uid="{D3F162E3-5823-474F-BDCC-0F7DF0ABC32B}"/>
+    <hyperlink ref="H42" r:id="rId71" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
+    <hyperlink ref="D1" r:id="rId72" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
+    <hyperlink ref="H72" r:id="rId73" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
+    <hyperlink ref="H52" r:id="rId74" xr:uid="{22AE8E27-557B-4D5A-B749-D6415EF0488E}"/>
+    <hyperlink ref="H48" r:id="rId75" display="https://www.mouser.com/ProductDetail/200-TSM10601TSH" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
+    <hyperlink ref="H64" r:id="rId76" xr:uid="{143C501C-4F01-46C2-8E64-2AE487E2533C}"/>
+    <hyperlink ref="H21" r:id="rId77" xr:uid="{07E1C21D-7544-4576-ADC3-FDC2DD346D0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId78"/>
@@ -3452,10 +3461,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1">
         <v>3</v>
@@ -3470,19 +3479,19 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -3497,16 +3506,16 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3521,19 +3530,19 @@
         <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3548,10 +3557,10 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>82</v>
@@ -3599,19 +3608,19 @@
         <v>1212</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3620,19 +3629,19 @@
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3651,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>87</v>
@@ -3660,7 +3669,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -3669,22 +3678,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -3699,10 +3708,10 @@
         <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3717,22 +3726,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -3747,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>83</v>
@@ -3756,7 +3765,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -3771,7 +3780,7 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>85</v>
@@ -3795,10 +3804,10 @@
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3819,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>86</v>
@@ -3828,7 +3837,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3843,7 +3852,7 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>84</v>
@@ -3867,13 +3876,13 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3888,19 +3897,19 @@
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3915,25 +3924,25 @@
         <v>1.21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="C20" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="11">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E6B8C-45D3-4730-88B4-EC3C15669B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9632F-6E0A-4735-870A-2B3FD5E84588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="326">
   <si>
     <t>Qty</t>
   </si>
@@ -789,9 +778,6 @@
     <t>Q6</t>
   </si>
   <si>
-    <t>R1, R4, R9, R10, R11, R16</t>
-  </si>
-  <si>
     <t>R2, R3, R5, R13, R14</t>
   </si>
   <si>
@@ -906,12 +892,6 @@
     <t>Could feasibly use TPS3840DL37 or 40 if 35 is out of stock</t>
   </si>
   <si>
-    <t>R7, R15</t>
-  </si>
-  <si>
-    <t>C5, C6</t>
-  </si>
-  <si>
     <t>Might be difficult to find. TPS630702 preferred, but all will work. Check https://octopart.com/search?q=tps63070&amp;currency=USD&amp;specs=0</t>
   </si>
   <si>
@@ -1015,6 +995,15 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=51360db3da</t>
+  </si>
+  <si>
+    <t>C1, C5, C6</t>
+  </si>
+  <si>
+    <t>R1, R4, R7, R9, R10, R11, R16</t>
+  </si>
+  <si>
+    <t>R15</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A52F74-6B21-4A92-88AA-13BD0DE1F9EF}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -1492,13 +1481,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1524,7 +1513,7 @@
         <v>226</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,7 +1581,7 @@
         <v>245</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1613,7 +1602,7 @@
         <v>218</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1682,7 +1671,7 @@
         <v>173</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1706,7 +1695,7 @@
         <v>173</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1727,7 +1716,7 @@
         <v>218</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1739,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -1751,7 +1740,7 @@
         <v>156</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1787,7 +1776,7 @@
         <v>142</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1808,7 +1797,7 @@
         <v>142</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1820,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>151</v>
@@ -1862,7 +1851,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1883,7 +1872,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1895,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E20" s="1">
         <v>1206</v>
@@ -1904,7 +1893,7 @@
         <v>133</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1916,16 +1905,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1985,7 +1974,7 @@
         <v>143</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2006,7 +1995,7 @@
         <v>144</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2027,7 +2016,7 @@
         <v>144</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2051,7 +2040,7 @@
         <v>157</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2072,7 +2061,7 @@
         <v>144</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2093,7 +2082,7 @@
         <v>144</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2114,7 +2103,7 @@
         <v>144</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2135,7 +2124,7 @@
         <v>144</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2156,7 +2145,7 @@
         <v>144</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2177,7 +2166,7 @@
         <v>144</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2234,7 +2223,7 @@
         <v>145</v>
       </c>
       <c r="G36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>151</v>
@@ -2258,7 +2247,7 @@
         <v>148</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2303,7 +2292,7 @@
         <v>146</v>
       </c>
       <c r="G39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>140</v>
@@ -2348,7 +2337,7 @@
         <v>149</v>
       </c>
       <c r="G41" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>151</v>
@@ -2359,22 +2348,22 @@
         <v>230</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F42" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2398,7 +2387,7 @@
         <v>173</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2420,7 +2409,7 @@
         <v>237</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2459,7 +2448,7 @@
         <v>191</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2471,37 +2460,37 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F47" t="s">
         <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F48" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G48" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2522,7 +2511,7 @@
         <v>161</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2567,13 +2556,13 @@
         <v>185</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2588,7 +2577,7 @@
         <v>144</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2612,7 +2601,7 @@
         <v>243</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2633,7 +2622,7 @@
         <v>144</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2654,7 +2643,7 @@
         <v>144</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2675,7 +2664,7 @@
         <v>144</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2696,7 +2685,7 @@
         <v>144</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2717,7 +2706,7 @@
         <v>144</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2738,7 +2727,7 @@
         <v>144</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2775,7 +2764,7 @@
         <v>71</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2796,7 +2785,7 @@
         <v>167</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2820,7 +2809,7 @@
         <v>244</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2844,7 +2833,7 @@
         <v>136</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2856,14 +2845,14 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s">
         <v>142</v>
       </c>
       <c r="G65" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>150</v>
@@ -2903,7 +2892,7 @@
         <v>144</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2911,13 +2900,13 @@
         <v>169</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>323</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>4</v>
@@ -2925,8 +2914,11 @@
       <c r="F68" t="s">
         <v>218</v>
       </c>
+      <c r="G68" t="s">
+        <v>173</v>
+      </c>
       <c r="H68" s="5" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2947,7 +2939,7 @@
         <v>218</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2974,19 +2966,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" t="s">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>4</v>
+        <v>108</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1206</v>
       </c>
       <c r="F71" t="s">
         <v>218</v>
@@ -2995,184 +2987,184 @@
         <v>173</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1206</v>
+        <v>118</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>218</v>
       </c>
-      <c r="G72" t="s">
-        <v>173</v>
-      </c>
       <c r="H72" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>218</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>155</v>
+        <v>48</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>4</v>
+        <v>110</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1212</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>261</v>
+        <v>176</v>
+      </c>
+      <c r="G74" t="s">
+        <v>177</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1212</v>
+        <v>178</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F75" t="s">
-        <v>176</v>
-      </c>
-      <c r="G75" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>123</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F77" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>143</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>263</v>
+        <v>144</v>
+      </c>
+      <c r="G79" t="s">
+        <v>186</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3181,10 +3173,10 @@
         <v>250</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>4</v>
@@ -3192,23 +3184,20 @@
       <c r="F80" t="s">
         <v>144</v>
       </c>
-      <c r="G80" t="s">
-        <v>186</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>269</v>
+      <c r="H80" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>4</v>
@@ -3216,20 +3205,20 @@
       <c r="F81" t="s">
         <v>144</v>
       </c>
-      <c r="H81" s="5" t="s">
-        <v>278</v>
+      <c r="H81" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" t="s">
-        <v>289</v>
+        <v>68</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>4</v>
@@ -3237,29 +3226,29 @@
       <c r="F82" t="s">
         <v>144</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>264</v>
+      <c r="G82" t="s">
+        <v>225</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>144</v>
-      </c>
-      <c r="G83" t="s">
-        <v>225</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>285</v>
@@ -3268,101 +3257,80 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>4</v>
+        <v>139</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="G84" t="s">
+        <v>286</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>286</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="F85" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="G85" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="G86" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F87" t="s">
-        <v>146</v>
-      </c>
-      <c r="G87" t="s">
-        <v>311</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="A3:A41"/>
-    <mergeCell ref="A68:A87"/>
+    <mergeCell ref="A68:A86"/>
     <mergeCell ref="A42:A63"/>
   </mergeCells>
   <hyperlinks>
@@ -3396,13 +3364,13 @@
     <hyperlink ref="H59" r:id="rId28" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
     <hyperlink ref="H62" r:id="rId29" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
     <hyperlink ref="H61" r:id="rId30" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
-    <hyperlink ref="H71" r:id="rId31" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
+    <hyperlink ref="H68" r:id="rId31" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
     <hyperlink ref="H70" r:id="rId32" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
-    <hyperlink ref="I72" r:id="rId33" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
-    <hyperlink ref="H75" r:id="rId34" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
-    <hyperlink ref="H78" r:id="rId35" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
-    <hyperlink ref="H76" r:id="rId36" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
-    <hyperlink ref="H83" r:id="rId37" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
+    <hyperlink ref="I71" r:id="rId33" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
+    <hyperlink ref="H74" r:id="rId34" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
+    <hyperlink ref="H77" r:id="rId35" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
+    <hyperlink ref="H75" r:id="rId36" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
+    <hyperlink ref="H82" r:id="rId37" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
     <hyperlink ref="H46" r:id="rId38" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
     <hyperlink ref="H3" r:id="rId39" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
     <hyperlink ref="H6" r:id="rId40" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
@@ -3410,14 +3378,14 @@
     <hyperlink ref="H22" r:id="rId42" xr:uid="{4650E4B6-75A4-4E6C-8A59-99E45F1EFF0A}"/>
     <hyperlink ref="H33" r:id="rId43" xr:uid="{40DBDCDE-0507-4D06-908C-E1B13368B813}"/>
     <hyperlink ref="H63" r:id="rId44" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
-    <hyperlink ref="H86" r:id="rId45" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
+    <hyperlink ref="H85" r:id="rId45" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
     <hyperlink ref="H60" r:id="rId46" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
     <hyperlink ref="H7" r:id="rId47" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
     <hyperlink ref="H50" r:id="rId48" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
-    <hyperlink ref="H87" r:id="rId49" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
+    <hyperlink ref="H86" r:id="rId49" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
     <hyperlink ref="H53" r:id="rId50" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
     <hyperlink ref="H51" r:id="rId51" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
-    <hyperlink ref="H73" r:id="rId52" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
+    <hyperlink ref="H72" r:id="rId52" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
     <hyperlink ref="H31" r:id="rId53" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
     <hyperlink ref="H32" r:id="rId54" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
     <hyperlink ref="H43" r:id="rId55" xr:uid="{A2162AF1-9723-488A-B2CF-D6E08028D21E}"/>
@@ -3427,25 +3395,24 @@
     <hyperlink ref="H57" r:id="rId59" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
     <hyperlink ref="H58" r:id="rId60" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
     <hyperlink ref="H67" r:id="rId61" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
-    <hyperlink ref="H74" r:id="rId62" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
-    <hyperlink ref="H77" r:id="rId63" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
-    <hyperlink ref="H79" r:id="rId64" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
-    <hyperlink ref="H80" r:id="rId65" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
-    <hyperlink ref="H81" r:id="rId66" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
-    <hyperlink ref="H84" r:id="rId67" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
-    <hyperlink ref="H85" r:id="rId68" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
-    <hyperlink ref="H82" r:id="rId69" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
-    <hyperlink ref="H68" r:id="rId70" xr:uid="{D3F162E3-5823-474F-BDCC-0F7DF0ABC32B}"/>
-    <hyperlink ref="H42" r:id="rId71" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
-    <hyperlink ref="D1" r:id="rId72" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
-    <hyperlink ref="H72" r:id="rId73" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
-    <hyperlink ref="H52" r:id="rId74" xr:uid="{22AE8E27-557B-4D5A-B749-D6415EF0488E}"/>
-    <hyperlink ref="H48" r:id="rId75" display="https://www.mouser.com/ProductDetail/200-TSM10601TSH" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
-    <hyperlink ref="H64" r:id="rId76" xr:uid="{143C501C-4F01-46C2-8E64-2AE487E2533C}"/>
-    <hyperlink ref="H21" r:id="rId77" xr:uid="{07E1C21D-7544-4576-ADC3-FDC2DD346D0A}"/>
+    <hyperlink ref="H73" r:id="rId62" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
+    <hyperlink ref="H76" r:id="rId63" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
+    <hyperlink ref="H78" r:id="rId64" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
+    <hyperlink ref="H79" r:id="rId65" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
+    <hyperlink ref="H80" r:id="rId66" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
+    <hyperlink ref="H83" r:id="rId67" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
+    <hyperlink ref="H84" r:id="rId68" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
+    <hyperlink ref="H81" r:id="rId69" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
+    <hyperlink ref="H42" r:id="rId70" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
+    <hyperlink ref="D1" r:id="rId71" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
+    <hyperlink ref="H71" r:id="rId72" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
+    <hyperlink ref="H52" r:id="rId73" xr:uid="{22AE8E27-557B-4D5A-B749-D6415EF0488E}"/>
+    <hyperlink ref="H48" r:id="rId74" display="https://www.mouser.com/ProductDetail/200-TSM10601TSH" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
+    <hyperlink ref="H64" r:id="rId75" xr:uid="{143C501C-4F01-46C2-8E64-2AE487E2533C}"/>
+    <hyperlink ref="H21" r:id="rId76" xr:uid="{07E1C21D-7544-4576-ADC3-FDC2DD346D0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId78"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId77"/>
 </worksheet>
 </file>
 

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\DMGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9632F-6E0A-4735-870A-2B3FD5E84588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D96B90-6956-4A07-B160-9130AC433BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{7F6804EE-8674-4FA5-A751-3C7C7507FA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="330">
   <si>
     <t>Qty</t>
   </si>
@@ -85,9 +85,6 @@
     <t>FB1</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
@@ -175,18 +172,9 @@
     <t>Fuse</t>
   </si>
   <si>
-    <t>LCD connector</t>
-  </si>
-  <si>
     <t>Volume wheel</t>
   </si>
   <si>
-    <t>DCJACK</t>
-  </si>
-  <si>
-    <t>EXT</t>
-  </si>
-  <si>
     <t>Link port</t>
   </si>
   <si>
@@ -298,9 +286,6 @@
     <t>FFC Cable</t>
   </si>
   <si>
-    <t>0151660539‎</t>
-  </si>
-  <si>
     <t>EM6-EM8</t>
   </si>
   <si>
@@ -337,9 +322,6 @@
     <t>C4, C5</t>
   </si>
   <si>
-    <t>220pF</t>
-  </si>
-  <si>
     <t>402k</t>
   </si>
   <si>
@@ -382,9 +364,6 @@
     <t>Speaker</t>
   </si>
   <si>
-    <t>10nF</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Littelfuse/1206L110THYR?qs=CPcc0c%2Fon9HuH5Zb2mgbPg%3D%3D</t>
   </si>
   <si>
@@ -406,9 +385,6 @@
     <t>2.5A</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL10B221KB8NFNC?qs=YCa%2FAAYMW03S2dLM1EfL7A%3D%3D</t>
-  </si>
-  <si>
     <t>Schottky diode</t>
   </si>
   <si>
@@ -484,9 +460,6 @@
     <t>Salvaged (GBC)</t>
   </si>
   <si>
-    <t>FBMH2012HM221-T</t>
-  </si>
-  <si>
     <t>BLM18BD102SN1D</t>
   </si>
   <si>
@@ -724,9 +697,6 @@
     <t>HDP-01</t>
   </si>
   <si>
-    <t>C2, C8, C9, C11</t>
-  </si>
-  <si>
     <t>TPS3840DLXX can be used instead (XX = 35 to 22)</t>
   </si>
   <si>
@@ -802,9 +772,6 @@
     <t>PMEG2010AEH</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Taiyo-Yuden/FBMH2012HM221-T?qs=I6KAKw0tg2yIAV1HVl6Cew%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18BD102SN1D?qs=h3IWXJJGQQWi4eZyJq6ScQ%3D%3D</t>
   </si>
   <si>
@@ -925,18 +892,12 @@
     <t>Common mode filter</t>
   </si>
   <si>
-    <t>Replacement: https://mou.sr/3FiMvXw</t>
-  </si>
-  <si>
     <t>Potential replacement (not very space-friendly): https://mou.sr/3D5AUbH</t>
   </si>
   <si>
     <t>Surface mount replacement: https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18BD102SN1D?qs=h3IWXJJGQQWi4eZyJq6ScQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/?qs=Zy5V7Kj3rCVVMQaoWTlMmg%3D%3D</t>
-  </si>
-  <si>
     <t>Alternate Source</t>
   </si>
   <si>
@@ -982,9 +943,6 @@
     <t>https://www.mouser.com/ProductDetail/?qs=HL%252BYNjdyZ0vzwc9E0QYY2g%3D%3D</t>
   </si>
   <si>
-    <t>Alternate: FFC2B17-50-T</t>
-  </si>
-  <si>
     <t>62684-502100AHLF</t>
   </si>
   <si>
@@ -994,9 +952,6 @@
     <t>https://www.mouser.com/ProductDetail/Panasonic/ECE-A0JKA101I?qs=WYPlz5ezODCWQbvWRFj8Mg%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=51360db3da</t>
-  </si>
-  <si>
     <t>C1, C5, C6</t>
   </si>
   <si>
@@ -1004,6 +959,63 @@
   </si>
   <si>
     <t>R15</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Littelfuse/0466001.NR?qs=ar9f0rk5DXDy6tpNfF8WnQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/GRM31CR61C476ME44K?qs=QzBtWTOodeVeYV6UhCOqow%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TAIYO-YUDEN/LCMGA201208T221RG?qs=tlsG%2FOw5FFhaNdb0vekDOQ%3D%3D</t>
+  </si>
+  <si>
+    <t>LCMGA201208T221RG</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/15020-0541?qs=pwzmk436yFR5fXbQvbR%2F1w%3D%3D</t>
+  </si>
+  <si>
+    <t>15020-0541</t>
+  </si>
+  <si>
+    <t>Gold plated preferred, but alternate part can work too. Note that 15020-0541 must be bent in the proper direction for good fitment</t>
+  </si>
+  <si>
+    <t>COM-08184</t>
+  </si>
+  <si>
+    <t>Can be salvaged from GBC instead</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Wurth-Elektronik/744235601?qs=BXmE%252BJ0Y7xYO4MPd53j2NQ%3D%3D</t>
+  </si>
+  <si>
+    <t>C9, C10</t>
+  </si>
+  <si>
+    <t>0.01uF</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>FFC connector</t>
+  </si>
+  <si>
+    <t>C8, C9, C11</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=6600c1bb14</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1111,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1134,6 +1146,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1458,13 +1471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A52F74-6B21-4A92-88AA-13BD0DE1F9EF}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,64 +1489,64 @@
     <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="125.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="168.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1551,13 +1564,13 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1575,13 +1588,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1599,10 +1612,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1620,10 +1633,10 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1635,25 +1648,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1665,37 +1678,37 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1713,91 +1726,91 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>327</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1808,266 +1821,266 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16" s="1">
+        <v>744235601</v>
+      </c>
       <c r="F16" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>151</v>
+        <v>319</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1206</v>
+      </c>
       <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>150</v>
+        <v>47</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2">
         <v>1206</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>261</v>
+        <v>47</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>4</v>
+      <c r="D19" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1206</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>260</v>
+        <v>125</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1206</v>
-      </c>
       <c r="F20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>305</v>
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="C21">
         <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="G21" t="s">
-        <v>318</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>317</v>
+      <c r="H21" s="15" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>134</v>
+        <v>324</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E23" s="1">
         <v>1206</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2079,58 +2092,58 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2142,16 +2155,16 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2163,505 +2176,508 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G41" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="G42" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C43">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G43" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
-      <c r="B44" t="s">
-        <v>100</v>
+      <c r="B44" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G44" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>218</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>321</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>318</v>
-      </c>
-      <c r="H47" s="5" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" t="s">
-        <v>292</v>
+        <v>60</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
-      </c>
-      <c r="G48" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="F49" t="s">
-        <v>161</v>
+        <v>282</v>
+      </c>
+      <c r="G49" t="s">
+        <v>283</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2020</v>
+        <v>228</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2020</v>
       </c>
       <c r="F51" t="s">
-        <v>185</v>
+        <v>151</v>
+      </c>
+      <c r="G51" t="s">
+        <v>236</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" t="s">
-        <v>314</v>
+        <v>52</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>4</v>
+        <v>109</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>264</v>
+        <v>136</v>
+      </c>
+      <c r="G54" t="s">
+        <v>233</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>278</v>
+        <v>136</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>100</v>
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>267</v>
@@ -2670,674 +2686,698 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>268</v>
+        <v>136</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>510</v>
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>164</v>
+      <c r="D59" s="1">
+        <v>510</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>279</v>
+        <v>136</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F60" t="s">
-        <v>117</v>
-      </c>
-      <c r="G60" t="s">
-        <v>198</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>199</v>
+        <v>136</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
+      <c r="D61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>280</v>
+        <v>111</v>
+      </c>
+      <c r="G61" t="s">
+        <v>189</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="F62" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>168</v>
+        <v>58</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F63" t="s">
-        <v>166</v>
-      </c>
-      <c r="G63" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>231</v>
-      </c>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" t="s">
+        <v>157</v>
+      </c>
+      <c r="G64" t="s">
+        <v>234</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65">
         <v>2</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s">
-        <v>219</v>
-      </c>
-      <c r="G64" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>297</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="G65" t="s">
-        <v>301</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>150</v>
+        <v>128</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s">
-        <v>197</v>
+        <v>134</v>
+      </c>
+      <c r="G66" t="s">
+        <v>289</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s">
+        <v>188</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68">
         <v>2</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>144</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" t="s">
-        <v>323</v>
-      </c>
-      <c r="C68">
+      <c r="D68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>218</v>
-      </c>
-      <c r="G68" t="s">
-        <v>173</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" t="s">
-        <v>232</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>218</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>254</v>
+        <v>209</v>
+      </c>
+      <c r="G69" t="s">
+        <v>164</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F70" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G70" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2">
         <v>1206</v>
       </c>
       <c r="F71" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G71" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>218</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>260</v>
+        <v>209</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1212</v>
+        <v>17</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
-      </c>
-      <c r="G74" t="s">
-        <v>177</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>123</v>
+        <v>47</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1212</v>
       </c>
       <c r="F75" t="s">
-        <v>184</v>
+        <v>167</v>
+      </c>
+      <c r="G75" t="s">
+        <v>168</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" t="s">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F76" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F78" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>4</v>
+        <v>121</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
-      </c>
-      <c r="G79" t="s">
-        <v>186</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>268</v>
+        <v>135</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>144</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>277</v>
+        <v>136</v>
+      </c>
+      <c r="G80" t="s">
+        <v>177</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>144</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>263</v>
+        <v>136</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>310</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>144</v>
-      </c>
-      <c r="G82" t="s">
-        <v>225</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>284</v>
+        <v>136</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="G83" t="s">
+        <v>216</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>146</v>
-      </c>
-      <c r="G84" t="s">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>140</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G85" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>289</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F86" t="s">
+        <v>187</v>
+      </c>
+      <c r="G86" t="s">
+        <v>277</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="19"/>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" t="s">
         <v>295</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F86" t="s">
-        <v>146</v>
-      </c>
-      <c r="G86" t="s">
-        <v>308</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>307</v>
+      <c r="H87" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A65:A68"/>
     <mergeCell ref="A3:A41"/>
-    <mergeCell ref="A68:A86"/>
-    <mergeCell ref="A42:A63"/>
+    <mergeCell ref="A69:A87"/>
+    <mergeCell ref="A42:A64"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H19" r:id="rId1" xr:uid="{533531D7-E2DD-484C-90E8-FE450EDAA4D0}"/>
+    <hyperlink ref="H18" r:id="rId1" xr:uid="{533531D7-E2DD-484C-90E8-FE450EDAA4D0}"/>
     <hyperlink ref="H23" r:id="rId2" xr:uid="{09714B1A-E775-419E-8202-A09F642D6DD4}"/>
-    <hyperlink ref="H18" r:id="rId3" xr:uid="{2D09FB30-3329-4175-993E-59AE1C8AF6B1}"/>
-    <hyperlink ref="H20" r:id="rId4" xr:uid="{EAD0EB91-0E07-454F-A47E-D46C454C2792}"/>
+    <hyperlink ref="H17" r:id="rId3" xr:uid="{2D09FB30-3329-4175-993E-59AE1C8AF6B1}"/>
+    <hyperlink ref="H19" r:id="rId4" xr:uid="{EAD0EB91-0E07-454F-A47E-D46C454C2792}"/>
     <hyperlink ref="H28" r:id="rId5" xr:uid="{890600A0-CDA6-4169-914B-6E09158E9D08}"/>
     <hyperlink ref="H29" r:id="rId6" xr:uid="{521BAB14-AAAB-4E99-B6B1-DC297ACB35D3}"/>
     <hyperlink ref="H26" r:id="rId7" xr:uid="{E2BED9B7-E7F4-4BB7-9480-D361CBDECBC2}"/>
@@ -3358,61 +3398,64 @@
     <hyperlink ref="H30" r:id="rId22" xr:uid="{A53E990E-9129-4EB1-A34B-0C78C0D9E34D}"/>
     <hyperlink ref="H27" r:id="rId23" xr:uid="{76C67D05-F2EA-44A2-BD81-EF2014CF57EC}"/>
     <hyperlink ref="H44" r:id="rId24" xr:uid="{F90AB032-219C-4117-8CC7-BC9E853E4698}"/>
-    <hyperlink ref="H45" r:id="rId25" xr:uid="{49CC98DC-1B54-431E-9034-D174BB2AC2CC}"/>
-    <hyperlink ref="H49" r:id="rId26" xr:uid="{9C9AC3AA-79BD-46AD-815A-2DBF971DA7BE}"/>
-    <hyperlink ref="H55" r:id="rId27" xr:uid="{01EEB93E-EB32-49F6-8E28-29BD44012437}"/>
-    <hyperlink ref="H59" r:id="rId28" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
-    <hyperlink ref="H62" r:id="rId29" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
-    <hyperlink ref="H61" r:id="rId30" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
-    <hyperlink ref="H68" r:id="rId31" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
-    <hyperlink ref="H70" r:id="rId32" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
-    <hyperlink ref="I71" r:id="rId33" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
-    <hyperlink ref="H74" r:id="rId34" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
-    <hyperlink ref="H77" r:id="rId35" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
-    <hyperlink ref="H75" r:id="rId36" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
-    <hyperlink ref="H82" r:id="rId37" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
-    <hyperlink ref="H46" r:id="rId38" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
-    <hyperlink ref="H3" r:id="rId39" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
-    <hyperlink ref="H6" r:id="rId40" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
-    <hyperlink ref="H11" r:id="rId41" xr:uid="{38676E5E-4ABA-45F9-95EC-56E10A2FCB56}"/>
-    <hyperlink ref="H22" r:id="rId42" xr:uid="{4650E4B6-75A4-4E6C-8A59-99E45F1EFF0A}"/>
-    <hyperlink ref="H33" r:id="rId43" xr:uid="{40DBDCDE-0507-4D06-908C-E1B13368B813}"/>
-    <hyperlink ref="H63" r:id="rId44" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
-    <hyperlink ref="H85" r:id="rId45" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
-    <hyperlink ref="H60" r:id="rId46" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
-    <hyperlink ref="H7" r:id="rId47" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
-    <hyperlink ref="H50" r:id="rId48" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
-    <hyperlink ref="H86" r:id="rId49" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
-    <hyperlink ref="H53" r:id="rId50" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
-    <hyperlink ref="H51" r:id="rId51" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
-    <hyperlink ref="H72" r:id="rId52" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
-    <hyperlink ref="H31" r:id="rId53" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
-    <hyperlink ref="H32" r:id="rId54" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
-    <hyperlink ref="H43" r:id="rId55" xr:uid="{A2162AF1-9723-488A-B2CF-D6E08028D21E}"/>
-    <hyperlink ref="H69" r:id="rId56" xr:uid="{6F8B0939-1DE5-40F6-9BE0-AAB00E1EF6C5}"/>
-    <hyperlink ref="H54" r:id="rId57" xr:uid="{152155CD-1666-49D7-95A6-AB137F0EB175}"/>
-    <hyperlink ref="H56" r:id="rId58" xr:uid="{11F1D8C7-9EC4-4A7B-9757-AA7A447A6C67}"/>
-    <hyperlink ref="H57" r:id="rId59" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
-    <hyperlink ref="H58" r:id="rId60" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
-    <hyperlink ref="H67" r:id="rId61" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
-    <hyperlink ref="H73" r:id="rId62" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
-    <hyperlink ref="H76" r:id="rId63" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
-    <hyperlink ref="H78" r:id="rId64" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
-    <hyperlink ref="H79" r:id="rId65" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
-    <hyperlink ref="H80" r:id="rId66" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
-    <hyperlink ref="H83" r:id="rId67" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
-    <hyperlink ref="H84" r:id="rId68" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
-    <hyperlink ref="H81" r:id="rId69" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
-    <hyperlink ref="H42" r:id="rId70" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
-    <hyperlink ref="D1" r:id="rId71" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
-    <hyperlink ref="H71" r:id="rId72" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
-    <hyperlink ref="H52" r:id="rId73" xr:uid="{22AE8E27-557B-4D5A-B749-D6415EF0488E}"/>
-    <hyperlink ref="H48" r:id="rId74" display="https://www.mouser.com/ProductDetail/200-TSM10601TSH" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
-    <hyperlink ref="H64" r:id="rId75" xr:uid="{143C501C-4F01-46C2-8E64-2AE487E2533C}"/>
-    <hyperlink ref="H21" r:id="rId76" xr:uid="{07E1C21D-7544-4576-ADC3-FDC2DD346D0A}"/>
+    <hyperlink ref="H50" r:id="rId25" xr:uid="{9C9AC3AA-79BD-46AD-815A-2DBF971DA7BE}"/>
+    <hyperlink ref="H56" r:id="rId26" xr:uid="{01EEB93E-EB32-49F6-8E28-29BD44012437}"/>
+    <hyperlink ref="H60" r:id="rId27" xr:uid="{9FF0327D-ED0F-4D03-BBB4-9584A9156E5C}"/>
+    <hyperlink ref="H63" r:id="rId28" xr:uid="{B61DF269-CCB9-4753-A56C-1C5B11C9CF3A}"/>
+    <hyperlink ref="H62" r:id="rId29" xr:uid="{5DD57FA6-D20D-41C4-A4CC-21B205C3D117}"/>
+    <hyperlink ref="H69" r:id="rId30" xr:uid="{926D998F-45BF-4BFE-B98D-00025447071B}"/>
+    <hyperlink ref="H70" r:id="rId31" xr:uid="{AD91D151-0483-4D81-A9C2-543F591FEBFA}"/>
+    <hyperlink ref="I71" r:id="rId32" xr:uid="{AC9D10EF-1997-4EA0-B718-2EF9E3E98629}"/>
+    <hyperlink ref="H75" r:id="rId33" xr:uid="{9D5E65E4-B7B2-4665-88E3-DA9A1F07B195}"/>
+    <hyperlink ref="H78" r:id="rId34" xr:uid="{2623C9CE-05FB-4B01-8A44-40591543F3D1}"/>
+    <hyperlink ref="H76" r:id="rId35" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
+    <hyperlink ref="H83" r:id="rId36" xr:uid="{EF523AA5-46DB-410A-923B-33C66D04802D}"/>
+    <hyperlink ref="I47" r:id="rId37" xr:uid="{20E76D58-3175-46FC-84B7-F23979C58B44}"/>
+    <hyperlink ref="H3" r:id="rId38" xr:uid="{97861D6A-6BAF-45FF-9418-17D01E6A16B8}"/>
+    <hyperlink ref="H6" r:id="rId39" xr:uid="{F4C2F3B9-A851-4B2E-A054-03CA0A165666}"/>
+    <hyperlink ref="H11" r:id="rId40" xr:uid="{38676E5E-4ABA-45F9-95EC-56E10A2FCB56}"/>
+    <hyperlink ref="H20" r:id="rId41" xr:uid="{4650E4B6-75A4-4E6C-8A59-99E45F1EFF0A}"/>
+    <hyperlink ref="H33" r:id="rId42" xr:uid="{40DBDCDE-0507-4D06-908C-E1B13368B813}"/>
+    <hyperlink ref="H64" r:id="rId43" xr:uid="{F1D09922-3347-438A-AA60-D2F6C443DA83}"/>
+    <hyperlink ref="H86" r:id="rId44" xr:uid="{A30A70F0-13A6-4E08-BDA5-CD11AE024AB9}"/>
+    <hyperlink ref="H61" r:id="rId45" xr:uid="{55E0C85C-D6FF-4BF6-BB42-1FCBFC8D074F}"/>
+    <hyperlink ref="H7" r:id="rId46" xr:uid="{8B0AD5E9-D3C6-4A4F-B116-FDAF35A535FE}"/>
+    <hyperlink ref="H51" r:id="rId47" xr:uid="{8535DF26-EB14-4739-B8AE-1D4A64F8C804}"/>
+    <hyperlink ref="H87" r:id="rId48" xr:uid="{336A4F11-2EE3-4592-A0CA-093D11DC75A7}"/>
+    <hyperlink ref="H54" r:id="rId49" xr:uid="{7FC3B8B6-7083-4AAB-908F-21CC0B17A51E}"/>
+    <hyperlink ref="H52" r:id="rId50" xr:uid="{24624CF7-CAFA-4368-BC28-33847694BC16}"/>
+    <hyperlink ref="H73" r:id="rId51" xr:uid="{FD4511B7-86DC-46CB-B75E-9309E9D6CAD2}"/>
+    <hyperlink ref="H31" r:id="rId52" xr:uid="{BB4DE068-5A01-4E40-9B05-7F2D2F01B175}"/>
+    <hyperlink ref="H32" r:id="rId53" xr:uid="{155C2676-B483-421A-9E7F-398208CE9668}"/>
+    <hyperlink ref="H43" r:id="rId54" xr:uid="{A2162AF1-9723-488A-B2CF-D6E08028D21E}"/>
+    <hyperlink ref="H72" r:id="rId55" xr:uid="{6F8B0939-1DE5-40F6-9BE0-AAB00E1EF6C5}"/>
+    <hyperlink ref="H55" r:id="rId56" xr:uid="{152155CD-1666-49D7-95A6-AB137F0EB175}"/>
+    <hyperlink ref="H57" r:id="rId57" xr:uid="{11F1D8C7-9EC4-4A7B-9757-AA7A447A6C67}"/>
+    <hyperlink ref="H58" r:id="rId58" xr:uid="{8692C2D6-1959-40DB-9FFD-46BAF2920AAB}"/>
+    <hyperlink ref="H59" r:id="rId59" xr:uid="{5F13C9A4-BF37-4BEA-8930-D606AC4315C4}"/>
+    <hyperlink ref="H68" r:id="rId60" xr:uid="{D6BA24B3-C500-4285-A5FA-770A7257BA52}"/>
+    <hyperlink ref="H74" r:id="rId61" xr:uid="{3ACB0612-4CE1-4428-B7AE-07BAD6C70593}"/>
+    <hyperlink ref="H77" r:id="rId62" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
+    <hyperlink ref="H79" r:id="rId63" xr:uid="{AC2A27D3-CBD5-4231-8E8F-A88B0D187858}"/>
+    <hyperlink ref="H80" r:id="rId64" xr:uid="{FF45CDB9-12CD-4B99-8F90-F454A76DBCFF}"/>
+    <hyperlink ref="H81" r:id="rId65" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
+    <hyperlink ref="H84" r:id="rId66" xr:uid="{8EB3AA15-7604-45EE-8630-D24C836394BF}"/>
+    <hyperlink ref="H85" r:id="rId67" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
+    <hyperlink ref="H82" r:id="rId68" xr:uid="{FE946DA0-A60F-41FB-BE35-74810903D147}"/>
+    <hyperlink ref="H42" r:id="rId69" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
+    <hyperlink ref="D1" r:id="rId70" xr:uid="{1F9D309F-F194-4C6F-83D1-C6FF42B305C8}"/>
+    <hyperlink ref="H71" r:id="rId71" xr:uid="{C066707D-731A-4781-89F3-8C7B4A7D3718}"/>
+    <hyperlink ref="H53" r:id="rId72" xr:uid="{22AE8E27-557B-4D5A-B749-D6415EF0488E}"/>
+    <hyperlink ref="H49" r:id="rId73" display="https://www.mouser.com/ProductDetail/200-TSM10601TSH" xr:uid="{B69F803B-90F7-4513-BCFA-B5462F578917}"/>
+    <hyperlink ref="H65" r:id="rId74" xr:uid="{143C501C-4F01-46C2-8E64-2AE487E2533C}"/>
+    <hyperlink ref="H22" r:id="rId75" xr:uid="{07E1C21D-7544-4576-ADC3-FDC2DD346D0A}"/>
+    <hyperlink ref="H47" r:id="rId76" xr:uid="{3D3E0520-88AD-4E39-AB12-DC317461827D}"/>
+    <hyperlink ref="H16" r:id="rId77" xr:uid="{0EBD6A58-584B-45AA-9B32-0EDA256D704B}"/>
+    <hyperlink ref="H45" r:id="rId78" xr:uid="{9173528F-9A83-4654-A2DD-C1D078FF6489}"/>
+    <hyperlink ref="H46" r:id="rId79" xr:uid="{B8F71F29-52A5-49C7-AE93-853FBD7E586F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId77"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId80"/>
 </worksheet>
 </file>
 
@@ -3428,10 +3471,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
         <v>192</v>
-      </c>
-      <c r="B1" t="s">
-        <v>201</v>
       </c>
       <c r="C1">
         <v>3</v>
@@ -3440,25 +3483,25 @@
         <v>0.3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -3467,22 +3510,22 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3491,25 +3534,25 @@
         <v>0.39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3524,19 +3567,19 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3551,16 +3594,16 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3569,25 +3612,25 @@
         <v>0.46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1">
         <v>1212</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3596,25 +3639,25 @@
         <v>0.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1">
         <v>1212</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3627,16 +3670,16 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -3645,22 +3688,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -3669,22 +3712,22 @@
         <v>0.22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3693,22 +3736,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -3717,22 +3760,22 @@
         <v>0.1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -3741,22 +3784,22 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3771,16 +3814,16 @@
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3789,22 +3832,22 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3813,22 +3856,22 @@
         <v>0.1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3837,25 +3880,25 @@
         <v>2.61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H17" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3864,25 +3907,25 @@
         <v>2.94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H18" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3891,25 +3934,25 @@
         <v>1.21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="C20" s="10" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D20" s="11">
         <f>SUMPRODUCT(C1:C19,D1:D19)</f>
